--- a/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="308">
   <si>
     <t>Fecha:</t>
   </si>
@@ -540,15 +540,6 @@
     <t>Funciones</t>
   </si>
   <si>
-    <t xml:space="preserve">Las letras X, Y en mayusculas, Modificar los diagramas sagitales para que todos los del motor tengan el mismo formato. </t>
-  </si>
-  <si>
-    <t>El mismo diagrama  de la img02</t>
-  </si>
-  <si>
-    <t>Una grafica similar a esta pero en el eje horizontal se ubican en orden de izquierda a derecha las letras A, B, C, D, E, F,G, H y en el vertical en orden de abajo hacia arriba A, B, C, D, se resaltan los mismos puntos que en la rejilla que se ve en la grafica.</t>
-  </si>
-  <si>
     <t>IMG06</t>
   </si>
   <si>
@@ -558,13 +549,560 @@
     <t>IMG08</t>
   </si>
   <si>
-    <t>La misma grafica IMG07</t>
-  </si>
-  <si>
     <t>IMG09</t>
   </si>
   <si>
     <t>MA_11_02_CO</t>
+  </si>
+  <si>
+    <t>Cuaderno de Estudio</t>
+  </si>
+  <si>
+    <t>221793745-142778230-199544615-60771259</t>
+  </si>
+  <si>
+    <t>Elaborar un colage con las imágenes qe se  toman de shutterstock</t>
+  </si>
+  <si>
+    <t>Son Cuatro imágenes que muestran aplicaciones  de la funcion,  en  una de ellas hay representaciones graficas de funciones,  que se pueden mostrar por aparte, la idea es hacer un collage con estas imágenes que muestre  algunos contextos de aplicación de funcion.  El diseño de este collage queda a la libertad del diseñador.</t>
+  </si>
+  <si>
+    <t>Dibujar un diagrama sagital similar a este.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diagrama Sagital de la relación, escribir A al conjunto de salida y B al conjunto de llegada, además dibujar una flecha de la letra A hacia la letra B, sobre la fecha escribir </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de forma similar a la IMG02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diagrama Sagital de la relación, escribir A al conjunto de salida y B al conjunto de llegada, además dibujar una flecha de la letra A hacia la letra B, sobre la fecha escribir </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de forma similar a la IMG02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Diagrama Sagital de la relación, escribir A al conjunto de salida y B al conjunto de llegada, además dibujar una flecha de la letra A hacia la letra B, sobre la fecha escribir R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. de forma similar a la IMG02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Diagrama Sagital de la relación, escribir A al conjunto de salida y B al conjunto de llegada, además dibujar una flecha de la letra A hacia la letra B, sobre la fecha escribir R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Similar a la IMG02</t>
+    </r>
+  </si>
+  <si>
+    <t>Diagrama Sagital de la relación, escribir A al conjunto de salida y B al conjunto de llegada, además dibujar una flecha de la letra A hacia la letra B, sobre la fecha escribir S, Similar a la IMG02</t>
+  </si>
+  <si>
+    <t>Diagrama Sagital de la relación, escribir A al conjunto de salida y B al conjunto de llegada, además dibujar una flecha de la letra A hacia la letra B, sobre la fecha escribir T, Similar a la IMG02</t>
+  </si>
+  <si>
+    <t>IMG10</t>
+  </si>
+  <si>
+    <t>IMG11</t>
+  </si>
+  <si>
+    <t>IMG12</t>
+  </si>
+  <si>
+    <t>IMG13</t>
+  </si>
+  <si>
+    <t>IMG14</t>
+  </si>
+  <si>
+    <t>IMG15</t>
+  </si>
+  <si>
+    <t>IMG16</t>
+  </si>
+  <si>
+    <t>IMG17</t>
+  </si>
+  <si>
+    <t>IMG18</t>
+  </si>
+  <si>
+    <t>IMG19</t>
+  </si>
+  <si>
+    <t>IMG20</t>
+  </si>
+  <si>
+    <t>IMG21</t>
+  </si>
+  <si>
+    <t>IMG22</t>
+  </si>
+  <si>
+    <t>IMG23</t>
+  </si>
+  <si>
+    <t>IMG24</t>
+  </si>
+  <si>
+    <t>IMG25</t>
+  </si>
+  <si>
+    <t>IMG26</t>
+  </si>
+  <si>
+    <t>IMG27</t>
+  </si>
+  <si>
+    <t>IMG28</t>
+  </si>
+  <si>
+    <t>IMG29</t>
+  </si>
+  <si>
+    <t>IMG30</t>
+  </si>
+  <si>
+    <t>IMG31</t>
+  </si>
+  <si>
+    <t>IMG32</t>
+  </si>
+  <si>
+    <t>IMG33</t>
+  </si>
+  <si>
+    <t>IMG34</t>
+  </si>
+  <si>
+    <t>IMG35</t>
+  </si>
+  <si>
+    <t>IMG36</t>
+  </si>
+  <si>
+    <t>IMG37</t>
+  </si>
+  <si>
+    <t>IMG38</t>
+  </si>
+  <si>
+    <t>IMG39</t>
+  </si>
+  <si>
+    <t>IMG40</t>
+  </si>
+  <si>
+    <t>IMG41</t>
+  </si>
+  <si>
+    <t>IMG42</t>
+  </si>
+  <si>
+    <t>IMG43</t>
+  </si>
+  <si>
+    <t>IMG44</t>
+  </si>
+  <si>
+    <t>IMG45</t>
+  </si>
+  <si>
+    <t>IMG46</t>
+  </si>
+  <si>
+    <t>IMG47</t>
+  </si>
+  <si>
+    <t>IMG48</t>
+  </si>
+  <si>
+    <t>IMG49</t>
+  </si>
+  <si>
+    <t>IMG50</t>
+  </si>
+  <si>
+    <t>IMG51</t>
+  </si>
+  <si>
+    <t>IMG52</t>
+  </si>
+  <si>
+    <t>IMG53</t>
+  </si>
+  <si>
+    <t>IMG54</t>
+  </si>
+  <si>
+    <t>IMG55</t>
+  </si>
+  <si>
+    <t>IMG56</t>
+  </si>
+  <si>
+    <t>IMG57</t>
+  </si>
+  <si>
+    <t>IMG58</t>
+  </si>
+  <si>
+    <t>IMG59</t>
+  </si>
+  <si>
+    <t>IMG60</t>
+  </si>
+  <si>
+    <t>IMG61</t>
+  </si>
+  <si>
+    <t>IMG62</t>
+  </si>
+  <si>
+    <t>IMG63</t>
+  </si>
+  <si>
+    <t>IMG64</t>
+  </si>
+  <si>
+    <t>IMG65</t>
+  </si>
+  <si>
+    <t>IMG66</t>
+  </si>
+  <si>
+    <t>IMG67</t>
+  </si>
+  <si>
+    <t>IMG68</t>
+  </si>
+  <si>
+    <t>IMG69</t>
+  </si>
+  <si>
+    <t>IMG70</t>
+  </si>
+  <si>
+    <t>IMG71</t>
+  </si>
+  <si>
+    <t>IMG72</t>
+  </si>
+  <si>
+    <t>IMG73</t>
+  </si>
+  <si>
+    <t>IMG74</t>
+  </si>
+  <si>
+    <t>Es una  recopilacion de los diagramas sagitales de las  IMG02 hasta IMG06</t>
+  </si>
+  <si>
+    <t>Incluir el nombre de cada conjunto y la flecha que los una mediante cada relacion como en la IMG02</t>
+  </si>
+  <si>
+    <t>Descargar o dibujar similar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representacion grafica en el plano cartesiano de la circunferencia </t>
+  </si>
+  <si>
+    <t>Representacion grafica de la region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representacion  grafica de la relacion </t>
+  </si>
+  <si>
+    <t>Representación grafica de la relacion, en este link aparece la ecuacion del logotipo de  batman  http://gaussianos.com/la-ecuacion-del-logo-de-batman-en-mathematica/</t>
+  </si>
+  <si>
+    <t>La misma IMG09</t>
+  </si>
+  <si>
+    <t>La misma IMG10</t>
+  </si>
+  <si>
+    <t>Grafica de la circunferencia de radio 1, similar a la IMG12, con una recta vertical de color rojo que la atraviesa en dos puntos como se muestra en la figura</t>
+  </si>
+  <si>
+    <t>La grafica de la IMG13, atravesada poe una recta vertical de color rojo, se deben mstrar varios puntos de la recta que se intersectan con la region sombreada, estos puntos no requieren etiqueta.</t>
+  </si>
+  <si>
+    <t>La IMG14, con varias rectas verticales que la intersectan, marcar estos puntos de interseccion, pero eliminar las etiquetas de los puntos de interseccion y de las rectas verticales</t>
+  </si>
+  <si>
+    <t>La IMG15, con una recta vertical que la atraviesa en dos puntos, la recta de color rojo, y se marcan los puntos, pero ni la recta, ni los puntos deben tener etiqueta.</t>
+  </si>
+  <si>
+    <t>Similar a la IMG02, con A y B los nombres de cada conjunto y una flecha de A hacia B, bajo la letra f</t>
+  </si>
+  <si>
+    <t>Similar a la IMG02, con A y B los nombres de cada conjunto y una flecha de A hacia B, bajo la letra g, cambiar f por g</t>
+  </si>
+  <si>
+    <t>La misma IMG08</t>
+  </si>
+  <si>
+    <t>grafica de la funcion f(x)=raiz cuadrada de x, y sobre ella varias rectas horizontales de color rojo que cortan la grafica en un solo punto. Eliminar las etiquetas de los puntos de interseccion entre la curva y las rectas. Eliminar las etiquetas de las rectas horizontales</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion f(x)=x^2, con una recta horizontal que pasa por dos puntos, eliminar la etiqueta de la recta y de los puntos de interseccion.</t>
+  </si>
+  <si>
+    <t>Representacion en el diagrama sagital de g, cambiar g por f  y poner los nombres a los conjuntos A y B, y la flecha de A en B</t>
+  </si>
+  <si>
+    <t>Representacion grafica de f(x)=x^5</t>
+  </si>
+  <si>
+    <t>Representacion en el diagrama sagital de f poner los nombres a los conjuntos A y B, y la flecha de A en B</t>
+  </si>
+  <si>
+    <t>grafica de la funcion f(x)=x^5 y sobre ella varias rectas horizontales de color rojo que cortan la grafica en un solo punto. Eliminar las etiquetas de los puntos de interseccion entre la curva y las rectas. Eliminar las etiquetas de las rectas horizontales</t>
+  </si>
+  <si>
+    <t>Una animacion si es posible que muestre que al reflejar la funcion x^2, la grafica  es la misma.</t>
+  </si>
+  <si>
+    <t>Si es posible una animacion que mantenga la curva azul siempre visible,  pero que de ella salga la grafica roja, al reflejar la curva azul sobre el eje Y. la curva azul es la grafica de la funcion f(x)=(x-2)^2</t>
+  </si>
+  <si>
+    <t>Una animacion que muestre que la grafica de la funcion f(x)=x^3 se refleja por el eje Y y luego por el eje X,  obteniendo la misma funcion.</t>
+  </si>
+  <si>
+    <t>Una animacion que muestre que la grafica de la funcion f(x)=3x-2 se refleja por el eje Y y luego por el eje X,  obteniendo otra funcion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La funcion f(x)=2^x </t>
+  </si>
+  <si>
+    <t>Grafica de la funcion f(x)=-ln(x)</t>
+  </si>
+  <si>
+    <t>grafica de la funcion f(x)=3x^2-5</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion f(x)=4-3(x-1)^2</t>
+  </si>
+  <si>
+    <t>uncion f(x)=x^3-3x</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion f(x)=x^2, con un segmento  de color que une dos puntos de la curva. Los puntos sin etiqueta</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion f(x)=2^x con un segmento que une dos puntos de la curva</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion f(x)=1-x^2 con un segmento que une dos puntos de la curva, los puntos sin etiqueta.</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion f(x)=1-2^x, con un segmento que une dos puntos de la curva, los puntos sin etiqueta.</t>
+  </si>
+  <si>
+    <t>Grafica de las funciones que se indican en la imagen, cada una con sus etiquetas y de diferentes colores.</t>
+  </si>
+  <si>
+    <t>grafica de la funcion f(x)=2</t>
+  </si>
+  <si>
+    <t>Grafica de varias funciones afines en el mismo plano cartesiano, en distintos colores con su rotulo, es decir con la expresión algebraica que las define. Como en la imagen 47, se sugiere graficar f(x)=x+1, f(x)=-x+1, f(x)=2x+1, f(x)=-2x+1, f(x)=3x-1, f(x)=-3x-2</t>
+  </si>
+  <si>
+    <t>Grafica de varias funciones lineales en el mismo plano cartesiano, en distintos colores con su rotulo, es decir con la expresión algebraica que las define. Como en la imagen 47, se sugiere graficar f(x)=x, f(x)=-x, f(x)=2x, f(x)=-2x, f(x)=3x, f(x)=-3x</t>
+  </si>
+  <si>
+    <t>Representación gráfica de varias funciones cuadráticas en distintos colores con su rotulo, es decir con la expresión algebraica que las define, por ejemplo  f(x)=x^2, f(x)=1-x^2, f(x)=x^2-x+2, f(x)=-x^2+2x-1</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion                                               con etiqueta</t>
+  </si>
+  <si>
+    <t>Dibujar la recta x=-3 punteada y de color rojo, la etiqueta de la reta debe ser x=-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grafica de la funcion                                                                                                             con asintotas en x=-3 y x+2 de color rojo con sus respectivas etiquetas.                                                                                                                      </t>
+  </si>
+  <si>
+    <t>Grafica de la funcion con asintota punteada en y=3 y sus respectivas etiquetas.</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion  con asintota oblicua en y=x-2</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion con asintota oblicua en y=x-3</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion sen(x) entre -5pi/2 hasta 5pi/2</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion cos(x) entre -5pi/2 hasta 5pi/2</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion tan(x) entre -5pi/2 hasta 5pi/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representación gráfica de la funcion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representacion gráfica de la funcion </t>
+  </si>
+  <si>
+    <t>La función a trozos, modificarla para que se note el hueco que se dan el segmento cuando x=0</t>
+  </si>
+  <si>
+    <t>Las graficas en el mismo plano cartesiano</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion  con asintota punteada de color rojo en y=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representacion grafica de la relación </t>
+  </si>
+  <si>
+    <t>Mostrar una recta vertical de color rojo  en el intervalo (-1,1) que pasa por dos puntos de la grafica para demostrar que la relacion no es funcion</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion valor absoluto de x</t>
+  </si>
+  <si>
+    <t>ninguna</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion parte entera de x</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>Representacion grafica de las funciones f(x)=√(x+2), g(x)=1/(x-3) y (f+g)(x)=((x-3) √(x+2)+1)/(x-3)</t>
+  </si>
+  <si>
+    <t>en el mismo plano cartesiano, Cada grafica en un color diferente y frente a cada grafica el nombre de la funcion es decir f, g y f+g</t>
+  </si>
+  <si>
+    <t>Representacion grafica de las funciones f(x)=√(x+2), g(x)=1/(x-3) y (f-g)(x)=((x-3) √(x+2)-1)/(x-3)</t>
+  </si>
+  <si>
+    <t>en el mismo plano cartesiano, Cada grafica en un color diferente y frente a cada grafica el nombre de la funcion es decir f, g y f-g</t>
+  </si>
+  <si>
+    <t>Representacion grafica de las funciones f(x)=√(x+2), g(x)=1/(x-3) y (fg)(x)=√(x+2)/(x-3)</t>
+  </si>
+  <si>
+    <t>en el mismo plano cartesiano, Cada grafica en un color diferente y frente a cada grafica el nombre de la funcion es decir f, g y fg</t>
+  </si>
+  <si>
+    <t>Realizar dos planos cartesianos uno al  lado del otro, juntos deben tener las funciones f(x)=√(x+2), g(x)=1/(x-3) en distintos colores, el de la izquierda  debe tener  ademas la funcion (f/g)(x)=(x-3) √(x+2) y el derecha la funcion (g/f)(x)=1/((x-3) √(x+2)) ademas de f y g</t>
+  </si>
+  <si>
+    <t>en ambos graficas  la funcion f debe tener el mismo color, la funcion g otro color, pero  conservar el color en ambas graficas, junto a cada grafica la etiqueta con el nombre de lla funcion como en las graficas de la IMG72</t>
+  </si>
+  <si>
+    <t>http://iesaricel.org/rafanogal/funciones/funciones-archivos/composicion.gif</t>
+  </si>
+  <si>
+    <t>Realizar un diagrama sagital como el que se muestra en la imagen.</t>
+  </si>
+  <si>
+    <t>No se si la imagen sea libre, es mejor hacer una similar.</t>
   </si>
 </sst>
 </file>
@@ -574,7 +1112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -711,18 +1249,40 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,8 +1329,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1215,6 +1781,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1270,7 +1847,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1449,16 +2026,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1543,6 +2159,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1678,22 +2303,73 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>971550</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>3552825</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>2381250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3127" name="Object 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3127"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1673678</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>435429</xdr:rowOff>
+      <xdr:colOff>1922318</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>710045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4188278</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2316299</xdr:rowOff>
+      <xdr:colOff>3747308</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1959725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPr id="13" name="Imagen 12"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1711,8 +2387,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15675428" y="2394858"/>
-          <a:ext cx="2514600" cy="1880870"/>
+          <a:off x="15898091" y="8295409"/>
+          <a:ext cx="1824990" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1728,19 +2404,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1420091</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>311727</xdr:rowOff>
+      <xdr:colOff>2147455</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>502228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>3960091</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2343727</xdr:rowOff>
+      <xdr:colOff>3972445</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1765878</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPr id="15" name="Imagen 14"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1758,8 +2434,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15395864" y="5247409"/>
-          <a:ext cx="2540000" cy="2032000"/>
+          <a:off x="16123228" y="10719955"/>
+          <a:ext cx="1824990" cy="1263650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1775,66 +2451,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1627909</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>277091</xdr:rowOff>
+      <xdr:colOff>2303318</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>640773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4167909</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2309091</xdr:rowOff>
+      <xdr:colOff>4128308</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1924743</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15603682" y="7862455"/>
-          <a:ext cx="2540000" cy="2032000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1766455</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3798455</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2135909</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPr id="16" name="Imagen 15"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1852,8 +2481,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15742228" y="10321636"/>
-          <a:ext cx="2032000" cy="2032000"/>
+          <a:off x="16279091" y="13127182"/>
+          <a:ext cx="1824990" cy="1283970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1869,19 +2498,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1108363</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>225136</xdr:rowOff>
+      <xdr:colOff>2182091</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4664363</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2511136</xdr:rowOff>
+      <xdr:colOff>3963901</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2584450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPr id="17" name="Imagen 16"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1899,8 +2528,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15084136" y="12711545"/>
-          <a:ext cx="3556000" cy="2286000"/>
+          <a:off x="16157864" y="16538864"/>
+          <a:ext cx="1781810" cy="1250950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1916,19 +2545,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>450271</xdr:rowOff>
+      <xdr:colOff>2182091</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>831273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4416136</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>3082636</xdr:rowOff>
+      <xdr:colOff>4049626</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2072063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagen 11"/>
+        <xdr:cNvPr id="18" name="Imagen 17"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1946,8 +2575,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15118773" y="15655635"/>
-          <a:ext cx="3273136" cy="2632365"/>
+          <a:off x="16157864" y="19534909"/>
+          <a:ext cx="1867535" cy="1240790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1963,19 +2592,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1801090</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:colOff>2268682</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>692727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4329545</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2286000</xdr:rowOff>
+      <xdr:colOff>4058112</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2007177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagen 13"/>
+        <xdr:cNvPr id="19" name="Imagen 18"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1993,8 +2622,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15776863" y="19084636"/>
-          <a:ext cx="2528455" cy="1905000"/>
+          <a:off x="16244455" y="22149954"/>
+          <a:ext cx="1789430" cy="1314450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2003,6 +2632,3190 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>813955</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>883227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5196090</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1547437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14789728" y="24782318"/>
+          <a:ext cx="4382135" cy="664210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>519546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5486400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1705091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14737773" y="27189546"/>
+          <a:ext cx="4724400" cy="1185545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>640773</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>450273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1421823</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>631248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagen 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20747182" y="30757091"/>
+          <a:ext cx="781050" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1887684</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3480956</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1501313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagen 23"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15863457" y="30514636"/>
+          <a:ext cx="1593272" cy="1293495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>717176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1364316</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>898151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagen 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20574000" y="32878058"/>
+          <a:ext cx="904875" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1624853</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3566048</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1719319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagen 28"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15609794" y="32205706"/>
+          <a:ext cx="1941195" cy="1674495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>694765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1571065</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>875740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Imagen 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20618824" y="34671000"/>
+          <a:ext cx="1066800" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2162737</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3877237</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1512795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagen 31"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16147678" y="34155530"/>
+          <a:ext cx="1714500" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1658471</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3599666</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1853789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Imagen 32"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15643412" y="35713147"/>
+          <a:ext cx="1941195" cy="1674495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>336176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5054488</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1000386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagen 33"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14657294" y="37775029"/>
+          <a:ext cx="4382135" cy="664210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>470648</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5195048</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1207956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Imagen 34"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14455589" y="38962852"/>
+          <a:ext cx="4724400" cy="1185545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2207559</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4148754</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1876201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagen 35"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16192500" y="40363588"/>
+          <a:ext cx="1941195" cy="1674495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2050676</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3991871</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1730524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Imagen 36"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16035617" y="42358235"/>
+          <a:ext cx="1941195" cy="1674495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1591236</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3532431</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1808966</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagen 37"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15576177" y="44196000"/>
+          <a:ext cx="1941195" cy="1674495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2297206</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4238401</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1764143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Imagen 38"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16282147" y="46089795"/>
+          <a:ext cx="1941195" cy="1674495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1949823</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>280148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3939913</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1399653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Imagen 39"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15934764" y="50045472"/>
+          <a:ext cx="1990090" cy="1119505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1770530</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>347382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3749825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1484032</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Imagen 40"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15755471" y="51872029"/>
+          <a:ext cx="1979295" cy="1136650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2084294</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>313765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3866104</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1564715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Imagen 42"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16069235" y="48230118"/>
+          <a:ext cx="1781810" cy="1250950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1445559</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3770294</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2032897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Imagen 43"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15430500" y="53362412"/>
+          <a:ext cx="2324735" cy="1887220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1456765</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4010100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2256379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Imagen 44"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15441706" y="55525147"/>
+          <a:ext cx="2553335" cy="2077085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1916206</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>235324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4012341</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1643754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Imagen 45"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15901147" y="57945618"/>
+          <a:ext cx="2096135" cy="1408430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1770529</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>369794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3749824</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1506444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Imagen 46"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15755470" y="59861823"/>
+          <a:ext cx="1979295" cy="1136650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1893795</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3821207</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1613646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Imagen 47"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15878736" y="61475470"/>
+          <a:ext cx="1927412" cy="1479176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1423148</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4123766</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1524000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Imagen 48"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15408089" y="63302030"/>
+          <a:ext cx="2700618" cy="1299882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1792942</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3563471</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1411941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Imagen 49"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15777883" y="64904471"/>
+          <a:ext cx="1770529" cy="1322294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>683559</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4135419</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1397822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Imagen 50"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14668500" y="66585353"/>
+          <a:ext cx="3451860" cy="1184910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1098176</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4774826</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1364652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Imagen 51"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15083117" y="68154176"/>
+          <a:ext cx="3676650" cy="1207770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>739588</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>246530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4751293</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1647264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Imagen 52"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14724529" y="69823854"/>
+          <a:ext cx="4011705" cy="1400734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>694765</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5341060</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1610995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Imagen 53"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14679706" y="71538353"/>
+          <a:ext cx="4646295" cy="1610995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>907677</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>67237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2711824</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1546413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Imagen 54"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14892618" y="73409737"/>
+          <a:ext cx="1804147" cy="1479176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1434353</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3530488</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1805828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Imagen 55"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15419294" y="75034588"/>
+          <a:ext cx="2096135" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1893795</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3810001</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1367118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Imagen 57"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15878736" y="76939588"/>
+          <a:ext cx="1916206" cy="1255059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1075764</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3316044</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1990538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Imagen 58"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15060705" y="78429970"/>
+          <a:ext cx="2240280" cy="1822450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2151531</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3866031</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1378323</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Imagen 59"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16136472" y="80592705"/>
+          <a:ext cx="1714500" cy="1243853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2308412</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3563471</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1259915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Imagen 60"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16293353" y="82083089"/>
+          <a:ext cx="1255059" cy="1125444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2017058</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>324971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3440205</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1252893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Imagen 61"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16001999" y="83584677"/>
+          <a:ext cx="1423147" cy="927922"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4001135</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1791447</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Imagen 62"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15889941" y="84828529"/>
+          <a:ext cx="2096135" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1512794</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3566384</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1745952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Imagen 63"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15497735" y="86711118"/>
+          <a:ext cx="2053590" cy="1667510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1456764</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3324299</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>1574950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Imagen 64"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15441705" y="88638530"/>
+          <a:ext cx="1867535" cy="1518920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>963706</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2868706</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1535206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Imagen 65"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14948647" y="90509912"/>
+          <a:ext cx="1905000" cy="1423147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>739588</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2506270</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1524000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Imagen 66"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14724529" y="92089941"/>
+          <a:ext cx="1766682" cy="1479177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2562225</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>449917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Imagen 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15699441" y="97670471"/>
+          <a:ext cx="847725" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>795619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3384177</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>2229972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Imagen 68"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15508941" y="98387648"/>
+          <a:ext cx="1860177" cy="1434353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2620122</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1806762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Imagen 69"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14646088" y="100628824"/>
+          <a:ext cx="1958975" cy="1593850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>784411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1808069</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1184461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Imagen 70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20484353" y="101200323"/>
+          <a:ext cx="1438275" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>224119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2477136</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>1929094</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Imagen 71"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14365942" y="102836384"/>
+          <a:ext cx="2096135" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>750795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1687046</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>1112745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Imagen 72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20439530" y="103363060"/>
+          <a:ext cx="1362075" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1288676</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3070411</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>1344706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Imagen 73"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15273617" y="104494853"/>
+          <a:ext cx="1781735" cy="1232647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>818029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>1162610</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Imagen 75"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20495559" y="105200823"/>
+          <a:ext cx="933450" cy="344581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1725706</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>291353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3087781</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>653303</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Imagen 76"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15710647" y="106511912"/>
+          <a:ext cx="1362075" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>818029</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3473824</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>1210236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Imagen 77"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14802970" y="106926528"/>
+          <a:ext cx="2655795" cy="1019737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>616323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1612526</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>986117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Imagen 79"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20450735" y="107352352"/>
+          <a:ext cx="1276350" cy="369794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1669677</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3765177</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>1400736</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Imagen 80"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15654618" y="108192795"/>
+          <a:ext cx="2095500" cy="1311088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>661147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1260662</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>1030941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Imagen 81"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20517971" y="108764294"/>
+          <a:ext cx="857250" cy="369794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1109383</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>67237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3473824</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>1770531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Imagen 82"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15094324" y="111442502"/>
+          <a:ext cx="2364441" cy="1703294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1613647</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3316941</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>1680882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Imagen 83"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15598588" y="109683177"/>
+          <a:ext cx="1703294" cy="1557617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1389529</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3622376</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>2073088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Imagen 84"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15374470" y="117314382"/>
+          <a:ext cx="2232847" cy="1893794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1199029</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>302559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3295164</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>2007534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Imagen 85"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15183970" y="119544353"/>
+          <a:ext cx="2096135" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5726205</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>616323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>1102098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Imagen 86"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19711146" y="121976029"/>
+          <a:ext cx="2771775" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2543736</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4134971</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>1512794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Imagen 88"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16528677" y="121527795"/>
+          <a:ext cx="1591235" cy="1344705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3898639</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>2045036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Imagen 90"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14410765" y="123063000"/>
+          <a:ext cx="3472815" cy="1966595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>780475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1426508</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1586753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Imagen 91"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20192999" y="123765034"/>
+          <a:ext cx="4261597" cy="806278"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1316935</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>397566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4079185</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>884584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Imagen 74"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15306261" y="125970196"/>
+          <a:ext cx="2762250" cy="487018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2723,11 +6536,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2742,7 +6555,7 @@
     <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="80.375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="27.25" style="17" customWidth="1"/>
+    <col min="11" max="11" width="38.25" style="17" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
     <col min="14" max="16384" width="10.875" style="2"/>
@@ -2765,14 +6578,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="F2" s="73" t="s">
+      <c r="D2" s="94"/>
+      <c r="F2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="74"/>
+      <c r="G2" s="87"/>
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="16"/>
@@ -2782,12 +6595,12 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="95">
         <v>11</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
+      <c r="D3" s="96"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="16"/>
@@ -2797,16 +6610,16 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="5"/>
       <c r="F4" s="43" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
@@ -2818,14 +6631,14 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="5"/>
       <c r="F5" s="41" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
-        <v>Motor del recurso</v>
+        <v/>
       </c>
       <c r="G5" s="41" t="s">
         <v>57</v>
@@ -2854,7 +6667,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>39</v>
@@ -2872,12 +6685,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="79"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2922,16 +6735,16 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="str">
-        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
-        <v>IMG01</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="22" t="str">
-        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Recurso M5A</v>
+      <c r="A10" s="13" t="e">
+        <f>IF(OR(B10&lt;&gt;"",#REF!&lt;&gt;""),"IMG01","")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="22" t="e">
+        <f>IF(OR(B10&lt;&gt;"",#REF!&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>#REF!</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>145</v>
@@ -2939,25 +6752,27 @@
       <c r="E10" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="14" t="str">
-        <f t="shared" ref="F10:F13" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_11_02_CO_IMG01n.png</v>
-      </c>
-      <c r="G10" s="14" t="str">
+      <c r="F10" s="14" t="e">
+        <f>IF(OR(B10&lt;&gt;"",#REF!&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G10" s="14" t="e">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>286 x 286 px</v>
-      </c>
-      <c r="H10" s="14" t="str">
-        <f t="shared" ref="H10:H12" si="1">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_11_02_CO_IMG01a.png</v>
-      </c>
-      <c r="I10" s="14" t="str">
-        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>500 x 500 px</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="71" t="s">
-        <v>155</v>
+        <v>#REF!</v>
+      </c>
+      <c r="H10" s="14" t="e">
+        <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",#REF!&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I10" s="14" t="e">
+        <f>IF(OR(B10&lt;&gt;"",#REF!&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" s="69" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2968,8 +6783,8 @@
         <v>147</v>
       </c>
       <c r="C11" s="22" t="str">
-        <f t="shared" ref="C11:C13" si="2">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Recurso M5A</v>
+        <f t="shared" ref="C11:C13" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>145</v>
@@ -2978,24 +6793,24 @@
         <v>146</v>
       </c>
       <c r="F11" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>MA_11_02_CO_IMG02n.png</v>
+        <f t="shared" ref="F11:F13" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>MA_11_02_CO_IMG02_small</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>286 x 286 px</v>
+        <v>526 x 370 px</v>
       </c>
       <c r="H11" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>MA_11_02_CO_IMG02a.png</v>
+        <f t="shared" ref="H11:H12" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>MA_11_02_CO_IMG02_zoom</v>
       </c>
       <c r="I11" s="14" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>500 x 500 px</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="71" t="s">
-        <v>155</v>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11" s="69" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3006,8 +6821,8 @@
         <v>147</v>
       </c>
       <c r="C12" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>Recurso M5A</v>
+        <f t="shared" si="0"/>
+        <v>Cuaderno de Estudio</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>152</v>
@@ -3016,24 +6831,24 @@
         <v>146</v>
       </c>
       <c r="F12" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>MA_11_02_CO_IMG03n.png</v>
+        <f t="shared" si="1"/>
+        <v>MA_11_02_CO_IMG03_small</v>
       </c>
       <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>286 x 286 px</v>
+        <v>526 x 370 px</v>
       </c>
       <c r="H12" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>MA_11_02_CO_IMG03a.png</v>
+        <f t="shared" si="2"/>
+        <v>MA_11_02_CO_IMG03_zoom</v>
       </c>
       <c r="I12" s="14" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>500 x 500 px</v>
-      </c>
-      <c r="J12" s="69"/>
-      <c r="K12" s="70" t="s">
-        <v>156</v>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J12" s="68"/>
+      <c r="K12" s="72" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3044,8 +6859,8 @@
         <v>147</v>
       </c>
       <c r="C13" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>Recurso M5A</v>
+        <f t="shared" si="0"/>
+        <v>Cuaderno de Estudio</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>145</v>
@@ -3054,18 +6869,18 @@
         <v>146</v>
       </c>
       <c r="F13" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>MA_11_02_CO_IMG04.png</v>
+        <f t="shared" si="1"/>
+        <v>MA_11_02_CO_IMG04_small</v>
       </c>
       <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>286 x 286 px</v>
+        <v>526 x 370 px</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13"/>
-      <c r="K13" s="71" t="s">
-        <v>155</v>
+      <c r="K13" s="72" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3077,7 +6892,7 @@
       </c>
       <c r="C14" s="22" t="str">
         <f t="shared" ref="C14" si="3">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Recurso M5A</v>
+        <v>Cuaderno de Estudio</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>145</v>
@@ -3086,36 +6901,36 @@
         <v>146</v>
       </c>
       <c r="F14" s="14" t="str">
-        <f t="shared" ref="F14:F21" si="4">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I14="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_11_02_CO_IMG05n.png</v>
+        <f t="shared" ref="F14" si="4">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I14="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>MA_11_02_CO_IMG05_small</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>286 x 286 px</v>
+        <v>526 x 370 px</v>
       </c>
       <c r="H14" s="14" t="str">
-        <f t="shared" ref="H14:H21" si="5">IF(AND(I14&lt;&gt;"",I14&lt;&gt;0),IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_11_02_CO_IMG05a.png</v>
+        <f t="shared" ref="H14" si="5">IF(AND(I14&lt;&gt;"",I14&lt;&gt;0),IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>MA_11_02_CO_IMG05_zoom</v>
       </c>
       <c r="I14" s="14" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>500 x 500 px</v>
+        <v>800 x 600 px</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="72" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C15" s="22" t="str">
-        <f t="shared" ref="C15" si="6">IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Recurso M5A</v>
+        <f>IF(OR(B15&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>145</v>
@@ -3124,34 +6939,35 @@
         <v>146</v>
       </c>
       <c r="F15" s="14" t="str">
-        <f t="shared" ref="F15" si="7">IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I15="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_11_02_CO_IMG06n.png</v>
+        <f>IF(OR(B15&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I15="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>MA_11_02_CO_IMG06_small</v>
       </c>
       <c r="G15" s="14" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>286 x 286 px</v>
+        <v>526 x 370 px</v>
       </c>
       <c r="H15" s="14" t="str">
-        <f t="shared" ref="H15" si="8">IF(AND(I15&lt;&gt;"",I15&lt;&gt;0),IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_11_02_CO_IMG06a.png</v>
+        <f>IF(AND(I15&lt;&gt;"",I15&lt;&gt;0),IF(OR(B15&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>MA_11_02_CO_IMG06_zoom</v>
       </c>
       <c r="I15" s="14" t="str">
-        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>500 x 500 px</v>
-      </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
+        <f>IF(OR(B15&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="K15" s="72" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C16" s="22" t="str">
-        <f t="shared" ref="C16" si="9">IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Recurso M5A</v>
+        <f t="shared" ref="C16" si="6">IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>145</v>
@@ -3160,34 +6976,36 @@
         <v>146</v>
       </c>
       <c r="F16" s="14" t="str">
-        <f t="shared" ref="F16" si="10">IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I16="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_11_02_CO_IMG07n.png</v>
+        <f t="shared" ref="F16" si="7">IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I16="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>MA_11_02_CO_IMG07_small</v>
       </c>
       <c r="G16" s="14" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>286 x 286 px</v>
+        <v>526 x 370 px</v>
       </c>
       <c r="H16" s="14" t="str">
-        <f t="shared" ref="H16" si="11">IF(AND(I16&lt;&gt;"",I16&lt;&gt;0),IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_11_02_CO_IMG07a.png</v>
+        <f t="shared" ref="H16" si="8">IF(AND(I16&lt;&gt;"",I16&lt;&gt;0),IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>MA_11_02_CO_IMG07_zoom</v>
       </c>
       <c r="I16" s="14" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>500 x 500 px</v>
+        <v>800 x 600 px</v>
       </c>
       <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
+      <c r="K16" s="71" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C17" s="22" t="str">
-        <f t="shared" ref="C17" si="12">IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Recurso M5A</v>
+        <f t="shared" ref="C17" si="9">IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>145</v>
@@ -3196,36 +7014,36 @@
         <v>146</v>
       </c>
       <c r="F17" s="14" t="str">
-        <f t="shared" ref="F17" si="13">IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I17="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_11_02_CO_IMG08n.png</v>
+        <f t="shared" ref="F17" si="10">IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I17="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>MA_11_02_CO_IMG08_small</v>
       </c>
       <c r="G17" s="14" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>286 x 286 px</v>
+        <v>526 x 370 px</v>
       </c>
       <c r="H17" s="14" t="str">
-        <f t="shared" ref="H17" si="14">IF(AND(I17&lt;&gt;"",I17&lt;&gt;0),IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_11_02_CO_IMG08a.png</v>
+        <f t="shared" ref="H17" si="11">IF(AND(I17&lt;&gt;"",I17&lt;&gt;0),IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>MA_11_02_CO_IMG08_zoom</v>
       </c>
       <c r="I17" s="14" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>500 x 500 px</v>
+        <v>800 x 600 px</v>
       </c>
       <c r="J17" s="14"/>
-      <c r="K17" s="15" t="s">
-        <v>161</v>
+      <c r="K17" s="71" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C18" s="22" t="str">
-        <f t="shared" ref="C18" si="15">IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Recurso M5A</v>
+        <f t="shared" ref="C18" si="12">IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>145</v>
@@ -3234,1374 +7052,2521 @@
         <v>146</v>
       </c>
       <c r="F18" s="14" t="str">
-        <f t="shared" ref="F18" si="16">IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I18="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_11_02_CO_IMG09n.png</v>
+        <f t="shared" ref="F18" si="13">IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I18="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>MA_11_02_CO_IMG09_small</v>
       </c>
       <c r="G18" s="14" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>286 x 286 px</v>
+        <v>526 x 370 px</v>
       </c>
       <c r="H18" s="14" t="str">
-        <f t="shared" ref="H18" si="17">IF(AND(I18&lt;&gt;"",I18&lt;&gt;0),IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_11_02_CO_IMG09a.png</v>
+        <f t="shared" ref="H18" si="14">IF(AND(I18&lt;&gt;"",I18&lt;&gt;0),IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>MA_11_02_CO_IMG09_zoom</v>
       </c>
       <c r="I18" s="14" t="str">
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>500 x 500 px</v>
+        <v>800 x 600 px</v>
       </c>
       <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="K18" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="22" t="str">
+        <f t="shared" ref="C19:C82" si="15">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F19" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ref="F19:F82" si="16">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE($C$7,"_",$A19,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I19="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>MA_11_02_CO_IMG10_small</v>
       </c>
       <c r="G19" s="14" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H19" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" ref="H19:H82" si="17">IF(AND(I19&lt;&gt;"",I19&lt;&gt;0),IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE($C$7,"_",$A19,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>MA_11_02_CO_IMG10_zoom</v>
       </c>
       <c r="I19" s="14" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="K19" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="71">
+        <v>146258987</v>
+      </c>
+      <c r="C20" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F20" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG11_small</v>
       </c>
       <c r="G20" s="14" t="str">
         <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H20" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG11_zoom</v>
       </c>
       <c r="I20" s="14" t="str">
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="K20" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F21" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG12_small</v>
       </c>
       <c r="G21" s="14" t="str">
         <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H21" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG12_zoom</v>
       </c>
       <c r="I21" s="14" t="str">
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="K21" s="74" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F22" s="14" t="str">
-        <f t="shared" ref="F22:F53" si="18">IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),CONCATENATE($C$7,"_",$A22,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I22="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG13_small</v>
       </c>
       <c r="G22" s="14" t="str">
         <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H22" s="14" t="str">
-        <f t="shared" ref="H22:H53" si="19">IF(AND(I22&lt;&gt;"",I22&lt;&gt;0),IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),CONCATENATE($C$7,"_",$A22,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG13_zoom</v>
       </c>
       <c r="I22" s="14" t="str">
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22" s="74" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F23" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG14_small</v>
       </c>
       <c r="G23" s="14" t="str">
         <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H23" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG14_zoom</v>
       </c>
       <c r="I23" s="14" t="str">
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23" s="74" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F24" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG15_small</v>
       </c>
       <c r="G24" s="14" t="str">
         <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H24" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG15_zoom</v>
       </c>
       <c r="I24" s="14" t="str">
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="K24" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F25" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG16_small</v>
       </c>
       <c r="G25" s="14" t="str">
         <f>IF(F25&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H25" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG16_zoom</v>
       </c>
       <c r="I25" s="14" t="str">
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="K25" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F26" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG17_small</v>
       </c>
       <c r="G26" s="14" t="str">
         <f>IF(F26&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H26" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG17_zoom</v>
       </c>
       <c r="I26" s="14" t="str">
         <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J26" s="14"/>
-      <c r="K26" s="15"/>
-    </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="K26" s="15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="12" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F27" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG18_small</v>
       </c>
       <c r="G27" s="14" t="str">
         <f>IF(F27&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H27" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG18_zoom</v>
       </c>
       <c r="I27" s="14" t="str">
         <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J27" s="14"/>
-      <c r="K27" s="15"/>
-    </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="K27" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F28" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG19_small</v>
       </c>
       <c r="G28" s="14" t="str">
         <f>IF(F28&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H28" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG19_zoom</v>
       </c>
       <c r="I28" s="14" t="str">
         <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J28" s="14"/>
-      <c r="K28" s="15"/>
-    </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="K28" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="12" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F29" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG20_small</v>
       </c>
       <c r="G29" s="14" t="str">
         <f>IF(F29&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H29" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG20_zoom</v>
       </c>
       <c r="I29" s="14" t="str">
         <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-    </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="K29" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="12" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F30" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG21_small</v>
       </c>
       <c r="G30" s="14" t="str">
         <f>IF(F30&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H30" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG21_zoom</v>
       </c>
       <c r="I30" s="14" t="str">
         <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J30" s="14"/>
-      <c r="K30" s="15"/>
-    </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="K30" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="12" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F31" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG22_small</v>
       </c>
       <c r="G31" s="14" t="str">
         <f>IF(F31&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H31" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG22_zoom</v>
       </c>
       <c r="I31" s="14" t="str">
         <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J31" s="14"/>
-      <c r="K31" s="15"/>
-    </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="K31" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="12" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F32" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG23_small</v>
       </c>
       <c r="G32" s="14" t="str">
         <f>IF(F32&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H32" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG23_zoom</v>
       </c>
       <c r="I32" s="14" t="str">
         <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J32" s="14"/>
-      <c r="K32" s="15"/>
-    </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="K32" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="12" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F33" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG24_small</v>
       </c>
       <c r="G33" s="14" t="str">
         <f>IF(F33&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H33" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG24_zoom</v>
       </c>
       <c r="I33" s="14" t="str">
         <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J33" s="14"/>
-      <c r="K33" s="15"/>
-    </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="K33" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="12" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F34" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG25_small</v>
       </c>
       <c r="G34" s="14" t="str">
         <f>IF(F34&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H34" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG25_zoom</v>
       </c>
       <c r="I34" s="14" t="str">
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J34" s="14"/>
-      <c r="K34" s="15"/>
-    </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="K34" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="12" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F35" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG26_small</v>
       </c>
       <c r="G35" s="14" t="str">
         <f>IF(F35&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H35" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG26_zoom</v>
       </c>
       <c r="I35" s="14" t="str">
         <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J35" s="14"/>
-      <c r="K35" s="15"/>
-    </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="K35" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="12" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F36" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG27_small</v>
       </c>
       <c r="G36" s="14" t="str">
         <f>IF(F36&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H36" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG27_zoom</v>
       </c>
       <c r="I36" s="14" t="str">
         <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J36" s="14"/>
-      <c r="K36" s="15"/>
-    </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="K36" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="12" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F37" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG28_small</v>
       </c>
       <c r="G37" s="14" t="str">
         <f>IF(F37&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H37" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG28_zoom</v>
       </c>
       <c r="I37" s="14" t="str">
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J37" s="14"/>
-      <c r="K37" s="15"/>
-    </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="K37" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="12" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F38" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG29_small</v>
       </c>
       <c r="G38" s="14" t="str">
         <f>IF(F38&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H38" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG29_zoom</v>
       </c>
       <c r="I38" s="14" t="str">
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J38" s="14"/>
-      <c r="K38" s="15"/>
-    </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="K38" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="12" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F39" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG30_small</v>
       </c>
       <c r="G39" s="14" t="str">
         <f>IF(F39&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H39" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG30_zoom</v>
       </c>
       <c r="I39" s="14" t="str">
         <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J39" s="14"/>
-      <c r="K39" s="15"/>
-    </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="K39" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="12" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F40" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG31_small</v>
       </c>
       <c r="G40" s="14" t="str">
         <f>IF(F40&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H40" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG31_zoom</v>
       </c>
       <c r="I40" s="14" t="str">
         <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J40" s="14"/>
-      <c r="K40" s="15"/>
-    </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G41" s="14" t="str">
+      <c r="K40" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="12" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="76" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D41" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="77" t="str">
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG32_small</v>
+      </c>
+      <c r="G41" s="77" t="str">
         <f>IF(F41&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H41" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I41" s="14" t="str">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H41" s="77" t="str">
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG32_zoom</v>
+      </c>
+      <c r="I41" s="77" t="str">
         <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="15"/>
-    </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G42" s="14" t="str">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J41" s="77"/>
+      <c r="K41" s="78" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="12" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="76" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D42" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="77" t="str">
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG33_small</v>
+      </c>
+      <c r="G42" s="77" t="str">
         <f>IF(F42&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H42" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I42" s="14" t="str">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H42" s="77" t="str">
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG33_zoom</v>
+      </c>
+      <c r="I42" s="77" t="str">
         <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="15"/>
-    </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G43" s="14" t="str">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J42" s="77"/>
+      <c r="K42" s="79" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="12" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="76" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D43" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="77" t="str">
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG34_small</v>
+      </c>
+      <c r="G43" s="77" t="str">
         <f>IF(F43&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H43" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I43" s="14" t="str">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H43" s="77" t="str">
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG34_zoom</v>
+      </c>
+      <c r="I43" s="77" t="str">
         <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J43" s="14"/>
-      <c r="K43" s="15"/>
-    </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G44" s="14" t="str">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J43" s="77"/>
+      <c r="K43" s="79" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="12" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="76" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D44" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" s="77" t="str">
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG35_small</v>
+      </c>
+      <c r="G44" s="77" t="str">
         <f>IF(F44&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H44" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I44" s="14" t="str">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H44" s="77" t="str">
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG35_zoom</v>
+      </c>
+      <c r="I44" s="77" t="str">
         <f>IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="15"/>
-    </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J44" s="77"/>
+      <c r="K44" s="79" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="12" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F45" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG36_small</v>
       </c>
       <c r="G45" s="14" t="str">
         <f>IF(F45&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H45" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG36_zoom</v>
       </c>
       <c r="I45" s="14" t="str">
         <f>IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J45" s="14"/>
-      <c r="K45" s="15"/>
-    </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
+      <c r="K45" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="12" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F46" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG37_small</v>
       </c>
       <c r="G46" s="14" t="str">
         <f>IF(F46&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H46" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG37_zoom</v>
       </c>
       <c r="I46" s="14" t="str">
         <f>IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J46" s="14"/>
-      <c r="K46" s="15"/>
-    </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
+      <c r="K46" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F47" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG38_small</v>
       </c>
       <c r="G47" s="14" t="str">
         <f>IF(F47&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H47" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG38_zoom</v>
       </c>
       <c r="I47" s="14" t="str">
         <f>IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J47" s="14"/>
-      <c r="K47" s="15"/>
-    </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
+      <c r="K47" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="12" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F48" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG39_small</v>
       </c>
       <c r="G48" s="14" t="str">
         <f>IF(F48&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H48" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG39_zoom</v>
       </c>
       <c r="I48" s="14" t="str">
         <f>IF(OR(B48&lt;&gt;"",J48&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J48" s="14"/>
-      <c r="K48" s="15"/>
-    </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
+      <c r="K48" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="12" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F49" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG40_small</v>
       </c>
       <c r="G49" s="14" t="str">
         <f>IF(F49&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H49" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG40_zoom</v>
       </c>
       <c r="I49" s="14" t="str">
         <f>IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J49" s="14"/>
-      <c r="K49" s="15"/>
-    </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
+      <c r="K49" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="12" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F50" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG41_small</v>
       </c>
       <c r="G50" s="14" t="str">
         <f>IF(F50&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H50" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG41_zoom</v>
       </c>
       <c r="I50" s="14" t="str">
         <f>IF(OR(B50&lt;&gt;"",J50&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J50" s="14"/>
-      <c r="K50" s="15"/>
-    </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
+      <c r="K50" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="12" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F51" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG42_small</v>
       </c>
       <c r="G51" s="14" t="str">
         <f>IF(F51&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H51" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG42_zoom</v>
       </c>
       <c r="I51" s="14" t="str">
         <f>IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J51" s="14"/>
-      <c r="K51" s="15"/>
-    </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
+      <c r="K51" s="74" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="12" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F52" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG43_small</v>
       </c>
       <c r="G52" s="14" t="str">
         <f>IF(F52&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H52" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG43_zoom</v>
       </c>
       <c r="I52" s="14" t="str">
         <f>IF(OR(B52&lt;&gt;"",J52&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J52" s="14"/>
-      <c r="K52" s="15"/>
-    </row>
-    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
+      <c r="K52" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="12" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F53" s="14" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG44_small</v>
       </c>
       <c r="G53" s="14" t="str">
         <f>IF(F53&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H53" s="14" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG44_zoom</v>
       </c>
       <c r="I53" s="14" t="str">
         <f>IF(OR(B53&lt;&gt;"",J53&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J53" s="14"/>
-      <c r="K53" s="15"/>
-    </row>
-    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
+      <c r="K53" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="12" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F54" s="14" t="str">
-        <f t="shared" ref="F54:F72" si="20">IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),CONCATENATE($C$7,"_",$A54,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I54="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG45_small</v>
       </c>
       <c r="G54" s="14" t="str">
         <f>IF(F54&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H54" s="14" t="str">
-        <f t="shared" ref="H54:H72" si="21">IF(AND(I54&lt;&gt;"",I54&lt;&gt;0),IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),CONCATENATE($C$7,"_",$A54,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG45_zoom</v>
       </c>
       <c r="I54" s="14" t="str">
         <f>IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J54" s="14"/>
-      <c r="K54" s="15"/>
-    </row>
-    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
+      <c r="K54" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="12" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F55" s="14" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG46_small</v>
       </c>
       <c r="G55" s="14" t="str">
         <f>IF(F55&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H55" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG46_zoom</v>
       </c>
       <c r="I55" s="14" t="str">
         <f>IF(OR(B55&lt;&gt;"",J55&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J55" s="14"/>
-      <c r="K55" s="15"/>
-    </row>
-    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
+      <c r="K55" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="12" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F56" s="14" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG47_small</v>
       </c>
       <c r="G56" s="14" t="str">
         <f>IF(F56&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H56" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG47_zoom</v>
       </c>
       <c r="I56" s="14" t="str">
         <f>IF(OR(B56&lt;&gt;"",J56&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J56" s="14"/>
-      <c r="K56" s="15"/>
-    </row>
-    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
+      <c r="K56" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="22" t="str">
+        <f>IF(OR(B57&lt;&gt;"",J58&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F57" s="14" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f>IF(OR(B57&lt;&gt;"",J58&lt;&gt;""),CONCATENATE($C$7,"_",$A57,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I57="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>MA_11_02_CO_IMG48_small</v>
       </c>
       <c r="G57" s="14" t="str">
         <f>IF(F57&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H57" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f>IF(AND(I57&lt;&gt;"",I57&lt;&gt;0),IF(OR(B57&lt;&gt;"",J58&lt;&gt;""),CONCATENATE($C$7,"_",$A57,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>MA_11_02_CO_IMG48_zoom</v>
       </c>
       <c r="I57" s="14" t="str">
-        <f>IF(OR(B57&lt;&gt;"",J57&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J57" s="14"/>
-      <c r="K57" s="15"/>
-    </row>
-    <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
+        <f>IF(OR(B57&lt;&gt;"",J58&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J57" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="12" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="22" t="str">
+        <f t="shared" ref="C58:C61" si="18">IF(OR(B58&lt;&gt;"",J59&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F58" s="14" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" ref="F58:F61" si="19">IF(OR(B58&lt;&gt;"",J59&lt;&gt;""),CONCATENATE($C$7,"_",$A58,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I58="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>MA_11_02_CO_IMG49_small</v>
       </c>
       <c r="G58" s="14" t="str">
         <f>IF(F58&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H58" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" ref="H58:H61" si="20">IF(AND(I58&lt;&gt;"",I58&lt;&gt;0),IF(OR(B58&lt;&gt;"",J59&lt;&gt;""),CONCATENATE($C$7,"_",$A58,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>MA_11_02_CO_IMG49_zoom</v>
       </c>
       <c r="I58" s="14" t="str">
-        <f>IF(OR(B58&lt;&gt;"",J58&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J58" s="14"/>
-      <c r="K58" s="15"/>
-    </row>
-    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
+        <f>IF(OR(B58&lt;&gt;"",J59&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J58" s="80" t="s">
+        <v>273</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="12" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="22" t="str">
+        <f t="shared" si="18"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F59" s="14" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>MA_11_02_CO_IMG50_small</v>
       </c>
       <c r="G59" s="14" t="str">
         <f>IF(F59&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H59" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>MA_11_02_CO_IMG50_zoom</v>
       </c>
       <c r="I59" s="14" t="str">
-        <f>IF(OR(B59&lt;&gt;"",J59&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J59" s="14"/>
+        <f>IF(OR(B59&lt;&gt;"",J60&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>275</v>
+      </c>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
+    <row r="60" spans="1:11" s="12" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="22" t="str">
+        <f t="shared" si="18"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F60" s="14" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>MA_11_02_CO_IMG51_small</v>
       </c>
       <c r="G60" s="14" t="str">
         <f>IF(F60&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H60" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>MA_11_02_CO_IMG51_zoom</v>
       </c>
       <c r="I60" s="14" t="str">
-        <f>IF(OR(B60&lt;&gt;"",J60&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J60" s="14"/>
-      <c r="K60" s="15"/>
-    </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
+        <f>IF(OR(B60&lt;&gt;"",J61&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J60" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="K60" s="74" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="12" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="22" t="str">
+        <f t="shared" si="18"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F61" s="14" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>MA_11_02_CO_IMG52_small</v>
       </c>
       <c r="G61" s="14" t="str">
         <f>IF(F61&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H61" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>MA_11_02_CO_IMG52_zoom</v>
       </c>
       <c r="I61" s="14" t="str">
-        <f>IF(OR(B61&lt;&gt;"",J61&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <f>IF(OR(B61&lt;&gt;"",J62&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
       </c>
       <c r="J61" s="14"/>
-      <c r="K61" s="15"/>
-    </row>
-    <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
+      <c r="K61" s="82" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="12" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F62" s="14" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG53_small</v>
       </c>
       <c r="G62" s="14" t="str">
         <f>IF(F62&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H62" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG53_zoom</v>
       </c>
       <c r="I62" s="14" t="str">
         <f>IF(OR(B62&lt;&gt;"",J62&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J62" s="14"/>
-      <c r="K62" s="15"/>
-    </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
+      <c r="K62" s="83" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="12" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F63" s="14" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG54_small</v>
       </c>
       <c r="G63" s="14" t="str">
         <f>IF(F63&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H63" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG54_zoom</v>
       </c>
       <c r="I63" s="14" t="str">
         <f>IF(OR(B63&lt;&gt;"",J63&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J63" s="14"/>
-      <c r="K63" s="15"/>
-    </row>
-    <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
+      <c r="K63" s="74" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="12" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F64" s="14" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG55_small</v>
       </c>
       <c r="G64" s="14" t="str">
         <f>IF(F64&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H64" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG55_zoom</v>
       </c>
       <c r="I64" s="14" t="str">
         <f>IF(OR(B64&lt;&gt;"",J64&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J64" s="14"/>
-      <c r="K64" s="15"/>
-    </row>
-    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="1:11" s="12" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F65" s="14" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG56_small</v>
       </c>
       <c r="G65" s="14" t="str">
         <f>IF(F65&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H65" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG56_zoom</v>
       </c>
       <c r="I65" s="14" t="str">
         <f>IF(OR(B65&lt;&gt;"",J65&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J65" s="14"/>
-      <c r="K65" s="15"/>
-    </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J65"/>
+      <c r="K65" s="74" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="12" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F66" s="14" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG57_small</v>
       </c>
       <c r="G66" s="14" t="str">
         <f>IF(F66&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H66" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG57_zoom</v>
       </c>
       <c r="I66" s="14" t="str">
         <f>IF(OR(B66&lt;&gt;"",J66&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J66" s="14"/>
-      <c r="K66" s="15"/>
-    </row>
-    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J66" s="68"/>
+      <c r="K66" s="74" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="12" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F67" s="14" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG58_small</v>
       </c>
       <c r="G67" s="14" t="str">
         <f>IF(F67&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H67" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG58_zoom</v>
       </c>
       <c r="I67" s="14" t="str">
         <f>IF(OR(B67&lt;&gt;"",J67&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J67" s="14"/>
-      <c r="K67" s="15"/>
-    </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
+      <c r="K67" s="74" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="12" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F68" s="14" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG59_small</v>
       </c>
       <c r="G68" s="14" t="str">
         <f>IF(F68&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H68" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG59_zoom</v>
       </c>
       <c r="I68" s="14" t="str">
         <f>IF(OR(B68&lt;&gt;"",J68&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J68" s="14"/>
-      <c r="K68" s="15"/>
-    </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
+      <c r="K68" s="74" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="12" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F69" s="14" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG60_small</v>
       </c>
       <c r="G69" s="14" t="str">
         <f>IF(F69&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H69" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG60_zoom</v>
       </c>
       <c r="I69" s="14" t="str">
         <f>IF(OR(B69&lt;&gt;"",J69&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J69" s="14"/>
-      <c r="K69" s="15"/>
-    </row>
-    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J69"/>
+      <c r="K69" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="12" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F70" s="14" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG61_small</v>
       </c>
       <c r="G70" s="14" t="str">
         <f>IF(F70&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H70" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG61_zoom</v>
       </c>
       <c r="I70" s="14" t="str">
         <f>IF(OR(B70&lt;&gt;"",J70&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J70" s="14"/>
-      <c r="K70" s="15"/>
-    </row>
-    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
+      <c r="K70" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F71" s="14" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG62_small</v>
       </c>
       <c r="G71" s="14" t="str">
         <f>IF(F71&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H71" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG62_zoom</v>
       </c>
       <c r="I71" s="14" t="str">
         <f>IF(OR(B71&lt;&gt;"",J71&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J71" s="14"/>
-      <c r="K71" s="15"/>
-    </row>
-    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
+      <c r="K71" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="12" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="F72" s="14" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG63_small</v>
       </c>
       <c r="G72" s="14" t="str">
         <f>IF(F72&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H72" s="14" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG63_zoom</v>
       </c>
       <c r="I72" s="14" t="str">
         <f>IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J72" s="14"/>
-      <c r="K72" s="15"/>
-    </row>
+      <c r="K72" s="74" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG64_small</v>
+      </c>
+      <c r="G73" s="14" t="str">
+        <f>IF(F73&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H73" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG64_zoom</v>
+      </c>
+      <c r="I73" s="14" t="str">
+        <f>IF(OR(B73&lt;&gt;"",J73&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J73" s="73"/>
+      <c r="K73" s="74" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG65_small</v>
+      </c>
+      <c r="G74" s="14" t="str">
+        <f>IF(F74&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H74" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG65_zoom</v>
+      </c>
+      <c r="I74" s="14" t="str">
+        <f>IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J74" s="83" t="s">
+        <v>286</v>
+      </c>
+      <c r="K74" s="84" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG66_small</v>
+      </c>
+      <c r="G75" s="14" t="str">
+        <f>IF(F75&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H75" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG66_zoom</v>
+      </c>
+      <c r="I75" s="14" t="str">
+        <f>IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J75" s="73"/>
+      <c r="K75" s="85" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG67_small</v>
+      </c>
+      <c r="G76" s="14" t="str">
+        <f>IF(F76&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H76" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG67_zoom</v>
+      </c>
+      <c r="I76" s="14" t="str">
+        <f>IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J76" s="84" t="s">
+        <v>291</v>
+      </c>
+      <c r="K76" s="117" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG68_small</v>
+      </c>
+      <c r="G77" s="14" t="str">
+        <f>IF(F77&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H77" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG68_zoom</v>
+      </c>
+      <c r="I77" s="14" t="str">
+        <f>IF(OR(B77&lt;&gt;"",J77&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J77" t="s">
+        <v>293</v>
+      </c>
+      <c r="K77" s="73" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG69_small</v>
+      </c>
+      <c r="G78" s="14" t="str">
+        <f>IF(F78&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H78" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG69_zoom</v>
+      </c>
+      <c r="I78" s="14" t="str">
+        <f>IF(OR(B78&lt;&gt;"",J78&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J78" s="73" t="s">
+        <v>295</v>
+      </c>
+      <c r="K78" s="73" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG70_small</v>
+      </c>
+      <c r="G79" s="14" t="str">
+        <f>IF(F79&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H79" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG70_zoom</v>
+      </c>
+      <c r="I79" s="14" t="str">
+        <f>IF(OR(B79&lt;&gt;"",J79&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J79" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="K79" s="73" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F80" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG71_small</v>
+      </c>
+      <c r="G80" s="14" t="str">
+        <f>IF(F80&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H80" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG71_zoom</v>
+      </c>
+      <c r="I80" s="14" t="str">
+        <f>IF(OR(B80&lt;&gt;"",J80&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J80" s="84" t="s">
+        <v>299</v>
+      </c>
+      <c r="K80" s="73" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F81" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG72_small</v>
+      </c>
+      <c r="G81" s="14" t="str">
+        <f>IF(F81&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H81" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG72_zoom</v>
+      </c>
+      <c r="I81" s="14" t="str">
+        <f>IF(OR(B81&lt;&gt;"",J81&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J81" s="84" t="s">
+        <v>301</v>
+      </c>
+      <c r="K81" s="73" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F82" s="14" t="str">
+        <f t="shared" si="16"/>
+        <v>MA_11_02_CO_IMG73_small</v>
+      </c>
+      <c r="G82" s="14" t="str">
+        <f>IF(F82&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H82" s="14" t="str">
+        <f t="shared" si="17"/>
+        <v>MA_11_02_CO_IMG73_zoom</v>
+      </c>
+      <c r="I82" s="14" t="str">
+        <f>IF(OR(B82&lt;&gt;"",J82&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J82" s="118" t="s">
+        <v>303</v>
+      </c>
+      <c r="K82" s="73" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B83" s="119" t="s">
+        <v>305</v>
+      </c>
+      <c r="C83" s="22" t="str">
+        <f t="shared" ref="C83" si="21">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F83" s="14" t="str">
+        <f t="shared" ref="F83" si="22">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE($C$7,"_",$A83,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I83="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>MA_11_02_CO_IMG74_small</v>
+      </c>
+      <c r="G83" s="14" t="str">
+        <f>IF(F83&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H83" s="14" t="str">
+        <f t="shared" ref="H83" si="23">IF(AND(I83&lt;&gt;"",I83&lt;&gt;0),IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE($C$7,"_",$A83,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>MA_11_02_CO_IMG74_zoom</v>
+      </c>
+      <c r="I83" s="14" t="str">
+        <f>IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J83" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="K83" s="73" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="F2:G2"/>
@@ -4642,17 +9607,47 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E83">
       <formula1>"Vertical,Horizontal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D83">
       <formula1>"Ilustración,Fotografía"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B83" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="PBrush" shapeId="3127" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>971550</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>3552825</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>2381250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="PBrush" shapeId="3127" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4682,25 +9677,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="35"/>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -4708,11 +9703,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="35"/>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
       <c r="F3" s="36"/>
       <c r="H3" s="26" t="s">
         <v>18</v>
@@ -4763,11 +9758,11 @@
       <c r="C5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="100" t="str">
+      <c r="D5" s="113" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>MA_11_01_CO</v>
       </c>
-      <c r="E5" s="101"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="36"/>
       <c r="H5" s="26" t="s">
         <v>22</v>
@@ -4812,12 +9807,12 @@
       <c r="C7" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="86" t="str">
+      <c r="D7" s="99" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_CO.xls</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="100"/>
       <c r="H7" s="26" t="s">
         <v>24</v>
       </c>
@@ -4911,14 +9906,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103"/>
       <c r="I13" s="26" t="s">
         <v>33</v>
       </c>
@@ -4951,12 +9946,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="106"/>
       <c r="J15" s="26">
         <v>12</v>
       </c>
@@ -4996,12 +9991,12 @@
       <c r="C17" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="94" t="str">
+      <c r="D17" s="107" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>MA_11_01_REC10</v>
       </c>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
       <c r="J17" s="26">
         <v>14</v>
       </c>
@@ -5017,12 +10012,12 @@
       <c r="C18" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="86" t="str">
+      <c r="D18" s="99" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_REC10.xls</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
       <c r="J18" s="26">
         <v>15</v>
       </c>
@@ -5414,41 +10409,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="45" t="s">
         <v>65</v>
       </c>

--- a/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO.xlsx
@@ -1018,9 +1018,6 @@
     <t xml:space="preserve">Grafica de la funcion                                                                                                             con asintotas en x=-3 y x+2 de color rojo con sus respectivas etiquetas.                                                                                                                      </t>
   </si>
   <si>
-    <t>Grafica de la funcion con asintota punteada en y=3 y sus respectivas etiquetas.</t>
-  </si>
-  <si>
     <t>Grafica de la funcion</t>
   </si>
   <si>
@@ -1103,6 +1100,9 @@
   </si>
   <si>
     <t>No se si la imagen sea libre, es mejor hacer una similar.</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion con asintota punteada en y=3 y sus respectivas etiquetas, la funcion es     f(x)=(3x^2-5x+7)/(x^2-1)</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1847,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2076,6 +2076,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2160,14 +2169,8 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -4888,71 +4891,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>324971</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>750795</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1687046</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>1112745</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Imagen 72"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20439530" y="103363060"/>
-          <a:ext cx="1362075" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -4972,7 +4910,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5021,7 +4959,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -5086,7 +5024,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -5149,7 +5087,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5187,7 +5125,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -5250,7 +5188,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5299,7 +5237,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -5362,7 +5300,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5409,7 +5347,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5456,7 +5394,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5503,7 +5441,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5552,7 +5490,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -5615,7 +5553,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5662,7 +5600,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5711,7 +5649,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -5776,7 +5714,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -6538,9 +6476,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:G3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6578,14 +6516,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="F2" s="86" t="s">
+      <c r="D2" s="97"/>
+      <c r="F2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="87"/>
+      <c r="G2" s="90"/>
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="16"/>
@@ -6595,12 +6533,12 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="95">
+      <c r="C3" s="98">
         <v>11</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="89"/>
+      <c r="D3" s="99"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="16"/>
@@ -6610,10 +6548,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="5"/>
       <c r="F4" s="43" t="s">
         <v>55</v>
@@ -6631,10 +6569,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="98"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="5"/>
       <c r="F5" s="41" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -6685,12 +6623,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -8553,7 +8491,7 @@
         <v>274</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="12" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
@@ -8593,7 +8531,7 @@
         <v>273</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="12" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8746,8 +8684,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J62" s="14"/>
-      <c r="K62" s="83" t="s">
-        <v>279</v>
+      <c r="K62" s="120" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="12" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8785,7 +8723,7 @@
       </c>
       <c r="J63" s="14"/>
       <c r="K63" s="74" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="12" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8822,7 +8760,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K64"/>
     </row>
@@ -8861,7 +8799,7 @@
       </c>
       <c r="J65"/>
       <c r="K65" s="74" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="12" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8899,7 +8837,7 @@
       </c>
       <c r="J66" s="68"/>
       <c r="K66" s="74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="12" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9013,7 +8951,7 @@
       </c>
       <c r="J69"/>
       <c r="K69" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="12" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
@@ -9051,7 +8989,7 @@
       </c>
       <c r="J70" s="14"/>
       <c r="K70" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -9089,7 +9027,7 @@
       </c>
       <c r="J71" s="14"/>
       <c r="K71" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="12" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9202,10 +9140,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J74" s="83" t="s">
+        <v>285</v>
+      </c>
+      <c r="K74" s="84" t="s">
         <v>286</v>
-      </c>
-      <c r="K74" s="84" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="171" customHeight="1" x14ac:dyDescent="0.25">
@@ -9243,7 +9181,7 @@
       </c>
       <c r="J75" s="73"/>
       <c r="K75" s="85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9280,10 +9218,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J76" s="84" t="s">
+        <v>290</v>
+      </c>
+      <c r="K76" s="86" t="s">
         <v>291</v>
-      </c>
-      <c r="K76" s="117" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -9320,10 +9258,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J77" t="s">
+        <v>292</v>
+      </c>
+      <c r="K77" s="73" t="s">
         <v>293</v>
-      </c>
-      <c r="K77" s="73" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9360,10 +9298,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J78" s="73" t="s">
+        <v>294</v>
+      </c>
+      <c r="K78" s="73" t="s">
         <v>295</v>
-      </c>
-      <c r="K78" s="73" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9400,10 +9338,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J79" s="84" t="s">
+        <v>296</v>
+      </c>
+      <c r="K79" s="73" t="s">
         <v>297</v>
-      </c>
-      <c r="K79" s="73" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9440,10 +9378,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J80" s="84" t="s">
+        <v>298</v>
+      </c>
+      <c r="K80" s="73" t="s">
         <v>299</v>
-      </c>
-      <c r="K80" s="73" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
@@ -9480,10 +9418,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J81" s="84" t="s">
+        <v>300</v>
+      </c>
+      <c r="K81" s="73" t="s">
         <v>301</v>
-      </c>
-      <c r="K81" s="73" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
@@ -9519,19 +9457,19 @@
         <f>IF(OR(B82&lt;&gt;"",J82&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J82" s="118" t="s">
+      <c r="J82" s="87" t="s">
+        <v>302</v>
+      </c>
+      <c r="K82" s="73" t="s">
         <v>303</v>
-      </c>
-      <c r="K82" s="73" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="B83" s="119" t="s">
-        <v>305</v>
+      <c r="B83" s="88" t="s">
+        <v>304</v>
       </c>
       <c r="C83" s="22" t="str">
         <f t="shared" ref="C83" si="21">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -9560,10 +9498,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J83" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="K83" s="73" t="s">
         <v>306</v>
-      </c>
-      <c r="K83" s="73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9677,25 +9615,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="35"/>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -9703,11 +9641,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="35"/>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="36"/>
       <c r="H3" s="26" t="s">
         <v>18</v>
@@ -9758,11 +9696,11 @@
       <c r="C5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="113" t="str">
+      <c r="D5" s="116" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>MA_11_01_CO</v>
       </c>
-      <c r="E5" s="114"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="36"/>
       <c r="H5" s="26" t="s">
         <v>22</v>
@@ -9807,12 +9745,12 @@
       <c r="C7" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="99" t="str">
+      <c r="D7" s="102" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_CO.xls</v>
       </c>
-      <c r="E7" s="99"/>
-      <c r="F7" s="100"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="103"/>
       <c r="H7" s="26" t="s">
         <v>24</v>
       </c>
@@ -9906,14 +9844,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
       <c r="I13" s="26" t="s">
         <v>33</v>
       </c>
@@ -9946,12 +9884,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
       <c r="J15" s="26">
         <v>12</v>
       </c>
@@ -9991,12 +9929,12 @@
       <c r="C17" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="107" t="str">
+      <c r="D17" s="110" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>MA_11_01_REC10</v>
       </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="109"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
       <c r="J17" s="26">
         <v>14</v>
       </c>
@@ -10012,12 +9950,12 @@
       <c r="C18" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="99" t="str">
+      <c r="D18" s="102" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_REC10.xls</v>
       </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
       <c r="J18" s="26">
         <v>15</v>
       </c>
@@ -10409,41 +10347,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="116" t="s">
+      <c r="H1" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
       <c r="H2" s="45" t="s">
         <v>65</v>
       </c>

--- a/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="306">
   <si>
     <t>Fecha:</t>
   </si>
@@ -561,48 +561,10 @@
     <t>221793745-142778230-199544615-60771259</t>
   </si>
   <si>
-    <t>Elaborar un colage con las imágenes qe se  toman de shutterstock</t>
-  </si>
-  <si>
     <t>Son Cuatro imágenes que muestran aplicaciones  de la funcion,  en  una de ellas hay representaciones graficas de funciones,  que se pueden mostrar por aparte, la idea es hacer un collage con estas imágenes que muestre  algunos contextos de aplicación de funcion.  El diseño de este collage queda a la libertad del diseñador.</t>
   </si>
   <si>
     <t>Dibujar un diagrama sagital similar a este.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Diagrama Sagital de la relación, escribir A al conjunto de salida y B al conjunto de llegada, además dibujar una flecha de la letra A hacia la letra B, sobre la fecha escribir </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> de forma similar a la IMG02</t>
-    </r>
   </si>
   <si>
     <r>
@@ -892,42 +854,18 @@
     <t>Es una  recopilacion de los diagramas sagitales de las  IMG02 hasta IMG06</t>
   </si>
   <si>
-    <t>Incluir el nombre de cada conjunto y la flecha que los una mediante cada relacion como en la IMG02</t>
-  </si>
-  <si>
     <t>Descargar o dibujar similar.</t>
   </si>
   <si>
-    <t xml:space="preserve">Representacion grafica en el plano cartesiano de la circunferencia </t>
-  </si>
-  <si>
-    <t>Representacion grafica de la region</t>
-  </si>
-  <si>
     <t xml:space="preserve">Representacion  grafica de la relacion </t>
   </si>
   <si>
-    <t>Representación grafica de la relacion, en este link aparece la ecuacion del logotipo de  batman  http://gaussianos.com/la-ecuacion-del-logo-de-batman-en-mathematica/</t>
-  </si>
-  <si>
     <t>La misma IMG09</t>
   </si>
   <si>
     <t>La misma IMG10</t>
   </si>
   <si>
-    <t>Grafica de la circunferencia de radio 1, similar a la IMG12, con una recta vertical de color rojo que la atraviesa en dos puntos como se muestra en la figura</t>
-  </si>
-  <si>
-    <t>La grafica de la IMG13, atravesada poe una recta vertical de color rojo, se deben mstrar varios puntos de la recta que se intersectan con la region sombreada, estos puntos no requieren etiqueta.</t>
-  </si>
-  <si>
-    <t>La IMG14, con varias rectas verticales que la intersectan, marcar estos puntos de interseccion, pero eliminar las etiquetas de los puntos de interseccion y de las rectas verticales</t>
-  </si>
-  <si>
-    <t>La IMG15, con una recta vertical que la atraviesa en dos puntos, la recta de color rojo, y se marcan los puntos, pero ni la recta, ni los puntos deben tener etiqueta.</t>
-  </si>
-  <si>
     <t>Similar a la IMG02, con A y B los nombres de cada conjunto y una flecha de A hacia B, bajo la letra f</t>
   </si>
   <si>
@@ -943,9 +881,6 @@
     <t>Grafica de la funcion f(x)=x^2, con una recta horizontal que pasa por dos puntos, eliminar la etiqueta de la recta y de los puntos de interseccion.</t>
   </si>
   <si>
-    <t>Representacion en el diagrama sagital de g, cambiar g por f  y poner los nombres a los conjuntos A y B, y la flecha de A en B</t>
-  </si>
-  <si>
     <t>Representacion grafica de f(x)=x^5</t>
   </si>
   <si>
@@ -973,27 +908,12 @@
     <t>Grafica de la funcion f(x)=-ln(x)</t>
   </si>
   <si>
-    <t>grafica de la funcion f(x)=3x^2-5</t>
-  </si>
-  <si>
     <t>Grafica de la funcion f(x)=4-3(x-1)^2</t>
   </si>
   <si>
     <t>uncion f(x)=x^3-3x</t>
   </si>
   <si>
-    <t>Grafica de la funcion f(x)=x^2, con un segmento  de color que une dos puntos de la curva. Los puntos sin etiqueta</t>
-  </si>
-  <si>
-    <t>Grafica de la funcion f(x)=2^x con un segmento que une dos puntos de la curva</t>
-  </si>
-  <si>
-    <t>Grafica de la funcion f(x)=1-x^2 con un segmento que une dos puntos de la curva, los puntos sin etiqueta.</t>
-  </si>
-  <si>
-    <t>Grafica de la funcion f(x)=1-2^x, con un segmento que une dos puntos de la curva, los puntos sin etiqueta.</t>
-  </si>
-  <si>
     <t>Grafica de las funciones que se indican en la imagen, cada una con sus etiquetas y de diferentes colores.</t>
   </si>
   <si>
@@ -1015,9 +935,6 @@
     <t>Dibujar la recta x=-3 punteada y de color rojo, la etiqueta de la reta debe ser x=-3</t>
   </si>
   <si>
-    <t xml:space="preserve">Grafica de la funcion                                                                                                             con asintotas en x=-3 y x+2 de color rojo con sus respectivas etiquetas.                                                                                                                      </t>
-  </si>
-  <si>
     <t>Grafica de la funcion</t>
   </si>
   <si>
@@ -1027,30 +944,18 @@
     <t>Grafica de la funcion con asintota oblicua en y=x-3</t>
   </si>
   <si>
-    <t>Grafica de la funcion sen(x) entre -5pi/2 hasta 5pi/2</t>
-  </si>
-  <si>
-    <t>Grafica de la funcion cos(x) entre -5pi/2 hasta 5pi/2</t>
-  </si>
-  <si>
     <t>Grafica de la funcion tan(x) entre -5pi/2 hasta 5pi/2</t>
   </si>
   <si>
     <t xml:space="preserve">Representación gráfica de la funcion </t>
   </si>
   <si>
-    <t xml:space="preserve">Representacion gráfica de la funcion </t>
-  </si>
-  <si>
     <t>La función a trozos, modificarla para que se note el hueco que se dan el segmento cuando x=0</t>
   </si>
   <si>
     <t>Las graficas en el mismo plano cartesiano</t>
   </si>
   <si>
-    <t>Grafica de la funcion  con asintota punteada de color rojo en y=0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Representacion grafica de la relación </t>
   </si>
   <si>
@@ -1066,33 +971,18 @@
     <t>Grafica de la funcion parte entera de x</t>
   </si>
   <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
     <t>Representacion grafica de las funciones f(x)=√(x+2), g(x)=1/(x-3) y (f+g)(x)=((x-3) √(x+2)+1)/(x-3)</t>
   </si>
   <si>
-    <t>en el mismo plano cartesiano, Cada grafica en un color diferente y frente a cada grafica el nombre de la funcion es decir f, g y f+g</t>
-  </si>
-  <si>
     <t>Representacion grafica de las funciones f(x)=√(x+2), g(x)=1/(x-3) y (f-g)(x)=((x-3) √(x+2)-1)/(x-3)</t>
   </si>
   <si>
-    <t>en el mismo plano cartesiano, Cada grafica en un color diferente y frente a cada grafica el nombre de la funcion es decir f, g y f-g</t>
-  </si>
-  <si>
     <t>Representacion grafica de las funciones f(x)=√(x+2), g(x)=1/(x-3) y (fg)(x)=√(x+2)/(x-3)</t>
   </si>
   <si>
-    <t>en el mismo plano cartesiano, Cada grafica en un color diferente y frente a cada grafica el nombre de la funcion es decir f, g y fg</t>
-  </si>
-  <si>
     <t>Realizar dos planos cartesianos uno al  lado del otro, juntos deben tener las funciones f(x)=√(x+2), g(x)=1/(x-3) en distintos colores, el de la izquierda  debe tener  ademas la funcion (f/g)(x)=(x-3) √(x+2) y el derecha la funcion (g/f)(x)=1/((x-3) √(x+2)) ademas de f y g</t>
   </si>
   <si>
-    <t>en ambos graficas  la funcion f debe tener el mismo color, la funcion g otro color, pero  conservar el color en ambas graficas, junto a cada grafica la etiqueta con el nombre de lla funcion como en las graficas de la IMG72</t>
-  </si>
-  <si>
     <t>http://iesaricel.org/rafanogal/funciones/funciones-archivos/composicion.gif</t>
   </si>
   <si>
@@ -1102,7 +992,79 @@
     <t>No se si la imagen sea libre, es mejor hacer una similar.</t>
   </si>
   <si>
-    <t>Grafica de la funcion con asintota punteada en y=3 y sus respectivas etiquetas, la funcion es     f(x)=(3x^2-5x+7)/(x^2-1)</t>
+    <t>Es la img03, no IMG04</t>
+  </si>
+  <si>
+    <t>si son, pero creo conveniente organizar los diagramas de forma horizontal, como estan en la figura.</t>
+  </si>
+  <si>
+    <t>La funcion es g, no f</t>
+  </si>
+  <si>
+    <t>Retirar la letra a de la grafica</t>
+  </si>
+  <si>
+    <t>Eliminar la letra c de la gráfica</t>
+  </si>
+  <si>
+    <t>Retirar las letras j, h y g de la gráfica</t>
+  </si>
+  <si>
+    <t>Eliminar la letra minuscula a y la letra minuscula e</t>
+  </si>
+  <si>
+    <t>Eliminar la letra minuscula c y la letra minuscula e</t>
+  </si>
+  <si>
+    <t>Eliminar las letras minusculas</t>
+  </si>
+  <si>
+    <t>Recomiendo un espacio entre el cuadrado y el menos, para que se note la formula</t>
+  </si>
+  <si>
+    <t>Eliminar las letras minusculas a y g</t>
+  </si>
+  <si>
+    <t>Eliminar la letra a</t>
+  </si>
+  <si>
+    <t>Eliminar la letra a y la letra g</t>
+  </si>
+  <si>
+    <t>Eliminar las letras S, f1 y g1</t>
+  </si>
+  <si>
+    <t>En x=1 no  hay asintota, pero se debe mostrar el hueco, una circunferencia pequeña sin rellenar sobre la curva</t>
+  </si>
+  <si>
+    <t>Eliminar h1 y j de la gráfica</t>
+  </si>
+  <si>
+    <t>Eliminar la h1, Grafica de la funcion  con asintota punteada de color rojo en y=0</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion cos(x) entre -5pi/2 hasta 5pi/2, NO ESTA, la que aparece como 61 es la 60</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion sen(x) entre -5pi/2 hasta 5pi/2, eliminar la "o" se seno(x), aparece como 61</t>
+  </si>
+  <si>
+    <t>que  la letra X del eje sea visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">que la circunferencia se vea totalmente hueca al interior. Representacion gráfica de la funcion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simbolizar como </t>
+  </si>
+  <si>
+    <t>Eliminar los parentesis dentro de la raiz  del denominador</t>
+  </si>
+  <si>
+    <t>Ambas graficas deben tener la funcion f y la funcion g,  la diferencia es que la primera tiene la funcion f/g y la segunda a funcion g/f,  las f en ambas graficas con el mimo color, lo mismo las g. el fraccionario debe ser vertical,  y eliminar los parentesis que sobran de la raiz y del denominador. en g/f se debe resaltar el hueco en x=3</t>
+  </si>
+  <si>
+    <t>La idea es elaborar un collage con esas imágenes, por ejemplo  relacionando la imagen A, con la B y con la grafica de debajo de la izquierda de la C, tambien se puede relacionar el puente de la grafica D con la 4 imagen de la C, sin embargo la idea es hacer el collage que muestre algunas aplicaciones de la funcion de forma gráfica, por eso se pueden sobreponer las imagenes</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1244,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1332,6 +1294,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1847,7 +1827,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1899,12 +1879,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2026,17 +2000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2053,36 +2017,102 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="11" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2168,9 +2198,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2733,71 +2760,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>640773</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>450273</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1421823</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>631248</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Imagen 22"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20747182" y="30757091"/>
-          <a:ext cx="781050" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -2817,7 +2779,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2845,71 +2807,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>459441</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>717176</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1364316</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>898151</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Imagen 27"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20574000" y="32878058"/>
-          <a:ext cx="904875" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -2929,7 +2826,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2978,7 +2875,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -3041,7 +2938,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3088,7 +2985,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3229,7 +3126,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3276,7 +3173,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3323,7 +3220,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3370,7 +3267,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3417,7 +3314,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3464,7 +3361,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3558,7 +3455,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3605,7 +3502,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3652,7 +3549,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3699,7 +3596,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3746,7 +3643,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3793,7 +3690,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3840,7 +3737,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3887,7 +3784,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3920,13 +3817,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1098176</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:rowOff>175932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>4774826</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>1364652</xdr:rowOff>
+      <xdr:rowOff>1383702</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3934,7 +3831,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3948,7 +3845,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15083117" y="68154176"/>
+          <a:off x="15080876" y="68165382"/>
           <a:ext cx="3676650" cy="1207770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3981,7 +3878,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4028,7 +3925,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4075,7 +3972,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4122,7 +4019,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4169,7 +4066,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4216,7 +4113,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4263,7 +4160,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4310,7 +4207,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4357,7 +4254,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4404,7 +4301,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4451,7 +4348,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4498,7 +4395,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4545,7 +4442,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4592,7 +4489,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4641,7 +4538,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -4704,7 +4601,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4751,7 +4648,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4779,71 +4676,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>369794</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>784411</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1808069</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>1184461</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Imagen 70"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20484353" y="101200323"/>
-          <a:ext cx="1438275" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -4863,7 +4695,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4910,7 +4742,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4959,7 +4791,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -5024,7 +4856,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -5087,7 +4919,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5125,7 +4957,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -5188,7 +5020,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5237,7 +5069,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -5300,7 +5132,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5347,7 +5179,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5394,7 +5226,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5441,7 +5273,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5490,7 +5322,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -5553,7 +5385,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5600,7 +5432,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5649,7 +5481,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -5714,7 +5546,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -5740,6 +5572,71 @@
         <a:xfrm>
           <a:off x="15306261" y="125970196"/>
           <a:ext cx="2762250" cy="487018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>942975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1914525</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Imagen 78"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21307425" y="128873250"/>
+          <a:ext cx="714375" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6476,9 +6373,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K55" sqref="K55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6506,8 +6403,8 @@
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
@@ -6516,16 +6413,16 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="F2" s="89" t="s">
+      <c r="D2" s="117"/>
+      <c r="F2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -6533,14 +6430,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="98">
+      <c r="C3" s="118">
         <v>11</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="D3" s="119"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
@@ -6548,19 +6445,19 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="118" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="99"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
@@ -6569,20 +6466,20 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="101"/>
+      <c r="D5" s="121"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="41" t="str">
+      <c r="F5" s="39" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v/>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="65"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
@@ -6594,20 +6491,20 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1"/>
@@ -6623,12 +6520,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="115"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -6638,7 +6535,7 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -6653,16 +6550,16 @@
       <c r="E9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="62" t="s">
         <v>121</v>
       </c>
       <c r="J9" s="20" t="s">
@@ -6673,303 +6570,304 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="e">
+      <c r="A10" s="76" t="e">
         <f>IF(OR(B10&lt;&gt;"",#REF!&lt;&gt;""),"IMG01","")</f>
         <v>#REF!</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="22" t="e">
+      <c r="C10" s="78" t="e">
         <f>IF(OR(B10&lt;&gt;"",#REF!&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>#REF!</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="14" t="e">
+      <c r="F10" s="79" t="e">
         <f>IF(OR(B10&lt;&gt;"",#REF!&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>#REF!</v>
       </c>
-      <c r="G10" s="14" t="e">
+      <c r="G10" s="79" t="e">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>#REF!</v>
       </c>
-      <c r="H10" s="14" t="e">
+      <c r="H10" s="79" t="e">
         <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",#REF!&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>#REF!</v>
       </c>
-      <c r="I10" s="14" t="e">
+      <c r="I10" s="79" t="e">
         <f>IF(OR(B10&lt;&gt;"",#REF!&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>#REF!</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="K10" s="69" t="s">
+      <c r="J10" s="79" t="s">
         <v>162</v>
       </c>
+      <c r="K10" s="80" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="22" t="str">
+      <c r="C11" s="83" t="str">
         <f t="shared" ref="C11:C13" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="14" t="str">
+      <c r="F11" s="84" t="str">
         <f t="shared" ref="F11:F13" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG02_small</v>
       </c>
-      <c r="G11" s="14" t="str">
+      <c r="G11" s="84" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H11" s="14" t="str">
+      <c r="H11" s="84" t="str">
         <f t="shared" ref="H11:H12" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG02_zoom</v>
       </c>
-      <c r="I11" s="14" t="str">
+      <c r="I11" s="84" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11"/>
-      <c r="K11" s="69" t="s">
-        <v>164</v>
+      <c r="J11" s="85"/>
+      <c r="K11" s="86" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="22" t="str">
+      <c r="C12" s="70" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="14" t="str">
+      <c r="F12" s="71" t="str">
         <f t="shared" si="1"/>
         <v>MA_11_02_CO_IMG03_small</v>
       </c>
-      <c r="G12" s="14" t="str">
+      <c r="G12" s="71" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H12" s="14" t="str">
+      <c r="H12" s="71" t="str">
         <f t="shared" si="2"/>
         <v>MA_11_02_CO_IMG03_zoom</v>
       </c>
-      <c r="I12" s="14" t="str">
+      <c r="I12" s="71" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="72" t="s">
-        <v>165</v>
+      <c r="J12" s="89"/>
+      <c r="K12" s="90" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="22" t="str">
+      <c r="C13" s="83" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="14" t="str">
+      <c r="F13" s="84" t="str">
         <f t="shared" si="1"/>
         <v>MA_11_02_CO_IMG04_small</v>
       </c>
-      <c r="G13" s="14" t="str">
+      <c r="G13" s="84" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13"/>
-      <c r="K13" s="72" t="s">
-        <v>166</v>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="87" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="22" t="str">
+      <c r="C14" s="83" t="str">
         <f t="shared" ref="C14" si="3">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="14" t="str">
+      <c r="F14" s="84" t="str">
         <f t="shared" ref="F14" si="4">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I14="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG05_small</v>
       </c>
-      <c r="G14" s="14" t="str">
+      <c r="G14" s="84" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H14" s="14" t="str">
+      <c r="H14" s="84" t="str">
         <f t="shared" ref="H14" si="5">IF(AND(I14&lt;&gt;"",I14&lt;&gt;0),IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG05_zoom</v>
       </c>
-      <c r="I14" s="14" t="str">
+      <c r="I14" s="84" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="72" t="s">
-        <v>167</v>
+      <c r="J14" s="84"/>
+      <c r="K14" s="87" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="22" t="str">
+      <c r="C15" s="83" t="str">
         <f>IF(OR(B15&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F15" s="14" t="str">
+      <c r="F15" s="84" t="str">
         <f>IF(OR(B15&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I15="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG06_small</v>
       </c>
-      <c r="G15" s="14" t="str">
+      <c r="G15" s="84" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H15" s="14" t="str">
+      <c r="H15" s="84" t="str">
         <f>IF(AND(I15&lt;&gt;"",I15&lt;&gt;0),IF(OR(B15&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG06_zoom</v>
       </c>
-      <c r="I15" s="14" t="str">
+      <c r="I15" s="84" t="str">
         <f>IF(OR(B15&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="K15" s="72" t="s">
-        <v>168</v>
+      <c r="J15" s="92"/>
+      <c r="K15" s="87" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="22" t="str">
+      <c r="C16" s="83" t="str">
         <f t="shared" ref="C16" si="6">IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="14" t="str">
+      <c r="F16" s="84" t="str">
         <f t="shared" ref="F16" si="7">IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I16="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG07_small</v>
       </c>
-      <c r="G16" s="14" t="str">
+      <c r="G16" s="84" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H16" s="14" t="str">
+      <c r="H16" s="84" t="str">
         <f t="shared" ref="H16" si="8">IF(AND(I16&lt;&gt;"",I16&lt;&gt;0),IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG07_zoom</v>
       </c>
-      <c r="I16" s="14" t="str">
+      <c r="I16" s="84" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="71" t="s">
-        <v>169</v>
+      <c r="J16" s="84"/>
+      <c r="K16" s="93" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="22" t="str">
+      <c r="C17" s="83" t="str">
         <f t="shared" ref="C17" si="9">IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="14" t="str">
+      <c r="F17" s="84" t="str">
         <f t="shared" ref="F17" si="10">IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I17="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG08_small</v>
       </c>
-      <c r="G17" s="14" t="str">
+      <c r="G17" s="84" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H17" s="14" t="str">
+      <c r="H17" s="84" t="str">
         <f t="shared" ref="H17" si="11">IF(AND(I17&lt;&gt;"",I17&lt;&gt;0),IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG08_zoom</v>
       </c>
-      <c r="I17" s="14" t="str">
+      <c r="I17" s="84" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="71" t="s">
-        <v>170</v>
+      <c r="J17" s="84"/>
+      <c r="K17" s="93" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7007,52 +6905,52 @@
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="22" t="str">
+      <c r="C19" s="70" t="str">
         <f t="shared" ref="C19:C82" si="15">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="14" t="str">
+      <c r="F19" s="71" t="str">
         <f t="shared" ref="F19:F82" si="16">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE($C$7,"_",$A19,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I19="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG10_small</v>
       </c>
-      <c r="G19" s="14" t="str">
+      <c r="G19" s="71" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H19" s="14" t="str">
+      <c r="H19" s="71" t="str">
         <f t="shared" ref="H19:H82" si="17">IF(AND(I19&lt;&gt;"",I19&lt;&gt;0),IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE($C$7,"_",$A19,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG10_zoom</v>
       </c>
-      <c r="I19" s="14" t="str">
+      <c r="I19" s="71" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15" t="s">
-        <v>237</v>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="71">
+        <v>170</v>
+      </c>
+      <c r="B20" s="66">
         <v>146258987</v>
       </c>
       <c r="C20" s="22" t="str">
@@ -7083,50 +6981,50 @@
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="12" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="22" t="str">
+      <c r="C21" s="70" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="14" t="str">
+      <c r="F21" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG12_small</v>
       </c>
-      <c r="G21" s="14" t="str">
+      <c r="G21" s="71" t="str">
         <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H21" s="14" t="str">
+      <c r="H21" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG12_zoom</v>
       </c>
-      <c r="I21" s="14" t="str">
+      <c r="I21" s="71" t="str">
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="74" t="s">
-        <v>239</v>
+      <c r="J21" s="71"/>
+      <c r="K21" s="95" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>147</v>
@@ -7138,33 +7036,33 @@
       <c r="D22" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="14" t="str">
+      <c r="F22" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG13_small</v>
       </c>
-      <c r="G22" s="14" t="str">
+      <c r="G22" s="71" t="str">
         <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H22" s="14" t="str">
+      <c r="H22" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG13_zoom</v>
       </c>
-      <c r="I22" s="14" t="str">
+      <c r="I22" s="71" t="str">
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22"/>
-      <c r="K22" s="74" t="s">
-        <v>240</v>
+      <c r="J22" s="96"/>
+      <c r="K22" s="95" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>147</v>
@@ -7176,33 +7074,33 @@
       <c r="D23" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="14" t="str">
+      <c r="F23" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG14_small</v>
       </c>
-      <c r="G23" s="14" t="str">
+      <c r="G23" s="71" t="str">
         <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H23" s="14" t="str">
+      <c r="H23" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG14_zoom</v>
       </c>
-      <c r="I23" s="14" t="str">
+      <c r="I23" s="71" t="str">
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23"/>
-      <c r="K23" s="74" t="s">
-        <v>241</v>
+      <c r="J23" s="96"/>
+      <c r="K23" s="95" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>147</v>
@@ -7214,33 +7112,33 @@
       <c r="D24" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="14" t="str">
+      <c r="F24" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG15_small</v>
       </c>
-      <c r="G24" s="14" t="str">
+      <c r="G24" s="71" t="str">
         <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H24" s="14" t="str">
+      <c r="H24" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG15_zoom</v>
       </c>
-      <c r="I24" s="14" t="str">
+      <c r="I24" s="71" t="str">
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15" t="s">
-        <v>242</v>
+      <c r="J24" s="71"/>
+      <c r="K24" s="72" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B25" s="22" t="s">
         <v>147</v>
@@ -7273,12 +7171,12 @@
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="15" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>147</v>
@@ -7311,164 +7209,164 @@
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="15" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="12" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="22" t="str">
+      <c r="C27" s="70" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="14" t="str">
+      <c r="F27" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG18_small</v>
       </c>
-      <c r="G27" s="14" t="str">
+      <c r="G27" s="71" t="str">
         <f>IF(F27&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H27" s="14" t="str">
+      <c r="H27" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG18_zoom</v>
       </c>
-      <c r="I27" s="14" t="str">
+      <c r="I27" s="71" t="str">
         <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15" t="s">
-        <v>245</v>
+      <c r="J27" s="71"/>
+      <c r="K27" s="72" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="12" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="22" t="str">
+      <c r="C28" s="70" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="14" t="str">
+      <c r="F28" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG19_small</v>
       </c>
-      <c r="G28" s="14" t="str">
+      <c r="G28" s="71" t="str">
         <f>IF(F28&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H28" s="14" t="str">
+      <c r="H28" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG19_zoom</v>
       </c>
-      <c r="I28" s="14" t="str">
+      <c r="I28" s="71" t="str">
         <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="15" t="s">
-        <v>246</v>
+      <c r="J28" s="71"/>
+      <c r="K28" s="72" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="12" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="22" t="str">
+      <c r="C29" s="70" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F29" s="14" t="str">
+      <c r="F29" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG20_small</v>
       </c>
-      <c r="G29" s="14" t="str">
+      <c r="G29" s="71" t="str">
         <f>IF(F29&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H29" s="14" t="str">
+      <c r="H29" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG20_zoom</v>
       </c>
-      <c r="I29" s="14" t="str">
+      <c r="I29" s="71" t="str">
         <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15" t="s">
-        <v>247</v>
+      <c r="J29" s="71"/>
+      <c r="K29" s="72" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="12" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="22" t="str">
+      <c r="C30" s="70" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="14" t="str">
+      <c r="F30" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG21_small</v>
       </c>
-      <c r="G30" s="14" t="str">
+      <c r="G30" s="71" t="str">
         <f>IF(F30&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H30" s="14" t="str">
+      <c r="H30" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG21_zoom</v>
       </c>
-      <c r="I30" s="14" t="str">
+      <c r="I30" s="71" t="str">
         <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15" t="s">
-        <v>248</v>
+      <c r="J30" s="71"/>
+      <c r="K30" s="72" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="12" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>147</v>
@@ -7501,734 +7399,734 @@
       </c>
       <c r="J31" s="14"/>
       <c r="K31" s="12" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="12" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32" s="22" t="s">
+      <c r="A32" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="22" t="str">
+      <c r="C32" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F32" s="14" t="str">
+      <c r="F32" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG23_small</v>
       </c>
-      <c r="G32" s="14" t="str">
+      <c r="G32" s="84" t="str">
         <f>IF(F32&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H32" s="14" t="str">
+      <c r="H32" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG23_zoom</v>
       </c>
-      <c r="I32" s="14" t="str">
+      <c r="I32" s="84" t="str">
         <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="15" t="s">
-        <v>249</v>
+      <c r="J32" s="84"/>
+      <c r="K32" s="94" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="12" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="22" t="str">
+      <c r="C33" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F33" s="14" t="str">
+      <c r="F33" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG24_small</v>
       </c>
-      <c r="G33" s="14" t="str">
+      <c r="G33" s="84" t="str">
         <f>IF(F33&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H33" s="14" t="str">
+      <c r="H33" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG24_zoom</v>
       </c>
-      <c r="I33" s="14" t="str">
+      <c r="I33" s="84" t="str">
         <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="15" t="s">
-        <v>250</v>
+      <c r="J33" s="84"/>
+      <c r="K33" s="94" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="12" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="22" t="str">
+      <c r="C34" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F34" s="14" t="str">
+      <c r="F34" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG25_small</v>
       </c>
-      <c r="G34" s="14" t="str">
+      <c r="G34" s="84" t="str">
         <f>IF(F34&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H34" s="14" t="str">
+      <c r="H34" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG25_zoom</v>
       </c>
-      <c r="I34" s="14" t="str">
+      <c r="I34" s="84" t="str">
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J34" s="14"/>
-      <c r="K34" s="15" t="s">
-        <v>252</v>
+      <c r="J34" s="84"/>
+      <c r="K34" s="94" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="12" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="22" t="s">
+      <c r="A35" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="22" t="str">
+      <c r="C35" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F35" s="14" t="str">
+      <c r="F35" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG26_small</v>
       </c>
-      <c r="G35" s="14" t="str">
+      <c r="G35" s="84" t="str">
         <f>IF(F35&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H35" s="14" t="str">
+      <c r="H35" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG26_zoom</v>
       </c>
-      <c r="I35" s="14" t="str">
+      <c r="I35" s="84" t="str">
         <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="15" t="s">
-        <v>253</v>
+      <c r="J35" s="84"/>
+      <c r="K35" s="94" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="12" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="22" t="s">
+      <c r="A36" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="22" t="str">
+      <c r="C36" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F36" s="14" t="str">
+      <c r="F36" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG27_small</v>
       </c>
-      <c r="G36" s="14" t="str">
+      <c r="G36" s="84" t="str">
         <f>IF(F36&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H36" s="14" t="str">
+      <c r="H36" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG27_zoom</v>
       </c>
-      <c r="I36" s="14" t="str">
+      <c r="I36" s="84" t="str">
         <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="15" t="s">
-        <v>256</v>
+      <c r="J36" s="84"/>
+      <c r="K36" s="94" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="12" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" s="22" t="s">
+      <c r="A37" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="22" t="str">
+      <c r="C37" s="70" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F37" s="14" t="str">
+      <c r="F37" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG28_small</v>
       </c>
-      <c r="G37" s="14" t="str">
+      <c r="G37" s="71" t="str">
         <f>IF(F37&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H37" s="14" t="str">
+      <c r="H37" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG28_zoom</v>
       </c>
-      <c r="I37" s="14" t="str">
+      <c r="I37" s="71" t="str">
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="15" t="s">
-        <v>254</v>
+      <c r="J37" s="71"/>
+      <c r="K37" s="72" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="12" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B38" s="22" t="s">
+      <c r="A38" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="22" t="str">
+      <c r="C38" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F38" s="14" t="str">
+      <c r="F38" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG29_small</v>
       </c>
-      <c r="G38" s="14" t="str">
+      <c r="G38" s="84" t="str">
         <f>IF(F38&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H38" s="14" t="str">
+      <c r="H38" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG29_zoom</v>
       </c>
-      <c r="I38" s="14" t="str">
+      <c r="I38" s="84" t="str">
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J38" s="14"/>
-      <c r="K38" s="15" t="s">
-        <v>255</v>
+      <c r="J38" s="84"/>
+      <c r="K38" s="94" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="12" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B39" s="22" t="s">
+      <c r="A39" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="22" t="str">
+      <c r="C39" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F39" s="14" t="str">
+      <c r="F39" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG30_small</v>
       </c>
-      <c r="G39" s="14" t="str">
+      <c r="G39" s="84" t="str">
         <f>IF(F39&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H39" s="14" t="str">
+      <c r="H39" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG30_zoom</v>
       </c>
-      <c r="I39" s="14" t="str">
+      <c r="I39" s="84" t="str">
         <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="15" t="s">
-        <v>256</v>
+      <c r="J39" s="84"/>
+      <c r="K39" s="94" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="12" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B40" s="22" t="s">
+      <c r="A40" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="22" t="str">
+      <c r="C40" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F40" s="14" t="str">
+      <c r="F40" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG31_small</v>
       </c>
-      <c r="G40" s="14" t="str">
+      <c r="G40" s="84" t="str">
         <f>IF(F40&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H40" s="14" t="str">
+      <c r="H40" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG31_zoom</v>
       </c>
-      <c r="I40" s="14" t="str">
+      <c r="I40" s="84" t="str">
         <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J40" s="14"/>
-      <c r="K40" s="15" t="s">
-        <v>257</v>
+      <c r="J40" s="84"/>
+      <c r="K40" s="94" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="12" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="75" t="s">
-        <v>193</v>
-      </c>
-      <c r="B41" s="76" t="s">
+      <c r="A41" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="76" t="str">
+      <c r="C41" s="22" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D41" s="77" t="s">
+      <c r="D41" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E41" s="77" t="s">
+      <c r="E41" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="77" t="str">
+      <c r="F41" s="14" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG32_small</v>
       </c>
-      <c r="G41" s="77" t="str">
+      <c r="G41" s="14" t="str">
         <f>IF(F41&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H41" s="77" t="str">
+      <c r="H41" s="14" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG32_zoom</v>
       </c>
-      <c r="I41" s="77" t="str">
+      <c r="I41" s="14" t="str">
         <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J41" s="77"/>
-      <c r="K41" s="78" t="s">
-        <v>258</v>
+      <c r="J41" s="14"/>
+      <c r="K41" s="68" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="12" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42" s="76" t="s">
+      <c r="A42" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="76" t="str">
+      <c r="C42" s="22" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D42" s="77" t="s">
+      <c r="D42" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E42" s="77" t="s">
+      <c r="E42" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F42" s="77" t="str">
+      <c r="F42" s="14" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG33_small</v>
       </c>
-      <c r="G42" s="77" t="str">
+      <c r="G42" s="14" t="str">
         <f>IF(F42&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H42" s="77" t="str">
+      <c r="H42" s="14" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG33_zoom</v>
       </c>
-      <c r="I42" s="77" t="str">
+      <c r="I42" s="14" t="str">
         <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J42" s="77"/>
-      <c r="K42" s="79" t="s">
-        <v>259</v>
+      <c r="J42" s="14"/>
+      <c r="K42" s="15" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="12" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="75" t="s">
-        <v>195</v>
-      </c>
-      <c r="B43" s="76" t="s">
+      <c r="A43" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C43" s="76" t="str">
+      <c r="C43" s="22" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D43" s="77" t="s">
+      <c r="D43" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="77" t="s">
+      <c r="E43" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F43" s="77" t="str">
+      <c r="F43" s="14" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG34_small</v>
       </c>
-      <c r="G43" s="77" t="str">
+      <c r="G43" s="14" t="str">
         <f>IF(F43&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H43" s="77" t="str">
+      <c r="H43" s="14" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG34_zoom</v>
       </c>
-      <c r="I43" s="77" t="str">
+      <c r="I43" s="14" t="str">
         <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J43" s="77"/>
-      <c r="K43" s="79" t="s">
-        <v>260</v>
+      <c r="J43" s="14"/>
+      <c r="K43" s="15" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="12" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="B44" s="76" t="s">
+      <c r="A44" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="76" t="str">
+      <c r="C44" s="22" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D44" s="77" t="s">
+      <c r="D44" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E44" s="77" t="s">
+      <c r="E44" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F44" s="77" t="str">
+      <c r="F44" s="14" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG35_small</v>
       </c>
-      <c r="G44" s="77" t="str">
+      <c r="G44" s="14" t="str">
         <f>IF(F44&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H44" s="77" t="str">
+      <c r="H44" s="14" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG35_zoom</v>
       </c>
-      <c r="I44" s="77" t="str">
+      <c r="I44" s="14" t="str">
         <f>IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J44" s="77"/>
-      <c r="K44" s="79" t="s">
-        <v>261</v>
+      <c r="J44" s="14"/>
+      <c r="K44" s="15" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="12" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B45" s="22" t="s">
+      <c r="A45" s="81" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="22" t="str">
+      <c r="C45" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F45" s="14" t="str">
+      <c r="F45" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG36_small</v>
       </c>
-      <c r="G45" s="14" t="str">
+      <c r="G45" s="84" t="str">
         <f>IF(F45&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H45" s="14" t="str">
+      <c r="H45" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG36_zoom</v>
       </c>
-      <c r="I45" s="14" t="str">
+      <c r="I45" s="84" t="str">
         <f>IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="15" t="s">
-        <v>262</v>
+      <c r="J45" s="84"/>
+      <c r="K45" s="94" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="12" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B46" s="22" t="s">
+      <c r="A46" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="B46" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="22" t="str">
+      <c r="C46" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F46" s="14" t="str">
+      <c r="F46" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG37_small</v>
       </c>
-      <c r="G46" s="14" t="str">
+      <c r="G46" s="84" t="str">
         <f>IF(F46&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H46" s="14" t="str">
+      <c r="H46" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG37_zoom</v>
       </c>
-      <c r="I46" s="14" t="str">
+      <c r="I46" s="84" t="str">
         <f>IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J46" s="14"/>
-      <c r="K46" s="15" t="s">
-        <v>263</v>
+      <c r="J46" s="84"/>
+      <c r="K46" s="94" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="12" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B47" s="22" t="s">
+      <c r="A47" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="22" t="str">
+      <c r="C47" s="70" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="14" t="str">
+      <c r="F47" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG38_small</v>
       </c>
-      <c r="G47" s="14" t="str">
+      <c r="G47" s="71" t="str">
         <f>IF(F47&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H47" s="14" t="str">
+      <c r="H47" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG38_zoom</v>
       </c>
-      <c r="I47" s="14" t="str">
+      <c r="I47" s="71" t="str">
         <f>IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="15" t="s">
-        <v>264</v>
+      <c r="J47" s="71"/>
+      <c r="K47" s="72" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="12" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B48" s="22" t="s">
+      <c r="A48" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="22" t="str">
+      <c r="C48" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="14" t="str">
+      <c r="F48" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG39_small</v>
       </c>
-      <c r="G48" s="14" t="str">
+      <c r="G48" s="84" t="str">
         <f>IF(F48&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H48" s="14" t="str">
+      <c r="H48" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG39_zoom</v>
       </c>
-      <c r="I48" s="14" t="str">
+      <c r="I48" s="84" t="str">
         <f>IF(OR(B48&lt;&gt;"",J48&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="15" t="s">
-        <v>265</v>
+      <c r="J48" s="84"/>
+      <c r="K48" s="94" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="12" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B49" s="22" t="s">
+      <c r="A49" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="22" t="str">
+      <c r="C49" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F49" s="14" t="str">
+      <c r="F49" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG40_small</v>
       </c>
-      <c r="G49" s="14" t="str">
+      <c r="G49" s="84" t="str">
         <f>IF(F49&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H49" s="14" t="str">
+      <c r="H49" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG40_zoom</v>
       </c>
-      <c r="I49" s="14" t="str">
+      <c r="I49" s="84" t="str">
         <f>IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="15" t="s">
-        <v>266</v>
+      <c r="J49" s="84"/>
+      <c r="K49" s="94" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="12" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B50" s="22" t="s">
+      <c r="A50" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="22" t="str">
+      <c r="C50" s="70" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F50" s="14" t="str">
+      <c r="F50" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG41_small</v>
       </c>
-      <c r="G50" s="14" t="str">
+      <c r="G50" s="71" t="str">
         <f>IF(F50&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H50" s="14" t="str">
+      <c r="H50" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG41_zoom</v>
       </c>
-      <c r="I50" s="14" t="str">
+      <c r="I50" s="71" t="str">
         <f>IF(OR(B50&lt;&gt;"",J50&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="15" t="s">
-        <v>267</v>
+      <c r="J50" s="71"/>
+      <c r="K50" s="72" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="12" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>147</v>
@@ -8260,13 +8158,13 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J51" s="14"/>
-      <c r="K51" s="74" t="s">
-        <v>268</v>
+      <c r="K51" s="68" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="12" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B52" s="22" t="s">
         <v>147</v>
@@ -8299,12 +8197,12 @@
       </c>
       <c r="J52" s="14"/>
       <c r="K52" s="15" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="12" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B53" s="22" t="s">
         <v>147</v>
@@ -8337,50 +8235,50 @@
       </c>
       <c r="J53" s="14"/>
       <c r="K53" s="15" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="12" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B54" s="22" t="s">
+      <c r="A54" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="B54" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C54" s="22" t="str">
+      <c r="C54" s="70" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F54" s="14" t="str">
+      <c r="F54" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG45_small</v>
       </c>
-      <c r="G54" s="14" t="str">
+      <c r="G54" s="71" t="str">
         <f>IF(F54&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H54" s="14" t="str">
+      <c r="H54" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG45_zoom</v>
       </c>
-      <c r="I54" s="14" t="str">
+      <c r="I54" s="71" t="str">
         <f>IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="15" t="s">
-        <v>271</v>
+      <c r="J54" s="71"/>
+      <c r="K54" s="72" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="12" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B55" s="22" t="s">
         <v>147</v>
@@ -8412,247 +8310,247 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J55" s="14"/>
-      <c r="K55" s="15" t="s">
-        <v>271</v>
+      <c r="K55" s="72" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="12" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B56" s="22" t="s">
+      <c r="A56" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="22" t="str">
+      <c r="C56" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F56" s="14" t="str">
+      <c r="F56" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG47_small</v>
       </c>
-      <c r="G56" s="14" t="str">
+      <c r="G56" s="84" t="str">
         <f>IF(F56&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H56" s="14" t="str">
+      <c r="H56" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG47_zoom</v>
       </c>
-      <c r="I56" s="14" t="str">
+      <c r="I56" s="84" t="str">
         <f>IF(OR(B56&lt;&gt;"",J56&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J56" s="14"/>
-      <c r="K56" s="15" t="s">
-        <v>272</v>
+      <c r="J56" s="84"/>
+      <c r="K56" s="94" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B57" s="22" t="s">
+      <c r="A57" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="22" t="str">
+      <c r="C57" s="83" t="str">
         <f>IF(OR(B57&lt;&gt;"",J58&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F57" s="14" t="str">
+      <c r="F57" s="84" t="str">
         <f>IF(OR(B57&lt;&gt;"",J58&lt;&gt;""),CONCATENATE($C$7,"_",$A57,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I57="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG48_small</v>
       </c>
-      <c r="G57" s="14" t="str">
+      <c r="G57" s="84" t="str">
         <f>IF(F57&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H57" s="14" t="str">
+      <c r="H57" s="84" t="str">
         <f>IF(AND(I57&lt;&gt;"",I57&lt;&gt;0),IF(OR(B57&lt;&gt;"",J58&lt;&gt;""),CONCATENATE($C$7,"_",$A57,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG48_zoom</v>
       </c>
-      <c r="I57" s="14" t="str">
+      <c r="I57" s="84" t="str">
         <f>IF(OR(B57&lt;&gt;"",J58&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J57" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="K57" s="12" t="s">
-        <v>288</v>
+      <c r="J57" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="K57" s="92" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="12" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B58" s="22" t="s">
+      <c r="A58" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="22" t="str">
+      <c r="C58" s="83" t="str">
         <f t="shared" ref="C58:C61" si="18">IF(OR(B58&lt;&gt;"",J59&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F58" s="14" t="str">
+      <c r="F58" s="84" t="str">
         <f t="shared" ref="F58:F61" si="19">IF(OR(B58&lt;&gt;"",J59&lt;&gt;""),CONCATENATE($C$7,"_",$A58,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I58="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG49_small</v>
       </c>
-      <c r="G58" s="14" t="str">
+      <c r="G58" s="84" t="str">
         <f>IF(F58&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H58" s="14" t="str">
+      <c r="H58" s="84" t="str">
         <f t="shared" ref="H58:H61" si="20">IF(AND(I58&lt;&gt;"",I58&lt;&gt;0),IF(OR(B58&lt;&gt;"",J59&lt;&gt;""),CONCATENATE($C$7,"_",$A58,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG49_zoom</v>
       </c>
-      <c r="I58" s="14" t="str">
+      <c r="I58" s="84" t="str">
         <f>IF(OR(B58&lt;&gt;"",J59&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J58" s="80" t="s">
-        <v>273</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>288</v>
+      <c r="J58" s="97" t="s">
+        <v>257</v>
+      </c>
+      <c r="K58" s="92" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="12" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B59" s="22" t="s">
+      <c r="A59" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C59" s="22" t="str">
+      <c r="C59" s="83" t="str">
         <f t="shared" si="18"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="14" t="str">
+      <c r="F59" s="84" t="str">
         <f t="shared" si="19"/>
         <v>MA_11_02_CO_IMG50_small</v>
       </c>
-      <c r="G59" s="14" t="str">
+      <c r="G59" s="84" t="str">
         <f>IF(F59&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H59" s="14" t="str">
+      <c r="H59" s="84" t="str">
         <f t="shared" si="20"/>
         <v>MA_11_02_CO_IMG50_zoom</v>
       </c>
-      <c r="I59" s="14" t="str">
+      <c r="I59" s="84" t="str">
         <f>IF(OR(B59&lt;&gt;"",J60&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J59" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="K59" s="15"/>
+      <c r="J59" s="84" t="s">
+        <v>259</v>
+      </c>
+      <c r="K59" s="94"/>
     </row>
     <row r="60" spans="1:11" s="12" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B60" s="22" t="s">
+      <c r="A60" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="22" t="str">
+      <c r="C60" s="83" t="str">
         <f t="shared" si="18"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F60" s="14" t="str">
+      <c r="F60" s="84" t="str">
         <f t="shared" si="19"/>
         <v>MA_11_02_CO_IMG51_small</v>
       </c>
-      <c r="G60" s="14" t="str">
+      <c r="G60" s="84" t="str">
         <f>IF(F60&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H60" s="14" t="str">
+      <c r="H60" s="84" t="str">
         <f t="shared" si="20"/>
         <v>MA_11_02_CO_IMG51_zoom</v>
       </c>
-      <c r="I60" s="14" t="str">
+      <c r="I60" s="84" t="str">
         <f>IF(OR(B60&lt;&gt;"",J61&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J60" s="81" t="s">
-        <v>276</v>
-      </c>
-      <c r="K60" s="74" t="s">
-        <v>277</v>
+      <c r="J60" s="98" t="s">
+        <v>260</v>
+      </c>
+      <c r="K60" s="99" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="12" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B61" s="22" t="s">
+      <c r="A61" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="B61" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="22" t="str">
+      <c r="C61" s="70" t="str">
         <f t="shared" si="18"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F61" s="14" t="str">
+      <c r="F61" s="71" t="str">
         <f t="shared" si="19"/>
         <v>MA_11_02_CO_IMG52_small</v>
       </c>
-      <c r="G61" s="14" t="str">
+      <c r="G61" s="71" t="str">
         <f>IF(F61&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H61" s="14" t="str">
+      <c r="H61" s="71" t="str">
         <f t="shared" si="20"/>
         <v>MA_11_02_CO_IMG52_zoom</v>
       </c>
-      <c r="I61" s="14" t="str">
+      <c r="I61" s="71" t="str">
         <f>IF(OR(B61&lt;&gt;"",J62&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="82" t="s">
-        <v>278</v>
+      <c r="J61" s="71"/>
+      <c r="K61" s="100" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="12" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>147</v>
@@ -8684,51 +8582,51 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J62" s="14"/>
-      <c r="K62" s="120" t="s">
-        <v>307</v>
+      <c r="K62" s="75" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="12" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B63" s="22" t="s">
+      <c r="A63" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="B63" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C63" s="22" t="str">
+      <c r="C63" s="70" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F63" s="14" t="str">
+      <c r="F63" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG54_small</v>
       </c>
-      <c r="G63" s="14" t="str">
+      <c r="G63" s="71" t="str">
         <f>IF(F63&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H63" s="14" t="str">
+      <c r="H63" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG54_zoom</v>
       </c>
-      <c r="I63" s="14" t="str">
+      <c r="I63" s="71" t="str">
         <f>IF(OR(B63&lt;&gt;"",J63&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="74" t="s">
-        <v>289</v>
+      <c r="J63" s="71"/>
+      <c r="K63" s="95" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="12" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B64" s="22" t="s">
         <v>147</v>
@@ -8760,127 +8658,127 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="K64"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B65" s="22" t="s">
+    <row r="65" spans="1:12" s="12" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="B65" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C65" s="22" t="str">
+      <c r="C65" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F65" s="14" t="str">
+      <c r="F65" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG56_small</v>
       </c>
-      <c r="G65" s="14" t="str">
+      <c r="G65" s="84" t="str">
         <f>IF(F65&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H65" s="14" t="str">
+      <c r="H65" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG56_zoom</v>
       </c>
-      <c r="I65" s="14" t="str">
+      <c r="I65" s="84" t="str">
         <f>IF(OR(B65&lt;&gt;"",J65&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J65"/>
-      <c r="K65" s="74" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B66" s="22" t="s">
+      <c r="J65" s="85"/>
+      <c r="K65" s="99" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="12" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C66" s="22" t="str">
+      <c r="C66" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F66" s="14" t="str">
+      <c r="F66" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG57_small</v>
       </c>
-      <c r="G66" s="14" t="str">
+      <c r="G66" s="84" t="str">
         <f>IF(F66&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H66" s="14" t="str">
+      <c r="H66" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG57_zoom</v>
       </c>
-      <c r="I66" s="14" t="str">
+      <c r="I66" s="84" t="str">
         <f>IF(OR(B66&lt;&gt;"",J66&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J66" s="68"/>
-      <c r="K66" s="74" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="12" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B67" s="22" t="s">
+      <c r="J66" s="101"/>
+      <c r="K66" s="99" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="12" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="81" t="s">
+        <v>217</v>
+      </c>
+      <c r="B67" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C67" s="22" t="str">
+      <c r="C67" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="14" t="str">
+      <c r="F67" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG58_small</v>
       </c>
-      <c r="G67" s="14" t="str">
+      <c r="G67" s="84" t="str">
         <f>IF(F67&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H67" s="14" t="str">
+      <c r="H67" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG58_zoom</v>
       </c>
-      <c r="I67" s="14" t="str">
+      <c r="I67" s="84" t="str">
         <f>IF(OR(B67&lt;&gt;"",J67&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="74" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J67" s="84"/>
+      <c r="K67" s="99" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="12" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>147</v>
@@ -8912,281 +8810,282 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J68" s="14"/>
-      <c r="K68" s="74" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B69" s="22" t="s">
+      <c r="K68" s="68" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="12" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="22" t="str">
+      <c r="C69" s="70" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F69" s="14" t="str">
+      <c r="F69" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG60_small</v>
       </c>
-      <c r="G69" s="14" t="str">
+      <c r="G69" s="71" t="str">
         <f>IF(F69&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H69" s="14" t="str">
+      <c r="H69" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG60_zoom</v>
       </c>
-      <c r="I69" s="14" t="str">
+      <c r="I69" s="71" t="str">
         <f>IF(OR(B69&lt;&gt;"",J69&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J69"/>
-      <c r="K69" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="12" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="B70" s="22" t="s">
+      <c r="J69" s="96"/>
+      <c r="K69" s="72" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="12" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="102" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="22" t="str">
+      <c r="C70" s="103" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="F70" s="14" t="str">
+      <c r="F70" s="104" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG61_small</v>
       </c>
-      <c r="G70" s="14" t="str">
+      <c r="G70" s="104" t="str">
         <f>IF(F70&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H70" s="14" t="str">
+      <c r="H70" s="104" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG61_zoom</v>
       </c>
-      <c r="I70" s="14" t="str">
+      <c r="I70" s="104" t="str">
         <f>IF(OR(B70&lt;&gt;"",J70&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J70" s="14"/>
-      <c r="K70" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B71" s="22" t="s">
+      <c r="J70" s="104"/>
+      <c r="K70" s="105" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A71" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C71" s="22" t="str">
+      <c r="C71" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F71" s="14" t="str">
+      <c r="F71" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG62_small</v>
       </c>
-      <c r="G71" s="14" t="str">
+      <c r="G71" s="84" t="str">
         <f>IF(F71&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H71" s="14" t="str">
+      <c r="H71" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG62_zoom</v>
       </c>
-      <c r="I71" s="14" t="str">
+      <c r="I71" s="84" t="str">
         <f>IF(OR(B71&lt;&gt;"",J71&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J71" s="14"/>
-      <c r="K71" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="12" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B72" s="22" t="s">
+      <c r="J71" s="84"/>
+      <c r="K71" s="94" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="12" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="22" t="str">
+      <c r="C72" s="70" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F72" s="14" t="str">
+      <c r="F72" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG63_small</v>
       </c>
-      <c r="G72" s="14" t="str">
+      <c r="G72" s="71" t="str">
         <f>IF(F72&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H72" s="14" t="str">
+      <c r="H72" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG63_zoom</v>
       </c>
-      <c r="I72" s="14" t="str">
+      <c r="I72" s="71" t="str">
         <f>IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J72" s="14"/>
-      <c r="K72" s="74" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B73" s="22" t="s">
+      <c r="J72" s="71"/>
+      <c r="K72" s="95" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="22" t="str">
+      <c r="C73" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F73" s="14" t="str">
+      <c r="F73" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG64_small</v>
       </c>
-      <c r="G73" s="14" t="str">
+      <c r="G73" s="84" t="str">
         <f>IF(F73&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H73" s="14" t="str">
+      <c r="H73" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG64_zoom</v>
       </c>
-      <c r="I73" s="14" t="str">
+      <c r="I73" s="84" t="str">
         <f>IF(OR(B73&lt;&gt;"",J73&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J73" s="73"/>
-      <c r="K73" s="74" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B74" s="22" t="s">
+      <c r="J73" s="94"/>
+      <c r="K73" s="99" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="22" t="str">
+      <c r="C74" s="70" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F74" s="14" t="str">
+      <c r="F74" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG65_small</v>
       </c>
-      <c r="G74" s="14" t="str">
+      <c r="G74" s="71" t="str">
         <f>IF(F74&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H74" s="14" t="str">
+      <c r="H74" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG65_zoom</v>
       </c>
-      <c r="I74" s="14" t="str">
+      <c r="I74" s="71" t="str">
         <f>IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J74" s="83" t="s">
-        <v>285</v>
-      </c>
-      <c r="K74" s="84" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="171" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="B75" s="22" t="s">
+      <c r="J74" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="K74" s="95" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="22" t="str">
+      <c r="C75" s="83" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F75" s="14" t="str">
+      <c r="F75" s="84" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG66_small</v>
       </c>
-      <c r="G75" s="14" t="str">
+      <c r="G75" s="84" t="str">
         <f>IF(F75&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H75" s="14" t="str">
+      <c r="H75" s="84" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG66_zoom</v>
       </c>
-      <c r="I75" s="14" t="str">
+      <c r="I75" s="84" t="str">
         <f>IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J75" s="73"/>
-      <c r="K75" s="85" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J75" s="94"/>
+      <c r="K75" s="106" t="s">
+        <v>267</v>
+      </c>
+      <c r="L75" s="107"/>
+    </row>
+    <row r="76" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B76" s="22" t="s">
         <v>147</v>
@@ -9217,16 +9116,16 @@
         <f>IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J76" s="84" t="s">
-        <v>290</v>
-      </c>
-      <c r="K76" s="86" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J76" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="K76" s="74" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>147</v>
@@ -9258,250 +9157,250 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J77" t="s">
-        <v>292</v>
-      </c>
-      <c r="K77" s="73" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B78" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="K77" s="67" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="22" t="str">
+      <c r="C78" s="70" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F78" s="14" t="str">
+      <c r="F78" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG69_small</v>
       </c>
-      <c r="G78" s="14" t="str">
+      <c r="G78" s="71" t="str">
         <f>IF(F78&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H78" s="14" t="str">
+      <c r="H78" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG69_zoom</v>
       </c>
-      <c r="I78" s="14" t="str">
+      <c r="I78" s="71" t="str">
         <f>IF(OR(B78&lt;&gt;"",J78&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J78" s="73" t="s">
-        <v>294</v>
-      </c>
-      <c r="K78" s="73" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="B79" s="22" t="s">
+      <c r="J78" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="K78" s="96" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="B79" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C79" s="22" t="str">
+      <c r="C79" s="70" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F79" s="14" t="str">
+      <c r="F79" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG70_small</v>
       </c>
-      <c r="G79" s="14" t="str">
+      <c r="G79" s="71" t="str">
         <f>IF(F79&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H79" s="14" t="str">
+      <c r="H79" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG70_zoom</v>
       </c>
-      <c r="I79" s="14" t="str">
+      <c r="I79" s="71" t="str">
         <f>IF(OR(B79&lt;&gt;"",J79&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J79" s="84" t="s">
-        <v>296</v>
-      </c>
-      <c r="K79" s="73" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B80" s="22" t="s">
+      <c r="J79" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="K79" s="72" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C80" s="22" t="str">
+      <c r="C80" s="70" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F80" s="14" t="str">
+      <c r="F80" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG71_small</v>
       </c>
-      <c r="G80" s="14" t="str">
+      <c r="G80" s="71" t="str">
         <f>IF(F80&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H80" s="14" t="str">
+      <c r="H80" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG71_zoom</v>
       </c>
-      <c r="I80" s="14" t="str">
+      <c r="I80" s="71" t="str">
         <f>IF(OR(B80&lt;&gt;"",J80&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J80" s="84" t="s">
-        <v>298</v>
-      </c>
-      <c r="K80" s="73" t="s">
-        <v>299</v>
+      <c r="J80" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="K80" s="72" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B81" s="22" t="s">
+      <c r="A81" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="22" t="str">
+      <c r="C81" s="70" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F81" s="14" t="str">
+      <c r="F81" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG72_small</v>
       </c>
-      <c r="G81" s="14" t="str">
+      <c r="G81" s="71" t="str">
         <f>IF(F81&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H81" s="14" t="str">
+      <c r="H81" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG72_zoom</v>
       </c>
-      <c r="I81" s="14" t="str">
+      <c r="I81" s="71" t="str">
         <f>IF(OR(B81&lt;&gt;"",J81&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J81" s="84" t="s">
-        <v>300</v>
-      </c>
-      <c r="K81" s="73" t="s">
-        <v>301</v>
+      <c r="J81" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="K81" s="72" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B82" s="22" t="s">
+      <c r="A82" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="B82" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="22" t="str">
+      <c r="C82" s="70" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D82" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F82" s="14" t="str">
+      <c r="F82" s="71" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG73_small</v>
       </c>
-      <c r="G82" s="14" t="str">
+      <c r="G82" s="71" t="str">
         <f>IF(F82&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H82" s="14" t="str">
+      <c r="H82" s="71" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG73_zoom</v>
       </c>
-      <c r="I82" s="14" t="str">
+      <c r="I82" s="71" t="str">
         <f>IF(OR(B82&lt;&gt;"",J82&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J82" s="87" t="s">
-        <v>302</v>
-      </c>
-      <c r="K82" s="73" t="s">
-        <v>303</v>
+      <c r="J82" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="K82" s="72" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B83" s="88" t="s">
-        <v>304</v>
-      </c>
-      <c r="C83" s="22" t="str">
+      <c r="A83" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="B83" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="C83" s="83" t="str">
         <f t="shared" ref="C83" si="21">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F83" s="14" t="str">
+      <c r="F83" s="84" t="str">
         <f t="shared" ref="F83" si="22">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE($C$7,"_",$A83,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I83="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG74_small</v>
       </c>
-      <c r="G83" s="14" t="str">
+      <c r="G83" s="84" t="str">
         <f>IF(F83&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H83" s="14" t="str">
+      <c r="H83" s="84" t="str">
         <f t="shared" ref="H83" si="23">IF(AND(I83&lt;&gt;"",I83&lt;&gt;0),IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE($C$7,"_",$A83,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG74_zoom</v>
       </c>
-      <c r="I83" s="14" t="str">
+      <c r="I83" s="84" t="str">
         <f>IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J83" s="84" t="s">
-        <v>305</v>
-      </c>
-      <c r="K83" s="73" t="s">
-        <v>306</v>
+      <c r="J83" s="99" t="s">
+        <v>279</v>
+      </c>
+      <c r="K83" s="94" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9605,539 +9504,539 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11" style="26"/>
-    <col min="3" max="3" width="13.875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="26" customWidth="1"/>
-    <col min="5" max="7" width="11" style="26"/>
-    <col min="8" max="11" width="11" style="26" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="26"/>
+    <col min="1" max="1" width="72.25" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11" style="24"/>
+    <col min="3" max="3" width="13.875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="24" customWidth="1"/>
+    <col min="5" max="7" width="11" style="24"/>
+    <col min="8" max="11" width="11" style="24" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="106"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="126"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="107" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="36"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="113" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="36"/>
-      <c r="H3" s="26" t="s">
+      <c r="D3" s="134"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="34"/>
+      <c r="H3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="H4" s="26" t="s">
+      <c r="F4" s="34"/>
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="24">
         <v>1</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="116" t="str">
+      <c r="D5" s="136" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>MA_11_01_CO</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="36"/>
-      <c r="H5" s="26" t="s">
+      <c r="E5" s="137"/>
+      <c r="F5" s="34"/>
+      <c r="H5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="24">
         <v>2</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="H6" s="26" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="H6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="24">
         <v>3</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="66" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="102" t="str">
+      <c r="D7" s="122" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_CO.xls</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="103"/>
-      <c r="H7" s="26" t="s">
+      <c r="E7" s="122"/>
+      <c r="F7" s="123"/>
+      <c r="H7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="24">
         <v>4</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="I8" s="26" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="I8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="24">
         <v>5</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="24">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="I9" s="26" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="I9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="24">
         <v>6</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="24">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="I10" s="26" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="I10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="24">
         <v>7</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="24">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="24">
         <v>8</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="24">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="24">
         <v>9</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="24">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106"/>
-      <c r="I13" s="26" t="s">
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="126"/>
+      <c r="I13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="24">
         <v>10</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="24">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="I14" s="26" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="I14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="24">
         <v>11</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="24">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="107" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
-      <c r="J15" s="26">
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
+      <c r="J15" s="24">
         <v>12</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="24">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="24">
         <v>13</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="24">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="110" t="str">
+      <c r="D17" s="130" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>MA_11_01_REC10</v>
       </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="112"/>
-      <c r="J17" s="26">
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
+      <c r="J17" s="24">
         <v>14</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="24">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="66" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="102" t="str">
+      <c r="D18" s="122" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_REC10.xls</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="103"/>
-      <c r="J18" s="26">
+      <c r="E18" s="122"/>
+      <c r="F18" s="123"/>
+      <c r="J18" s="24">
         <v>15</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="24">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="H19" s="26">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="H19" s="24">
         <v>3</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="24">
         <v>16</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="24">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="H20" s="26">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="H20" s="24">
         <v>1</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="24">
         <v>9</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="24">
         <v>1</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="24">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H21" s="26" t="str">
+      <c r="H21" s="24" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>MA</v>
       </c>
-      <c r="I21" s="26" t="str">
+      <c r="I21" s="24" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>11</v>
       </c>
-      <c r="J21" s="26" t="str">
+      <c r="J21" s="24" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>01</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="24">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="26">
+      <c r="K22" s="24">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="26">
+      <c r="K23" s="24">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="26">
+      <c r="K24" s="24">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="26">
+      <c r="K25" s="24">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="26">
+      <c r="K26" s="24">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="26">
+      <c r="K27" s="24">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="26">
+      <c r="K28" s="24">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="26">
+      <c r="K29" s="24">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="26">
+      <c r="K30" s="24">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="26">
+      <c r="K31" s="24">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="26">
+      <c r="K32" s="24">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="26">
+      <c r="K33" s="24">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="26">
+      <c r="K34" s="24">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="26">
+      <c r="K35" s="24">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="26">
+      <c r="K36" s="24">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="26">
+      <c r="K37" s="24">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="26">
+      <c r="K38" s="24">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="26">
+      <c r="K39" s="24">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="26">
+      <c r="K40" s="24">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="26">
+      <c r="K41" s="24">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="26">
+      <c r="K42" s="24">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="26">
+      <c r="K43" s="24">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="26">
+      <c r="K44" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="26" t="str">
+      <c r="K45" s="24" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -10332,562 +10231,562 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="26" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="26" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="26" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="26"/>
-    <col min="5" max="5" width="11.75" style="26" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="26" customWidth="1"/>
-    <col min="7" max="7" width="11" style="26" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="26" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="26" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="26" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="26" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="26"/>
+    <col min="1" max="1" width="21" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="24"/>
+    <col min="5" max="5" width="11.75" style="24" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="24" customWidth="1"/>
+    <col min="7" max="7" width="11" style="24" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="24" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="24" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="24" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="45" t="s">
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-    </row>
-    <row r="4" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="48"/>
-    </row>
-    <row r="5" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="J4" s="46"/>
+    </row>
+    <row r="5" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="48" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="50"/>
-    </row>
-    <row r="6" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="J5" s="48"/>
+    </row>
+    <row r="6" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="46" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="47" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:11" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48" t="s">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="48"/>
-    </row>
-    <row r="8" spans="1:11" s="47" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="J7" s="46"/>
+    </row>
+    <row r="8" spans="1:11" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48" t="s">
+      <c r="G8" s="46"/>
+      <c r="H8" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="48"/>
-    </row>
-    <row r="9" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48" t="s">
+      <c r="G9" s="46"/>
+      <c r="H9" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="48"/>
-    </row>
-    <row r="10" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48" t="s">
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="48"/>
-    </row>
-    <row r="11" spans="1:11" s="47" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="J10" s="46"/>
+    </row>
+    <row r="11" spans="1:11" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48" t="s">
+      <c r="G11" s="46"/>
+      <c r="H11" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="48"/>
-    </row>
-    <row r="12" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="J11" s="46"/>
+    </row>
+    <row r="12" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48" t="s">
+      <c r="G12" s="46"/>
+      <c r="H12" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="48"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53" t="s">
+      <c r="E13" s="50"/>
+      <c r="F13" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48" t="s">
+      <c r="G13" s="49"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="26" t="s">
+      <c r="J13" s="49"/>
+      <c r="K13" s="24" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53" t="s">
+      <c r="E14" s="50"/>
+      <c r="F14" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48" t="s">
+      <c r="G14" s="49"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="51"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="48" t="s">
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="26" t="s">
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="24" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="49" t="s">
+      <c r="B16" s="51"/>
+      <c r="C16" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="52" t="s">
+      <c r="F16" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53" t="s">
+      <c r="G16" s="50"/>
+      <c r="H16" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="54" t="s">
+      <c r="J16" s="50"/>
+      <c r="K16" s="52" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="55" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="56" t="s">
+      <c r="J17" s="46"/>
+      <c r="K17" s="54" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="55" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
     </row>
     <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
     </row>
     <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="240">
   <si>
     <t>Fecha:</t>
   </si>
@@ -531,9 +531,6 @@
     <t>Cristhian Bello</t>
   </si>
   <si>
-    <t>Fotografía</t>
-  </si>
-  <si>
     <t>IMG05</t>
   </si>
   <si>
@@ -558,104 +555,6 @@
     <t>Cuaderno de Estudio</t>
   </si>
   <si>
-    <t>221793745-142778230-199544615-60771259</t>
-  </si>
-  <si>
-    <t>Son Cuatro imágenes que muestran aplicaciones  de la funcion,  en  una de ellas hay representaciones graficas de funciones,  que se pueden mostrar por aparte, la idea es hacer un collage con estas imágenes que muestre  algunos contextos de aplicación de funcion.  El diseño de este collage queda a la libertad del diseñador.</t>
-  </si>
-  <si>
-    <t>Dibujar un diagrama sagital similar a este.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Diagrama Sagital de la relación, escribir A al conjunto de salida y B al conjunto de llegada, además dibujar una flecha de la letra A hacia la letra B, sobre la fecha escribir </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> de forma similar a la IMG02</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Diagrama Sagital de la relación, escribir A al conjunto de salida y B al conjunto de llegada, además dibujar una flecha de la letra A hacia la letra B, sobre la fecha escribir R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. de forma similar a la IMG02</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Diagrama Sagital de la relación, escribir A al conjunto de salida y B al conjunto de llegada, además dibujar una flecha de la letra A hacia la letra B, sobre la fecha escribir R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Similar a la IMG02</t>
-    </r>
-  </si>
-  <si>
-    <t>Diagrama Sagital de la relación, escribir A al conjunto de salida y B al conjunto de llegada, además dibujar una flecha de la letra A hacia la letra B, sobre la fecha escribir S, Similar a la IMG02</t>
-  </si>
-  <si>
-    <t>Diagrama Sagital de la relación, escribir A al conjunto de salida y B al conjunto de llegada, además dibujar una flecha de la letra A hacia la letra B, sobre la fecha escribir T, Similar a la IMG02</t>
-  </si>
-  <si>
     <t>IMG10</t>
   </si>
   <si>
@@ -728,6 +627,159 @@
     <t>IMG33</t>
   </si>
   <si>
+    <t>Grafica de varias funciones afines en el mismo plano cartesiano, en distintos colores con su rotulo, es decir con la expresión algebraica que las define. Como en la imagen 47, se sugiere graficar f(x)=x+1, f(x)=-x+1, f(x)=2x+1, f(x)=-2x+1, f(x)=3x-1, f(x)=-3x-2</t>
+  </si>
+  <si>
+    <t>Grafica de varias funciones lineales en el mismo plano cartesiano, en distintos colores con su rotulo, es decir con la expresión algebraica que las define. Como en la imagen 47, se sugiere graficar f(x)=x, f(x)=-x, f(x)=2x, f(x)=-2x, f(x)=3x, f(x)=-3x</t>
+  </si>
+  <si>
+    <t>Representación gráfica de varias funciones cuadráticas en distintos colores con su rotulo, es decir con la expresión algebraica que las define, por ejemplo  f(x)=x^2, f(x)=1-x^2, f(x)=x^2-x+2, f(x)=-x^2+2x-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representación gráfica de la funcion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representacion grafica de la relación </t>
+  </si>
+  <si>
+    <t>Grafica de la funcion valor absoluto de x</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion parte entera de x</t>
+  </si>
+  <si>
+    <t>Representacion grafica de las funciones f(x)=√(x+2), g(x)=1/(x-3) y (f+g)(x)=((x-3) √(x+2)+1)/(x-3)</t>
+  </si>
+  <si>
+    <t>Representacion grafica de las funciones f(x)=√(x+2), g(x)=1/(x-3) y (f-g)(x)=((x-3) √(x+2)-1)/(x-3)</t>
+  </si>
+  <si>
+    <t>Representacion grafica de las funciones f(x)=√(x+2), g(x)=1/(x-3) y (fg)(x)=√(x+2)/(x-3)</t>
+  </si>
+  <si>
+    <t>Realizar dos planos cartesianos uno al  lado del otro, juntos deben tener las funciones f(x)=√(x+2), g(x)=1/(x-3) en distintos colores, el de la izquierda  debe tener  ademas la funcion (f/g)(x)=(x-3) √(x+2) y el derecha la funcion (g/f)(x)=1/((x-3) √(x+2)) ademas de f y g</t>
+  </si>
+  <si>
+    <t>http://iesaricel.org/rafanogal/funciones/funciones-archivos/composicion.gif</t>
+  </si>
+  <si>
+    <t>Realizar un diagrama sagital como el que se muestra en la imagen.</t>
+  </si>
+  <si>
+    <t>Eliminar los parentesis dentro de la raiz  del denominador</t>
+  </si>
+  <si>
+    <t>221793745-142778230</t>
+  </si>
+  <si>
+    <t>IMG09 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>Es la IMG17 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>La IMG22 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>Presentar como imagen  las ecuaciones, como se presenta en la descripción</t>
+  </si>
+  <si>
+    <t>Elaborar como imagen la tabla que se presenta en la descripción</t>
+  </si>
+  <si>
+    <t>Representacion en el diagrama sagital de f poner los nombres a los conjuntos A y B, y la flecha de A en B, es la IMG30 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>grafica de la funcion f(x) = √x  y sobre ella varias rectas horizontales de color rojo que cortan la grafica en un solo punto. Eliminar las etiquetas de los puntos de interseccion entre la curva y las rectas. Eliminar las etiquetas de las rectas horizontales, es la IMG25 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>La imagen que muestre que Hay rectas horizontales que cortan la gráfica de la función f(x) = x^2 en más de un punto. Es la IMG26 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>Una animacion si es posible que muestre que al reflejar la funcion x^2, la grafica  es la misma. ES al IMG32 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>Si es posible una animacion que mantenga la curva azul siempre visible,  pero que de ella salga la grafica roja, al reflejar la curva azul sobre el eje Y. la curva azul es la grafica de la funcion f(x)=(x-2)^2. ES la IMG33 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>Una animacion que muestre que la grafica de la funcion f(x)=x^3 se refleja por el eje Y y luego por el eje X,  obteniendo la misma funcion. Es la IMG34 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>Una animacion que muestre que la grafica de la funcion f(x)=3x-2 se refleja por el eje Y y luego por el eje X,  obteniendo otra funcion. Es la IMG35 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>La funcion f(x)=2^x , es la IMG36 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion f(x)=-ln(x), es la IMG37 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>Esxpresarla como una sola imagen</t>
+  </si>
+  <si>
+    <t>grafica de la funcion f(x)=2, es la IMG47 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>Las graficas en el mismo plano cartesiano, es la img48 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>Las graficas en el mismo plano cartesiano, es la img49 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>Las graficas en el mismo plano cartesiano, es la img50 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>Grafica de las funciones que se indican en la imagen, cada una con sus etiquetas y de diferentes colores. Es la IMG58 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>Grafica de las funciones que se indican en la imagen, cada una con sus etiquetas y de diferentes colores. Es la IMG59 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion sen(x) entre -5pi/2 hasta 5pi/2, Es la IMG60 de la anterior solicitud.</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion cos(x) entre -5pi/2 hasta 5pi/2,  que aparece como 61 en la anterior solicitud</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion tan(x) entre -5pi/2 hasta 5pi/2, Qu aparece como IMG62 en la anterior solicitud</t>
+  </si>
+  <si>
+    <t>que  la letra X del eje sea visible, aparece como IMG63 en la anterior solicitud</t>
+  </si>
+  <si>
+    <t>Grafica de las funciones que se indican en la imagen, cada una con sus etiquetas y de diferentes colores. Aparece como IMG64 en la anterior solicitud</t>
+  </si>
+  <si>
+    <t>Deben aparecer en dos planos cartesianos, a la izquierda f(x) = log_2_x, y en el plano de la derecha f(x) = log_0.5_x.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es la IMG65 de la anterior solicitud, que la circunferencia se vea totalmente hueca al interior. Representacion gráfica de la funcion </t>
+  </si>
+  <si>
+    <t>ES la IMG66 de la anterior solicitud. La función a trozos, modificarla para que se note el hueco que se dan el segmento cuando x=0</t>
+  </si>
+  <si>
+    <t>Es la IMG67 de la anterior solicitud. Mostrar una recta vertical de color rojo  en el intervalo (-1,1) que pasa por dos puntos de la grafica para demostrar que la relacion no es funcion</t>
+  </si>
+  <si>
+    <t>Es la IMG68 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es la IMG69  de la anterior solicitud. Simbolizar como </t>
+  </si>
+  <si>
+    <t>Eliminar los parentesis dentro de la raiz  del denominador, es la IMG70 de la anterio r solicitud</t>
+  </si>
+  <si>
+    <t>Eliminar los parentesis dentro de la raiz  del denominador, es la IMG71 de la nterior solicitud</t>
+  </si>
+  <si>
+    <t>Ambas graficas deben tener la funcion f y la funcion g,  la diferencia es que la primera tiene la funcion f/g y la segunda a funcion g/f,  las f en ambas graficas con el mimo color, lo mismo las g. el fraccionario debe ser vertical,  y eliminar los parentesis que sobran de la raiz y del denominador. en g/f se debe resaltar el hueco en x=3. es la IMG73 de la anterior solicitud</t>
+  </si>
+  <si>
+    <t>Es la IMG74 de la anterior solicitud</t>
+  </si>
+  <si>
     <t>IMG34</t>
   </si>
   <si>
@@ -741,330 +793,6 @@
   </si>
   <si>
     <t>IMG38</t>
-  </si>
-  <si>
-    <t>IMG39</t>
-  </si>
-  <si>
-    <t>IMG40</t>
-  </si>
-  <si>
-    <t>IMG41</t>
-  </si>
-  <si>
-    <t>IMG42</t>
-  </si>
-  <si>
-    <t>IMG43</t>
-  </si>
-  <si>
-    <t>IMG44</t>
-  </si>
-  <si>
-    <t>IMG45</t>
-  </si>
-  <si>
-    <t>IMG46</t>
-  </si>
-  <si>
-    <t>IMG47</t>
-  </si>
-  <si>
-    <t>IMG48</t>
-  </si>
-  <si>
-    <t>IMG49</t>
-  </si>
-  <si>
-    <t>IMG50</t>
-  </si>
-  <si>
-    <t>IMG51</t>
-  </si>
-  <si>
-    <t>IMG52</t>
-  </si>
-  <si>
-    <t>IMG53</t>
-  </si>
-  <si>
-    <t>IMG54</t>
-  </si>
-  <si>
-    <t>IMG55</t>
-  </si>
-  <si>
-    <t>IMG56</t>
-  </si>
-  <si>
-    <t>IMG57</t>
-  </si>
-  <si>
-    <t>IMG58</t>
-  </si>
-  <si>
-    <t>IMG59</t>
-  </si>
-  <si>
-    <t>IMG60</t>
-  </si>
-  <si>
-    <t>IMG61</t>
-  </si>
-  <si>
-    <t>IMG62</t>
-  </si>
-  <si>
-    <t>IMG63</t>
-  </si>
-  <si>
-    <t>IMG64</t>
-  </si>
-  <si>
-    <t>IMG65</t>
-  </si>
-  <si>
-    <t>IMG66</t>
-  </si>
-  <si>
-    <t>IMG67</t>
-  </si>
-  <si>
-    <t>IMG68</t>
-  </si>
-  <si>
-    <t>IMG69</t>
-  </si>
-  <si>
-    <t>IMG70</t>
-  </si>
-  <si>
-    <t>IMG71</t>
-  </si>
-  <si>
-    <t>IMG72</t>
-  </si>
-  <si>
-    <t>IMG73</t>
-  </si>
-  <si>
-    <t>IMG74</t>
-  </si>
-  <si>
-    <t>Es una  recopilacion de los diagramas sagitales de las  IMG02 hasta IMG06</t>
-  </si>
-  <si>
-    <t>Descargar o dibujar similar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Representacion  grafica de la relacion </t>
-  </si>
-  <si>
-    <t>La misma IMG09</t>
-  </si>
-  <si>
-    <t>La misma IMG10</t>
-  </si>
-  <si>
-    <t>Similar a la IMG02, con A y B los nombres de cada conjunto y una flecha de A hacia B, bajo la letra f</t>
-  </si>
-  <si>
-    <t>Similar a la IMG02, con A y B los nombres de cada conjunto y una flecha de A hacia B, bajo la letra g, cambiar f por g</t>
-  </si>
-  <si>
-    <t>La misma IMG08</t>
-  </si>
-  <si>
-    <t>grafica de la funcion f(x)=raiz cuadrada de x, y sobre ella varias rectas horizontales de color rojo que cortan la grafica en un solo punto. Eliminar las etiquetas de los puntos de interseccion entre la curva y las rectas. Eliminar las etiquetas de las rectas horizontales</t>
-  </si>
-  <si>
-    <t>Grafica de la funcion f(x)=x^2, con una recta horizontal que pasa por dos puntos, eliminar la etiqueta de la recta y de los puntos de interseccion.</t>
-  </si>
-  <si>
-    <t>Representacion grafica de f(x)=x^5</t>
-  </si>
-  <si>
-    <t>Representacion en el diagrama sagital de f poner los nombres a los conjuntos A y B, y la flecha de A en B</t>
-  </si>
-  <si>
-    <t>grafica de la funcion f(x)=x^5 y sobre ella varias rectas horizontales de color rojo que cortan la grafica en un solo punto. Eliminar las etiquetas de los puntos de interseccion entre la curva y las rectas. Eliminar las etiquetas de las rectas horizontales</t>
-  </si>
-  <si>
-    <t>Una animacion si es posible que muestre que al reflejar la funcion x^2, la grafica  es la misma.</t>
-  </si>
-  <si>
-    <t>Si es posible una animacion que mantenga la curva azul siempre visible,  pero que de ella salga la grafica roja, al reflejar la curva azul sobre el eje Y. la curva azul es la grafica de la funcion f(x)=(x-2)^2</t>
-  </si>
-  <si>
-    <t>Una animacion que muestre que la grafica de la funcion f(x)=x^3 se refleja por el eje Y y luego por el eje X,  obteniendo la misma funcion.</t>
-  </si>
-  <si>
-    <t>Una animacion que muestre que la grafica de la funcion f(x)=3x-2 se refleja por el eje Y y luego por el eje X,  obteniendo otra funcion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La funcion f(x)=2^x </t>
-  </si>
-  <si>
-    <t>Grafica de la funcion f(x)=-ln(x)</t>
-  </si>
-  <si>
-    <t>Grafica de la funcion f(x)=4-3(x-1)^2</t>
-  </si>
-  <si>
-    <t>uncion f(x)=x^3-3x</t>
-  </si>
-  <si>
-    <t>Grafica de las funciones que se indican en la imagen, cada una con sus etiquetas y de diferentes colores.</t>
-  </si>
-  <si>
-    <t>grafica de la funcion f(x)=2</t>
-  </si>
-  <si>
-    <t>Grafica de varias funciones afines en el mismo plano cartesiano, en distintos colores con su rotulo, es decir con la expresión algebraica que las define. Como en la imagen 47, se sugiere graficar f(x)=x+1, f(x)=-x+1, f(x)=2x+1, f(x)=-2x+1, f(x)=3x-1, f(x)=-3x-2</t>
-  </si>
-  <si>
-    <t>Grafica de varias funciones lineales en el mismo plano cartesiano, en distintos colores con su rotulo, es decir con la expresión algebraica que las define. Como en la imagen 47, se sugiere graficar f(x)=x, f(x)=-x, f(x)=2x, f(x)=-2x, f(x)=3x, f(x)=-3x</t>
-  </si>
-  <si>
-    <t>Representación gráfica de varias funciones cuadráticas en distintos colores con su rotulo, es decir con la expresión algebraica que las define, por ejemplo  f(x)=x^2, f(x)=1-x^2, f(x)=x^2-x+2, f(x)=-x^2+2x-1</t>
-  </si>
-  <si>
-    <t>Grafica de la funcion                                               con etiqueta</t>
-  </si>
-  <si>
-    <t>Dibujar la recta x=-3 punteada y de color rojo, la etiqueta de la reta debe ser x=-3</t>
-  </si>
-  <si>
-    <t>Grafica de la funcion</t>
-  </si>
-  <si>
-    <t>Grafica de la funcion  con asintota oblicua en y=x-2</t>
-  </si>
-  <si>
-    <t>Grafica de la funcion con asintota oblicua en y=x-3</t>
-  </si>
-  <si>
-    <t>Grafica de la funcion tan(x) entre -5pi/2 hasta 5pi/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Representación gráfica de la funcion </t>
-  </si>
-  <si>
-    <t>La función a trozos, modificarla para que se note el hueco que se dan el segmento cuando x=0</t>
-  </si>
-  <si>
-    <t>Las graficas en el mismo plano cartesiano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Representacion grafica de la relación </t>
-  </si>
-  <si>
-    <t>Mostrar una recta vertical de color rojo  en el intervalo (-1,1) que pasa por dos puntos de la grafica para demostrar que la relacion no es funcion</t>
-  </si>
-  <si>
-    <t>Grafica de la funcion valor absoluto de x</t>
-  </si>
-  <si>
-    <t>ninguna</t>
-  </si>
-  <si>
-    <t>Grafica de la funcion parte entera de x</t>
-  </si>
-  <si>
-    <t>Representacion grafica de las funciones f(x)=√(x+2), g(x)=1/(x-3) y (f+g)(x)=((x-3) √(x+2)+1)/(x-3)</t>
-  </si>
-  <si>
-    <t>Representacion grafica de las funciones f(x)=√(x+2), g(x)=1/(x-3) y (f-g)(x)=((x-3) √(x+2)-1)/(x-3)</t>
-  </si>
-  <si>
-    <t>Representacion grafica de las funciones f(x)=√(x+2), g(x)=1/(x-3) y (fg)(x)=√(x+2)/(x-3)</t>
-  </si>
-  <si>
-    <t>Realizar dos planos cartesianos uno al  lado del otro, juntos deben tener las funciones f(x)=√(x+2), g(x)=1/(x-3) en distintos colores, el de la izquierda  debe tener  ademas la funcion (f/g)(x)=(x-3) √(x+2) y el derecha la funcion (g/f)(x)=1/((x-3) √(x+2)) ademas de f y g</t>
-  </si>
-  <si>
-    <t>http://iesaricel.org/rafanogal/funciones/funciones-archivos/composicion.gif</t>
-  </si>
-  <si>
-    <t>Realizar un diagrama sagital como el que se muestra en la imagen.</t>
-  </si>
-  <si>
-    <t>No se si la imagen sea libre, es mejor hacer una similar.</t>
-  </si>
-  <si>
-    <t>Es la img03, no IMG04</t>
-  </si>
-  <si>
-    <t>si son, pero creo conveniente organizar los diagramas de forma horizontal, como estan en la figura.</t>
-  </si>
-  <si>
-    <t>La funcion es g, no f</t>
-  </si>
-  <si>
-    <t>Retirar la letra a de la grafica</t>
-  </si>
-  <si>
-    <t>Eliminar la letra c de la gráfica</t>
-  </si>
-  <si>
-    <t>Retirar las letras j, h y g de la gráfica</t>
-  </si>
-  <si>
-    <t>Eliminar la letra minuscula a y la letra minuscula e</t>
-  </si>
-  <si>
-    <t>Eliminar la letra minuscula c y la letra minuscula e</t>
-  </si>
-  <si>
-    <t>Eliminar las letras minusculas</t>
-  </si>
-  <si>
-    <t>Recomiendo un espacio entre el cuadrado y el menos, para que se note la formula</t>
-  </si>
-  <si>
-    <t>Eliminar las letras minusculas a y g</t>
-  </si>
-  <si>
-    <t>Eliminar la letra a</t>
-  </si>
-  <si>
-    <t>Eliminar la letra a y la letra g</t>
-  </si>
-  <si>
-    <t>Eliminar las letras S, f1 y g1</t>
-  </si>
-  <si>
-    <t>En x=1 no  hay asintota, pero se debe mostrar el hueco, una circunferencia pequeña sin rellenar sobre la curva</t>
-  </si>
-  <si>
-    <t>Eliminar h1 y j de la gráfica</t>
-  </si>
-  <si>
-    <t>Eliminar la h1, Grafica de la funcion  con asintota punteada de color rojo en y=0</t>
-  </si>
-  <si>
-    <t>Grafica de la funcion cos(x) entre -5pi/2 hasta 5pi/2, NO ESTA, la que aparece como 61 es la 60</t>
-  </si>
-  <si>
-    <t>Grafica de la funcion sen(x) entre -5pi/2 hasta 5pi/2, eliminar la "o" se seno(x), aparece como 61</t>
-  </si>
-  <si>
-    <t>que  la letra X del eje sea visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">que la circunferencia se vea totalmente hueca al interior. Representacion gráfica de la funcion </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simbolizar como </t>
-  </si>
-  <si>
-    <t>Eliminar los parentesis dentro de la raiz  del denominador</t>
-  </si>
-  <si>
-    <t>Ambas graficas deben tener la funcion f y la funcion g,  la diferencia es que la primera tiene la funcion f/g y la segunda a funcion g/f,  las f en ambas graficas con el mimo color, lo mismo las g. el fraccionario debe ser vertical,  y eliminar los parentesis que sobran de la raiz y del denominador. en g/f se debe resaltar el hueco en x=3</t>
-  </si>
-  <si>
-    <t>La idea es elaborar un collage con esas imágenes, por ejemplo  relacionando la imagen A, con la B y con la grafica de debajo de la izquierda de la C, tambien se puede relacionar el puente de la grafica D con la 4 imagen de la C, sin embargo la idea es hacer el collage que muestre algunas aplicaciones de la funcion de forma gráfica, por eso se pueden sobreponer las imagenes</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +802,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1221,30 +949,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <vertAlign val="subscript"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1309,14 +1015,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1761,17 +1461,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1827,7 +1516,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2000,25 +1689,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2028,9 +1704,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2043,76 +1716,24 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="11" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2333,350 +1954,17 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>971550</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>3552825</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>2381250</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3127" name="Object 55" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3127"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1922318</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>710045</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3747308</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1959725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagen 12"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15898091" y="8295409"/>
-          <a:ext cx="1824990" cy="1249680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2147455</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>502228</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3972445</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1765878</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Imagen 14"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16123228" y="10719955"/>
-          <a:ext cx="1824990" cy="1263650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2303318</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>640773</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4128308</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1924743</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagen 15"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16279091" y="13127182"/>
-          <a:ext cx="1824990" cy="1283970"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2182091</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1333500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3963901</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>2584450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Imagen 16"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16157864" y="16538864"/>
-          <a:ext cx="1781810" cy="1250950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2182091</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>831273</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4049626</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2072063</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Imagen 17"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16157864" y="19534909"/>
-          <a:ext cx="1867535" cy="1240790"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2268682</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>692727</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4058112</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2007177</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Imagen 18"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16244455" y="22149954"/>
-          <a:ext cx="1789430" cy="1314450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>813955</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>883227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>5196090</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1547437</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2685,7 +1973,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2716,361 +2004,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>519546</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>5486400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1705091</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Imagen 20"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14737773" y="27189546"/>
-          <a:ext cx="4724400" cy="1185545"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1887684</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>207818</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3480956</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1501313</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Imagen 23"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15863457" y="30514636"/>
-          <a:ext cx="1593272" cy="1293495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1624853</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3566048</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1719319</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Imagen 28"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15609794" y="32205706"/>
-          <a:ext cx="1941195" cy="1674495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504265</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>694765</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1571065</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>875740</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Imagen 30"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20618824" y="34671000"/>
-          <a:ext cx="1066800" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2162737</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3877237</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1512795</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Imagen 31"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16147678" y="34155530"/>
-          <a:ext cx="1714500" cy="1333500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1658471</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3599666</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1853789</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Imagen 32"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15643412" y="35713147"/>
-          <a:ext cx="1941195" cy="1674495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>336176</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>5054488</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1000386</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Imagen 33"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14657294" y="37775029"/>
-          <a:ext cx="4382135" cy="664210"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>470648</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>5195048</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1207956</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3079,7 +2020,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3110,296 +2051,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2207559</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>201706</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4148754</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1876201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Imagen 35"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16192500" y="40363588"/>
-          <a:ext cx="1941195" cy="1674495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2050676</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3991871</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1730524</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Imagen 36"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16035617" y="42358235"/>
-          <a:ext cx="1941195" cy="1674495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1591236</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3532431</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1808966</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Imagen 37"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15576177" y="44196000"/>
-          <a:ext cx="1941195" cy="1674495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2297206</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4238401</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1764143</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Imagen 38"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16282147" y="46089795"/>
-          <a:ext cx="1941195" cy="1674495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1949823</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>280148</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3939913</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1399653</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Imagen 39"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15934764" y="50045472"/>
-          <a:ext cx="1990090" cy="1119505"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1770530</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>347382</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3749825</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>1484032</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Imagen 40"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15755471" y="51872029"/>
-          <a:ext cx="1979295" cy="1136650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>2084294</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>313765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3866104</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1564715</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3408,7 +2067,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3439,23 +2098,23 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1445559</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:colOff>1947023</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>295556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>3770294</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>2032897</xdr:rowOff>
+      <xdr:colOff>4647641</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1595438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Imagen 43"/>
+        <xdr:cNvPr id="49" name="Imagen 48"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3469,242 +2128,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15430500" y="53362412"/>
-          <a:ext cx="2324735" cy="1887220"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1456765</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4010100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>2256379</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Imagen 44"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15441706" y="55525147"/>
-          <a:ext cx="2553335" cy="2077085"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1916206</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>235324</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4012341</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>1643754</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Imagen 45"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15901147" y="57945618"/>
-          <a:ext cx="2096135" cy="1408430"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1770529</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>369794</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3749824</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>1506444</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Imagen 46"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15755470" y="59861823"/>
-          <a:ext cx="1979295" cy="1136650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1893795</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3821207</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1613646</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Imagen 47"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15878736" y="61475470"/>
-          <a:ext cx="1927412" cy="1479176"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1423148</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>224118</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4123766</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>1524000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Imagen 48"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15408089" y="63302030"/>
+          <a:off x="15948773" y="14416369"/>
           <a:ext cx="2700618" cy="1299882"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3721,61 +2145,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1792942</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3563471</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>1411941</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Imagen 49"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15777883" y="64904471"/>
-          <a:ext cx="1770529" cy="1322294"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>683559</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>212912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>4135419</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1397822</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3784,7 +2161,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3816,13 +2193,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1098176</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>175932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>4774826</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1383702</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3831,7 +2208,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3863,13 +2240,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>739588</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>246530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>4751293</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1647264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3878,7 +2255,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3910,13 +2287,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>694765</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>5341060</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1610995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3925,7 +2302,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3957,13 +2334,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>907677</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>67237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2711824</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>1546413</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3972,7 +2349,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4004,13 +2381,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1434353</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3530488</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1805828</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4019,7 +2396,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4050,23 +2427,23 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1893795</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:colOff>739588</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>3810001</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>1367118</xdr:rowOff>
+      <xdr:colOff>2506270</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1524000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Imagen 57"/>
+        <xdr:cNvPr id="67" name="Imagen 66"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4080,8 +2457,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15878736" y="76939588"/>
-          <a:ext cx="1916206" cy="1255059"/>
+          <a:off x="14741338" y="31358261"/>
+          <a:ext cx="1766682" cy="1479177"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4097,1033 +2474,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1075764</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3316044</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>1990538</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Imagen 58"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15060705" y="78429970"/>
-          <a:ext cx="2240280" cy="1822450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2151531</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3866031</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>1378323</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Imagen 59"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16136472" y="80592705"/>
-          <a:ext cx="1714500" cy="1243853"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2308412</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3563471</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>1259915</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Imagen 60"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16293353" y="82083089"/>
-          <a:ext cx="1255059" cy="1125444"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2017058</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>324971</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3440205</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>1252893</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Imagen 61"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16001999" y="83584677"/>
-          <a:ext cx="1423147" cy="927922"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4001135</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>1791447</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Imagen 62"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15889941" y="84828529"/>
-          <a:ext cx="2096135" cy="1701800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1512794</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3566384</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>1745952</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Imagen 63"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15497735" y="86711118"/>
-          <a:ext cx="2053590" cy="1667510"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1456764</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3324299</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>1574950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Imagen 64"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15441705" y="88638530"/>
-          <a:ext cx="1867535" cy="1518920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>963706</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2868706</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>1535206</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Imagen 65"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14948647" y="90509912"/>
-          <a:ext cx="1905000" cy="1423147"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>739588</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2506270</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>1524000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Imagen 66"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14724529" y="92089941"/>
-          <a:ext cx="1766682" cy="1479177"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1714500</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2562225</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>449917</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Imagen 67"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15699441" y="97670471"/>
-          <a:ext cx="847725" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>795619</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3384177</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>2229972</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Imagen 68"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15508941" y="98387648"/>
-          <a:ext cx="1860177" cy="1434353"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>661147</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>212912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2620122</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>1806762</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Imagen 69"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14646088" y="100628824"/>
-          <a:ext cx="1958975" cy="1593850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>224119</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2477136</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>1929094</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Imagen 71"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14365942" y="102836384"/>
-          <a:ext cx="2096135" cy="1704975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1288676</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3070411</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>1344706</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Imagen 73"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15273617" y="104494853"/>
-          <a:ext cx="1781735" cy="1232647"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>818029</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1314450</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>1162610</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Imagen 75"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20495559" y="105200823"/>
-          <a:ext cx="933450" cy="344581"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1725706</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>291353</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3087781</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>653303</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Imagen 76"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15710647" y="106511912"/>
-          <a:ext cx="1362075" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>818029</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3473824</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>1210236</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Imagen 77"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14802970" y="106926528"/>
-          <a:ext cx="2655795" cy="1019737"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>616323</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1612526</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>986117</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Imagen 79"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20450735" y="107352352"/>
-          <a:ext cx="1276350" cy="369794"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1669677</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3765177</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>1400736</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Imagen 80"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15654618" y="108192795"/>
-          <a:ext cx="2095500" cy="1311088"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>661147</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1260662</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>1030941</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Imagen 81"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20517971" y="108764294"/>
-          <a:ext cx="857250" cy="369794"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>1109383</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>67237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3473824</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>1770531</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5132,7 +2490,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5164,13 +2522,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1613647</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3316941</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1680882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5179,7 +2537,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5211,13 +2569,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1389529</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3622376</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>2073088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5226,7 +2584,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5258,13 +2616,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1199029</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>302559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3295164</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>2007534</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5273,7 +2631,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5305,13 +2663,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>5726205</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>616323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>1102098</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5322,7 +2680,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -5370,13 +2728,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2543736</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>168089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>4134971</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>1512794</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5385,7 +2743,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5417,13 +2775,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>425824</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3898639</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>2045036</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5432,7 +2790,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5464,13 +2822,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>780475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1426508</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>1586753</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5481,7 +2839,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -5529,13 +2887,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1316935</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>397566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>4079185</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>884584</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5546,7 +2904,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -5593,15 +2951,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>942975</xdr:rowOff>
+      <xdr:colOff>1113559</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>665884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1914525</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>1123950</xdr:rowOff>
+      <xdr:colOff>1827934</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>846859</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5611,7 +2969,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -5635,8 +2993,267 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="21307425" y="128873250"/>
+          <a:off x="21219968" y="57815884"/>
           <a:ext cx="714375" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>312966</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>411116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5891894</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>827313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Imagen 72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14314716" y="9337402"/>
+          <a:ext cx="5578928" cy="416197"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>764649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5946322</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1332138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Imagen 87"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14110608" y="12766149"/>
+          <a:ext cx="5837464" cy="567489"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3491865</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1381125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Imagen 89"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16144875" y="16144875"/>
+          <a:ext cx="1348740" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2166938</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3770313</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1471612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Imagen 92"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16168688" y="17573625"/>
+          <a:ext cx="1603375" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>394907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5857875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1462087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Imagen 93"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14358938" y="29803345"/>
+          <a:ext cx="5500687" cy="1067180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6371,11 +3988,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6413,14 +4030,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="F2" s="109" t="s">
+      <c r="D2" s="91"/>
+      <c r="F2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="110"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
       <c r="J2" s="16"/>
@@ -6430,12 +4047,12 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="118">
+      <c r="C3" s="92">
         <v>11</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="D3" s="93"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="16"/>
@@ -6445,16 +4062,16 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="118" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="119"/>
+      <c r="C4" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="93"/>
       <c r="E4" s="5"/>
       <c r="F4" s="41" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
@@ -6466,10 +4083,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="121"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="5"/>
       <c r="F5" s="39" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -6502,7 +4119,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>39</v>
@@ -6520,12 +4137,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="113" t="s">
+      <c r="F8" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="115"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="89"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -6570,315 +4187,316 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="e">
-        <f>IF(OR(B10&lt;&gt;"",#REF!&lt;&gt;""),"IMG01","")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="78" t="e">
+      <c r="A10" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="72" t="e">
         <f>IF(OR(B10&lt;&gt;"",#REF!&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>#REF!</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="79" t="e">
+      <c r="F10" s="73" t="e">
         <f>IF(OR(B10&lt;&gt;"",#REF!&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>#REF!</v>
       </c>
-      <c r="G10" s="79" t="e">
+      <c r="G10" s="73" t="e">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>#REF!</v>
       </c>
-      <c r="H10" s="79" t="e">
+      <c r="H10" s="73" t="e">
         <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",#REF!&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>#REF!</v>
       </c>
-      <c r="I10" s="79" t="e">
+      <c r="I10" s="73" t="e">
         <f>IF(OR(B10&lt;&gt;"",#REF!&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>#REF!</v>
       </c>
-      <c r="J10" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="K10" s="80" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="J10" s="73"/>
+      <c r="K10" s="74"/>
+    </row>
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="83" t="str">
-        <f t="shared" ref="C11:C13" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+      <c r="C11" s="22" t="str">
+        <f t="shared" ref="C11" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="84" t="str">
-        <f t="shared" ref="F11:F13" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+      <c r="F11" s="14" t="str">
+        <f t="shared" ref="F11" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG02_small</v>
       </c>
-      <c r="G11" s="84" t="str">
+      <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H11" s="84" t="str">
-        <f t="shared" ref="H11:H12" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+      <c r="H11" s="14" t="str">
+        <f t="shared" ref="H11" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG02_zoom</v>
       </c>
-      <c r="I11" s="84" t="str">
+      <c r="I11" s="14" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11" s="85"/>
-      <c r="K11" s="86" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="J11" s="14"/>
+      <c r="K11" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="70" t="str">
-        <f t="shared" si="0"/>
+      <c r="C12" s="22" t="str">
+        <f t="shared" ref="C12:C46" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D12" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="71" t="s">
+      <c r="D12" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="71" t="str">
-        <f t="shared" si="1"/>
+      <c r="F12" s="14" t="str">
+        <f t="shared" ref="F12:F46" si="4">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I12="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG03_small</v>
       </c>
-      <c r="G12" s="71" t="str">
+      <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H12" s="71" t="str">
-        <f t="shared" si="2"/>
+      <c r="H12" s="14" t="str">
+        <f t="shared" ref="H12:H46" si="5">IF(AND(I12&lt;&gt;"",I12&lt;&gt;0),IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG03_zoom</v>
       </c>
-      <c r="I12" s="71" t="str">
+      <c r="I12" s="14" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="89"/>
-      <c r="K12" s="90" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="81" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="83" t="str">
-        <f t="shared" si="0"/>
+      <c r="C13" s="22" t="str">
+        <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="84" t="str">
-        <f t="shared" si="1"/>
+      <c r="F13" s="14" t="str">
+        <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),CONCATENATE($C$7,"_",$A13,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I13="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG04_small</v>
       </c>
-      <c r="G13" s="84" t="str">
+      <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="87" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="83" t="s">
+      <c r="H13" s="14" t="str">
+        <f>IF(AND(I13&lt;&gt;"",I13&lt;&gt;0),IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),CONCATENATE($C$7,"_",$A13,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>MA_11_02_CO_IMG04_zoom</v>
+      </c>
+      <c r="I13" s="14" t="str">
+        <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="83" t="str">
-        <f t="shared" ref="C14" si="3">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+      <c r="C14" s="22" t="str">
+        <f t="shared" ref="C14" si="6">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="84" t="str">
-        <f t="shared" ref="F14" si="4">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I14="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+      <c r="F14" s="14" t="str">
+        <f t="shared" ref="F14" si="7">IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I14="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG05_small</v>
       </c>
-      <c r="G14" s="84" t="str">
+      <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H14" s="84" t="str">
-        <f t="shared" ref="H14" si="5">IF(AND(I14&lt;&gt;"",I14&lt;&gt;0),IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+      <c r="H14" s="14" t="str">
+        <f t="shared" ref="H14" si="8">IF(AND(I14&lt;&gt;"",I14&lt;&gt;0),IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG05_zoom</v>
       </c>
-      <c r="I14" s="84" t="str">
+      <c r="I14" s="14" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="84"/>
-      <c r="K14" s="87" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="83" t="str">
-        <f>IF(OR(B15&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="84" t="s">
+      <c r="E15" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F15" s="84" t="str">
-        <f>IF(OR(B15&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I15="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+      <c r="F15" s="14" t="str">
+        <f t="shared" si="4"/>
         <v>MA_11_02_CO_IMG06_small</v>
       </c>
-      <c r="G15" s="84" t="str">
+      <c r="G15" s="14" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H15" s="84" t="str">
-        <f>IF(AND(I15&lt;&gt;"",I15&lt;&gt;0),IF(OR(B15&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+      <c r="H15" s="14" t="str">
+        <f t="shared" si="5"/>
         <v>MA_11_02_CO_IMG06_zoom</v>
       </c>
-      <c r="I15" s="84" t="str">
-        <f>IF(OR(B15&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+      <c r="I15" s="14" t="str">
+        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="92"/>
-      <c r="K15" s="87" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="83" t="s">
+      <c r="J15" s="14"/>
+      <c r="K15" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="83" t="str">
-        <f t="shared" ref="C16" si="6">IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+      <c r="C16" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="84" t="s">
+      <c r="E16" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="84" t="str">
-        <f t="shared" ref="F16" si="7">IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I16="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+      <c r="F16" s="14" t="str">
+        <f t="shared" si="4"/>
         <v>MA_11_02_CO_IMG07_small</v>
       </c>
-      <c r="G16" s="84" t="str">
+      <c r="G16" s="14" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H16" s="84" t="str">
-        <f t="shared" ref="H16" si="8">IF(AND(I16&lt;&gt;"",I16&lt;&gt;0),IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+      <c r="H16" s="14" t="str">
+        <f t="shared" si="5"/>
         <v>MA_11_02_CO_IMG07_zoom</v>
       </c>
-      <c r="I16" s="84" t="str">
+      <c r="I16" s="14" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="84"/>
-      <c r="K16" s="93" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="192" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="83" t="s">
+      <c r="J16" s="14"/>
+      <c r="K16" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="83" t="str">
-        <f t="shared" ref="C17" si="9">IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+      <c r="C17" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="84" t="str">
-        <f t="shared" ref="F17" si="10">IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I17="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+      <c r="F17" s="14" t="str">
+        <f t="shared" si="4"/>
         <v>MA_11_02_CO_IMG08_small</v>
       </c>
-      <c r="G17" s="84" t="str">
+      <c r="G17" s="14" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H17" s="84" t="str">
-        <f t="shared" ref="H17" si="11">IF(AND(I17&lt;&gt;"",I17&lt;&gt;0),IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+      <c r="H17" s="14" t="str">
+        <f t="shared" si="5"/>
         <v>MA_11_02_CO_IMG08_zoom</v>
       </c>
-      <c r="I17" s="84" t="str">
+      <c r="I17" s="14" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="84"/>
-      <c r="K17" s="93" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="14"/>
+      <c r="K17" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C18" s="22" t="str">
-        <f t="shared" ref="C18" si="12">IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C18:C19" si="9">IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -6888,7 +4506,7 @@
         <v>146</v>
       </c>
       <c r="F18" s="14" t="str">
-        <f t="shared" ref="F18" si="13">IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I18="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F18:F19" si="10">IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I18="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG09_small</v>
       </c>
       <c r="G18" s="14" t="str">
@@ -6896,7 +4514,7 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H18" s="14" t="str">
-        <f t="shared" ref="H18" si="14">IF(AND(I18&lt;&gt;"",I18&lt;&gt;0),IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H18:H19" si="11">IF(AND(I18&lt;&gt;"",I18&lt;&gt;0),IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG09_zoom</v>
       </c>
       <c r="I18" s="14" t="str">
@@ -6905,56 +4523,56 @@
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="70" t="str">
-        <f t="shared" ref="C19:C82" si="15">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+      <c r="C19" s="22" t="str">
+        <f t="shared" si="9"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="71" t="str">
-        <f t="shared" ref="F19:F82" si="16">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE($C$7,"_",$A19,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I19="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+      <c r="F19" s="14" t="str">
+        <f t="shared" si="10"/>
         <v>MA_11_02_CO_IMG10_small</v>
       </c>
-      <c r="G19" s="71" t="str">
+      <c r="G19" s="14" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H19" s="71" t="str">
-        <f t="shared" ref="H19:H82" si="17">IF(AND(I19&lt;&gt;"",I19&lt;&gt;0),IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE($C$7,"_",$A19,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+      <c r="H19" s="14" t="str">
+        <f t="shared" si="11"/>
         <v>MA_11_02_CO_IMG10_zoom</v>
       </c>
-      <c r="I19" s="71" t="str">
+      <c r="I19" s="14" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="14"/>
+      <c r="K19" s="67" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="66">
-        <v>146258987</v>
+        <v>161</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="C20" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="C20:C21" si="12">IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -6964,7 +4582,7 @@
         <v>146</v>
       </c>
       <c r="F20" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="F20:F21" si="13">IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE($C$7,"_",$A20,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I20="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG11_small</v>
       </c>
       <c r="G20" s="14" t="str">
@@ -6972,7 +4590,7 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H20" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="H20:H21" si="14">IF(AND(I20&lt;&gt;"",I20&lt;&gt;0),IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE($C$7,"_",$A20,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG11_zoom</v>
       </c>
       <c r="I20" s="14" t="str">
@@ -6981,88 +4599,88 @@
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="B21" s="70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="70" t="str">
-        <f t="shared" si="15"/>
+      <c r="C21" s="22" t="str">
+        <f t="shared" si="12"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="71" t="str">
-        <f t="shared" si="16"/>
+      <c r="F21" s="14" t="str">
+        <f t="shared" si="13"/>
         <v>MA_11_02_CO_IMG12_small</v>
       </c>
-      <c r="G21" s="71" t="str">
+      <c r="G21" s="14" t="str">
         <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H21" s="71" t="str">
-        <f t="shared" si="17"/>
+      <c r="H21" s="14" t="str">
+        <f t="shared" si="14"/>
         <v>MA_11_02_CO_IMG12_zoom</v>
       </c>
-      <c r="I21" s="71" t="str">
+      <c r="I21" s="14" t="str">
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="71"/>
-      <c r="K21" s="95" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="14"/>
+      <c r="K21" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C22" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="C22:C29" si="15">IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="71" t="str">
-        <f t="shared" si="16"/>
+      <c r="F22" s="14" t="str">
+        <f t="shared" ref="F22:F29" si="16">IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),CONCATENATE($C$7,"_",$A22,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I22="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG13_small</v>
       </c>
-      <c r="G22" s="71" t="str">
+      <c r="G22" s="14" t="str">
         <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H22" s="71" t="str">
-        <f t="shared" si="17"/>
+      <c r="H22" s="14" t="str">
+        <f t="shared" ref="H22:H29" si="17">IF(AND(I22&lt;&gt;"",I22&lt;&gt;0),IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),CONCATENATE($C$7,"_",$A22,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG13_zoom</v>
       </c>
-      <c r="I22" s="71" t="str">
+      <c r="I22" s="14" t="str">
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22" s="96"/>
-      <c r="K22" s="95" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="14"/>
+      <c r="K22" s="15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>147</v>
@@ -7074,33 +4692,33 @@
       <c r="D23" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="71" t="str">
+      <c r="F23" s="14" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG14_small</v>
       </c>
-      <c r="G23" s="71" t="str">
+      <c r="G23" s="14" t="str">
         <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H23" s="71" t="str">
+      <c r="H23" s="14" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG14_zoom</v>
       </c>
-      <c r="I23" s="71" t="str">
+      <c r="I23" s="14" t="str">
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23" s="96"/>
-      <c r="K23" s="95" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="14"/>
+      <c r="K23" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>147</v>
@@ -7112,33 +4730,33 @@
       <c r="D24" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="71" t="str">
+      <c r="F24" s="14" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG15_small</v>
       </c>
-      <c r="G24" s="71" t="str">
+      <c r="G24" s="14" t="str">
         <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H24" s="71" t="str">
+      <c r="H24" s="14" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG15_zoom</v>
       </c>
-      <c r="I24" s="71" t="str">
+      <c r="I24" s="14" t="str">
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J24" s="71"/>
-      <c r="K24" s="72" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="14"/>
+      <c r="K24" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B25" s="22" t="s">
         <v>147</v>
@@ -7171,12 +4789,12 @@
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>147</v>
@@ -7209,170 +4827,176 @@
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" s="70" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="70" t="str">
+      <c r="C27" s="22" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="71" t="s">
+      <c r="E27" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="71" t="str">
+      <c r="F27" s="14" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG18_small</v>
       </c>
-      <c r="G27" s="71" t="str">
+      <c r="G27" s="14" t="str">
         <f>IF(F27&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H27" s="71" t="str">
+      <c r="H27" s="14" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG18_zoom</v>
       </c>
-      <c r="I27" s="71" t="str">
+      <c r="I27" s="14" t="str">
         <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J27" s="71"/>
-      <c r="K27" s="72" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" s="70" t="s">
+      <c r="J27" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="70" t="str">
+      <c r="C28" s="22" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="71" t="str">
+      <c r="F28" s="14" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG19_small</v>
       </c>
-      <c r="G28" s="71" t="str">
+      <c r="G28" s="14" t="str">
         <f>IF(F28&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H28" s="71" t="str">
+      <c r="H28" s="14" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG19_zoom</v>
       </c>
-      <c r="I28" s="71" t="str">
+      <c r="I28" s="14" t="str">
         <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J28" s="71"/>
-      <c r="K28" s="72" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="B29" s="70" t="s">
+      <c r="J28" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="12" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="70" t="str">
+      <c r="C29" s="22" t="str">
         <f t="shared" si="15"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F29" s="71" t="str">
+      <c r="F29" s="14" t="str">
         <f t="shared" si="16"/>
         <v>MA_11_02_CO_IMG20_small</v>
       </c>
-      <c r="G29" s="71" t="str">
+      <c r="G29" s="14" t="str">
         <f>IF(F29&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H29" s="71" t="str">
+      <c r="H29" s="14" t="str">
         <f t="shared" si="17"/>
         <v>MA_11_02_CO_IMG20_zoom</v>
       </c>
-      <c r="I29" s="71" t="str">
+      <c r="I29" s="14" t="str">
         <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J29" s="71"/>
-      <c r="K29" s="72" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="B30" s="70" t="s">
+      <c r="J29" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="12" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="70" t="str">
-        <f t="shared" si="15"/>
+      <c r="C30" s="22" t="str">
+        <f t="shared" ref="C30:C31" si="18">IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="71" t="s">
+      <c r="E30" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="71" t="str">
-        <f t="shared" si="16"/>
+      <c r="F30" s="14" t="str">
+        <f t="shared" ref="F30:F31" si="19">IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),CONCATENATE($C$7,"_",$A30,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I30="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG21_small</v>
       </c>
-      <c r="G30" s="71" t="str">
+      <c r="G30" s="14" t="str">
         <f>IF(F30&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H30" s="71" t="str">
-        <f t="shared" si="17"/>
+      <c r="H30" s="14" t="str">
+        <f t="shared" ref="H30:H31" si="20">IF(AND(I30&lt;&gt;"",I30&lt;&gt;0),IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),CONCATENATE($C$7,"_",$A30,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG21_zoom</v>
       </c>
-      <c r="I30" s="71" t="str">
+      <c r="I30" s="14" t="str">
         <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J30" s="71"/>
-      <c r="K30" s="72" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="14"/>
+      <c r="K30" s="67" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="12" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C31" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D31" s="14" t="s">
@@ -7382,7 +5006,7 @@
         <v>146</v>
       </c>
       <c r="F31" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>MA_11_02_CO_IMG22_small</v>
       </c>
       <c r="G31" s="14" t="str">
@@ -7390,7 +5014,7 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H31" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>MA_11_02_CO_IMG22_zoom</v>
       </c>
       <c r="I31" s="14" t="str">
@@ -7398,361 +5022,366 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J31" s="14"/>
-      <c r="K31" s="12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" s="83" t="s">
+      <c r="K31" s="67" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="12" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="83" t="str">
-        <f t="shared" si="15"/>
+      <c r="C32" s="22" t="str">
+        <f t="shared" si="3"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="D32" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="84" t="s">
+      <c r="E32" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F32" s="84" t="str">
-        <f t="shared" si="16"/>
+      <c r="F32" s="14" t="str">
+        <f t="shared" si="4"/>
         <v>MA_11_02_CO_IMG23_small</v>
       </c>
-      <c r="G32" s="84" t="str">
+      <c r="G32" s="14" t="str">
         <f>IF(F32&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H32" s="84" t="str">
-        <f t="shared" si="17"/>
+      <c r="H32" s="14" t="str">
+        <f t="shared" si="5"/>
         <v>MA_11_02_CO_IMG23_zoom</v>
       </c>
-      <c r="I32" s="84" t="str">
+      <c r="I32" s="14" t="str">
         <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J32" s="84"/>
-      <c r="K32" s="94" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="83" t="s">
+      <c r="J32" s="80"/>
+      <c r="K32" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="12" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="83" t="str">
-        <f t="shared" si="15"/>
+      <c r="C33" s="22" t="str">
+        <f t="shared" ref="C33:C34" si="21">IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D33" s="84" t="s">
+      <c r="D33" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="84" t="s">
+      <c r="E33" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F33" s="84" t="str">
-        <f t="shared" si="16"/>
+      <c r="F33" s="14" t="str">
+        <f t="shared" ref="F33:F34" si="22">IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),CONCATENATE($C$7,"_",$A33,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I33="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG24_small</v>
       </c>
-      <c r="G33" s="84" t="str">
+      <c r="G33" s="14" t="str">
         <f>IF(F33&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H33" s="84" t="str">
-        <f t="shared" si="17"/>
+      <c r="H33" s="14" t="str">
+        <f t="shared" ref="H33:H34" si="23">IF(AND(I33&lt;&gt;"",I33&lt;&gt;0),IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),CONCATENATE($C$7,"_",$A33,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG24_zoom</v>
       </c>
-      <c r="I33" s="84" t="str">
+      <c r="I33" s="14" t="str">
         <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J33" s="84"/>
-      <c r="K33" s="94" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" s="83" t="s">
+      <c r="J33" s="14"/>
+      <c r="K33" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="83" t="str">
-        <f t="shared" si="15"/>
+      <c r="C34" s="22" t="str">
+        <f t="shared" si="21"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D34" s="84" t="s">
+      <c r="D34" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E34" s="84" t="s">
+      <c r="E34" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F34" s="84" t="str">
-        <f t="shared" si="16"/>
+      <c r="F34" s="14" t="str">
+        <f t="shared" si="22"/>
         <v>MA_11_02_CO_IMG25_small</v>
       </c>
-      <c r="G34" s="84" t="str">
+      <c r="G34" s="14" t="str">
         <f>IF(F34&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H34" s="84" t="str">
-        <f t="shared" si="17"/>
+      <c r="H34" s="14" t="str">
+        <f t="shared" si="23"/>
         <v>MA_11_02_CO_IMG25_zoom</v>
       </c>
-      <c r="I34" s="84" t="str">
+      <c r="I34" s="14" t="str">
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J34" s="84"/>
-      <c r="K34" s="94" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="B35" s="83" t="s">
+      <c r="J34" s="14"/>
+      <c r="K34" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="12" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="83" t="str">
-        <f t="shared" si="15"/>
+      <c r="C35" s="22" t="str">
+        <f t="shared" ref="C35" si="24">IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D35" s="84" t="s">
+      <c r="D35" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F35" s="84" t="str">
-        <f t="shared" si="16"/>
+      <c r="F35" s="14" t="str">
+        <f t="shared" ref="F35" si="25">IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),CONCATENATE($C$7,"_",$A35,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I35="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG26_small</v>
       </c>
-      <c r="G35" s="84" t="str">
+      <c r="G35" s="14" t="str">
         <f>IF(F35&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H35" s="84" t="str">
-        <f t="shared" si="17"/>
+      <c r="H35" s="14" t="str">
+        <f t="shared" ref="H35" si="26">IF(AND(I35&lt;&gt;"",I35&lt;&gt;0),IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),CONCATENATE($C$7,"_",$A35,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG26_zoom</v>
       </c>
-      <c r="I35" s="84" t="str">
+      <c r="I35" s="14" t="str">
         <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J35" s="84"/>
-      <c r="K35" s="94" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" s="83" t="s">
+      <c r="J35" s="14"/>
+      <c r="K35" s="67" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="83" t="str">
-        <f t="shared" si="15"/>
+      <c r="C36" s="22" t="str">
+        <f t="shared" ref="C36:C37" si="27">IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D36" s="84" t="s">
+      <c r="D36" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E36" s="84" t="s">
+      <c r="E36" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F36" s="84" t="str">
-        <f t="shared" si="16"/>
+      <c r="F36" s="14" t="str">
+        <f t="shared" ref="F36:F37" si="28">IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),CONCATENATE($C$7,"_",$A36,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I36="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG27_small</v>
       </c>
-      <c r="G36" s="84" t="str">
+      <c r="G36" s="14" t="str">
         <f>IF(F36&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H36" s="84" t="str">
-        <f t="shared" si="17"/>
+      <c r="H36" s="14" t="str">
+        <f t="shared" ref="H36:H37" si="29">IF(AND(I36&lt;&gt;"",I36&lt;&gt;0),IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),CONCATENATE($C$7,"_",$A36,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG27_zoom</v>
       </c>
-      <c r="I36" s="84" t="str">
+      <c r="I36" s="14" t="str">
         <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J36" s="84"/>
-      <c r="K36" s="94" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="B37" s="70" t="s">
+      <c r="J36" s="15"/>
+      <c r="K36" s="67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="70" t="str">
-        <f t="shared" si="15"/>
+      <c r="C37" s="22" t="str">
+        <f t="shared" si="27"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="71" t="s">
+      <c r="E37" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F37" s="71" t="str">
-        <f t="shared" si="16"/>
+      <c r="F37" s="14" t="str">
+        <f t="shared" si="28"/>
         <v>MA_11_02_CO_IMG28_small</v>
       </c>
-      <c r="G37" s="71" t="str">
+      <c r="G37" s="14" t="str">
         <f>IF(F37&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H37" s="71" t="str">
-        <f t="shared" si="17"/>
+      <c r="H37" s="14" t="str">
+        <f t="shared" si="29"/>
         <v>MA_11_02_CO_IMG28_zoom</v>
       </c>
-      <c r="I37" s="71" t="str">
+      <c r="I37" s="14" t="str">
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J37" s="71"/>
-      <c r="K37" s="72" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="B38" s="83" t="s">
+      <c r="J37" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="K37" s="67"/>
+    </row>
+    <row r="38" spans="1:12" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="83" t="str">
-        <f t="shared" si="15"/>
+      <c r="C38" s="22" t="str">
+        <f t="shared" ref="C38:C42" si="30">IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D38" s="84" t="s">
+      <c r="D38" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="84" t="s">
+      <c r="E38" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F38" s="84" t="str">
-        <f t="shared" si="16"/>
+      <c r="F38" s="14" t="str">
+        <f t="shared" ref="F38:F42" si="31">IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),CONCATENATE($C$7,"_",$A38,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I38="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG29_small</v>
       </c>
-      <c r="G38" s="84" t="str">
+      <c r="G38" s="14" t="str">
         <f>IF(F38&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H38" s="84" t="str">
-        <f t="shared" si="17"/>
+      <c r="H38" s="14" t="str">
+        <f t="shared" ref="H38:H42" si="32">IF(AND(I38&lt;&gt;"",I38&lt;&gt;0),IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),CONCATENATE($C$7,"_",$A38,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG29_zoom</v>
       </c>
-      <c r="I38" s="84" t="str">
+      <c r="I38" s="14" t="str">
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J38" s="84"/>
-      <c r="K38" s="94" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81" t="s">
-        <v>189</v>
-      </c>
-      <c r="B39" s="83" t="s">
+      <c r="J38" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="K38" s="76" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="83" t="str">
-        <f t="shared" si="15"/>
+      <c r="C39" s="22" t="str">
+        <f t="shared" si="30"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D39" s="84" t="s">
+      <c r="D39" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="84" t="s">
+      <c r="E39" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F39" s="84" t="str">
-        <f t="shared" si="16"/>
+      <c r="F39" s="14" t="str">
+        <f t="shared" si="31"/>
         <v>MA_11_02_CO_IMG30_small</v>
       </c>
-      <c r="G39" s="84" t="str">
+      <c r="G39" s="14" t="str">
         <f>IF(F39&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H39" s="84" t="str">
-        <f t="shared" si="17"/>
+      <c r="H39" s="14" t="str">
+        <f t="shared" si="32"/>
         <v>MA_11_02_CO_IMG30_zoom</v>
       </c>
-      <c r="I39" s="84" t="str">
+      <c r="I39" s="14" t="str">
         <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J39" s="84"/>
-      <c r="K39" s="94" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="B40" s="83" t="s">
+      <c r="J39" s="75"/>
+      <c r="K39" s="77" t="s">
+        <v>227</v>
+      </c>
+      <c r="L39" s="78"/>
+    </row>
+    <row r="40" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="83" t="str">
-        <f t="shared" si="15"/>
+      <c r="C40" s="22" t="str">
+        <f t="shared" si="30"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D40" s="84" t="s">
+      <c r="D40" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E40" s="84" t="s">
+      <c r="E40" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F40" s="84" t="str">
-        <f t="shared" si="16"/>
+      <c r="F40" s="14" t="str">
+        <f t="shared" si="31"/>
         <v>MA_11_02_CO_IMG31_small</v>
       </c>
-      <c r="G40" s="84" t="str">
+      <c r="G40" s="14" t="str">
         <f>IF(F40&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H40" s="84" t="str">
-        <f t="shared" si="17"/>
+      <c r="H40" s="14" t="str">
+        <f t="shared" si="32"/>
         <v>MA_11_02_CO_IMG31_zoom</v>
       </c>
-      <c r="I40" s="84" t="str">
+      <c r="I40" s="14" t="str">
         <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J40" s="84"/>
-      <c r="K40" s="94" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="K40" s="69" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C41" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D41" s="14" t="s">
@@ -7762,7 +5391,7 @@
         <v>146</v>
       </c>
       <c r="F41" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>MA_11_02_CO_IMG32_small</v>
       </c>
       <c r="G41" s="14" t="str">
@@ -7770,27 +5399,29 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H41" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>MA_11_02_CO_IMG32_zoom</v>
       </c>
       <c r="I41" s="14" t="str">
         <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="68" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>189</v>
+      </c>
+      <c r="K41" s="66" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C42" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -7800,7 +5431,7 @@
         <v>146</v>
       </c>
       <c r="F42" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>MA_11_02_CO_IMG33_small</v>
       </c>
       <c r="G42" s="14" t="str">
@@ -7808,27 +5439,29 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H42" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>MA_11_02_CO_IMG33_zoom</v>
       </c>
       <c r="I42" s="14" t="str">
         <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="K42" s="81" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C43" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="C43:C46" si="33">IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D43" s="14" t="s">
@@ -7838,7 +5471,7 @@
         <v>146</v>
       </c>
       <c r="F43" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="F43:F46" si="34">IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),CONCATENATE($C$7,"_",$A43,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I43="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG34_small</v>
       </c>
       <c r="G43" s="14" t="str">
@@ -7846,27 +5479,29 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H43" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="H43:H46" si="35">IF(AND(I43&lt;&gt;"",I43&lt;&gt;0),IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),CONCATENATE($C$7,"_",$A43,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG34_zoom</v>
       </c>
       <c r="I43" s="14" t="str">
         <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J43" s="14"/>
+      <c r="J43" s="67" t="s">
+        <v>191</v>
+      </c>
       <c r="K43" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>147</v>
       </c>
       <c r="C44" s="22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D44" s="14" t="s">
@@ -7876,7 +5511,7 @@
         <v>146</v>
       </c>
       <c r="F44" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>MA_11_02_CO_IMG35_small</v>
       </c>
       <c r="G44" s="14" t="str">
@@ -7884,1526 +5519,141 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H44" s="14" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>MA_11_02_CO_IMG35_zoom</v>
       </c>
       <c r="I44" s="14" t="str">
         <f>IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J44" s="14"/>
+      <c r="J44" s="67" t="s">
+        <v>192</v>
+      </c>
       <c r="K44" s="15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="81" t="s">
-        <v>195</v>
-      </c>
-      <c r="B45" s="83" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="83" t="str">
-        <f t="shared" si="15"/>
+      <c r="C45" s="22" t="str">
+        <f t="shared" si="33"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D45" s="84" t="s">
+      <c r="D45" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E45" s="84" t="s">
+      <c r="E45" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F45" s="84" t="str">
-        <f t="shared" si="16"/>
+      <c r="F45" s="14" t="str">
+        <f t="shared" si="34"/>
         <v>MA_11_02_CO_IMG36_small</v>
       </c>
-      <c r="G45" s="84" t="str">
+      <c r="G45" s="14" t="str">
         <f>IF(F45&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H45" s="84" t="str">
-        <f t="shared" si="17"/>
+      <c r="H45" s="14" t="str">
+        <f t="shared" si="35"/>
         <v>MA_11_02_CO_IMG36_zoom</v>
       </c>
-      <c r="I45" s="84" t="str">
+      <c r="I45" s="14" t="str">
         <f>IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J45" s="84"/>
-      <c r="K45" s="94" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="B46" s="83" t="s">
+      <c r="J45" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="83" t="str">
-        <f t="shared" si="15"/>
+      <c r="C46" s="22" t="str">
+        <f t="shared" si="33"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D46" s="84" t="s">
+      <c r="D46" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="84" t="s">
+      <c r="E46" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F46" s="84" t="str">
-        <f t="shared" si="16"/>
+      <c r="F46" s="14" t="str">
+        <f t="shared" si="34"/>
         <v>MA_11_02_CO_IMG37_small</v>
       </c>
-      <c r="G46" s="84" t="str">
+      <c r="G46" s="14" t="str">
         <f>IF(F46&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H46" s="84" t="str">
-        <f t="shared" si="17"/>
+      <c r="H46" s="14" t="str">
+        <f t="shared" si="35"/>
         <v>MA_11_02_CO_IMG37_zoom</v>
       </c>
-      <c r="I46" s="84" t="str">
+      <c r="I46" s="14" t="str">
         <f>IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J46" s="84"/>
-      <c r="K46" s="94" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="B47" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="70" t="str">
-        <f t="shared" si="15"/>
+      <c r="J46" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" s="22" t="str">
+        <f t="shared" ref="C47" si="36">IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D47" s="71" t="s">
+      <c r="D47" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E47" s="71" t="s">
+      <c r="E47" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="71" t="str">
-        <f t="shared" si="16"/>
+      <c r="F47" s="14" t="str">
+        <f t="shared" ref="F47" si="37">IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),CONCATENATE($C$7,"_",$A47,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I47="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG38_small</v>
       </c>
-      <c r="G47" s="71" t="str">
+      <c r="G47" s="14" t="str">
         <f>IF(F47&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H47" s="71" t="str">
-        <f t="shared" si="17"/>
+      <c r="H47" s="14" t="str">
+        <f t="shared" ref="H47" si="38">IF(AND(I47&lt;&gt;"",I47&lt;&gt;0),IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),CONCATENATE($C$7,"_",$A47,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG38_zoom</v>
       </c>
-      <c r="I47" s="71" t="str">
+      <c r="I47" s="14" t="str">
         <f>IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J47" s="71"/>
-      <c r="K47" s="72" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="81" t="s">
-        <v>198</v>
-      </c>
-      <c r="B48" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="83" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D48" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F48" s="84" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG39_small</v>
-      </c>
-      <c r="G48" s="84" t="str">
-        <f>IF(F48&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H48" s="84" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG39_zoom</v>
-      </c>
-      <c r="I48" s="84" t="str">
-        <f>IF(OR(B48&lt;&gt;"",J48&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J48" s="84"/>
-      <c r="K48" s="94" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="81" t="s">
-        <v>199</v>
-      </c>
-      <c r="B49" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="83" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D49" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49" s="84" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG40_small</v>
-      </c>
-      <c r="G49" s="84" t="str">
-        <f>IF(F49&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H49" s="84" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG40_zoom</v>
-      </c>
-      <c r="I49" s="84" t="str">
-        <f>IF(OR(B49&lt;&gt;"",J49&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J49" s="84"/>
-      <c r="K49" s="94" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="69" t="s">
-        <v>200</v>
-      </c>
-      <c r="B50" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="70" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D50" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="F50" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG41_small</v>
-      </c>
-      <c r="G50" s="71" t="str">
-        <f>IF(F50&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H50" s="71" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG41_zoom</v>
-      </c>
-      <c r="I50" s="71" t="str">
-        <f>IF(OR(B50&lt;&gt;"",J50&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J50" s="71"/>
-      <c r="K50" s="72" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F51" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG42_small</v>
-      </c>
-      <c r="G51" s="14" t="str">
-        <f>IF(F51&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H51" s="14" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG42_zoom</v>
-      </c>
-      <c r="I51" s="14" t="str">
-        <f>IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="68" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C52" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F52" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG43_small</v>
-      </c>
-      <c r="G52" s="14" t="str">
-        <f>IF(F52&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H52" s="14" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG43_zoom</v>
-      </c>
-      <c r="I52" s="14" t="str">
-        <f>IF(OR(B52&lt;&gt;"",J52&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J52" s="14"/>
-      <c r="K52" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="12" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F53" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG44_small</v>
-      </c>
-      <c r="G53" s="14" t="str">
-        <f>IF(F53&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H53" s="14" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG44_zoom</v>
-      </c>
-      <c r="I53" s="14" t="str">
-        <f>IF(OR(B53&lt;&gt;"",J53&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="12" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="69" t="s">
-        <v>204</v>
-      </c>
-      <c r="B54" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="70" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D54" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="E54" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="F54" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG45_small</v>
-      </c>
-      <c r="G54" s="71" t="str">
-        <f>IF(F54&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H54" s="71" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG45_zoom</v>
-      </c>
-      <c r="I54" s="71" t="str">
-        <f>IF(OR(B54&lt;&gt;"",J54&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J54" s="71"/>
-      <c r="K54" s="72" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="12" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C55" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F55" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG46_small</v>
-      </c>
-      <c r="G55" s="14" t="str">
-        <f>IF(F55&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H55" s="14" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG46_zoom</v>
-      </c>
-      <c r="I55" s="14" t="str">
-        <f>IF(OR(B55&lt;&gt;"",J55&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J55" s="14"/>
-      <c r="K55" s="72" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="12" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="B56" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C56" s="83" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D56" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="E56" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F56" s="84" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG47_small</v>
-      </c>
-      <c r="G56" s="84" t="str">
-        <f>IF(F56&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H56" s="84" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG47_zoom</v>
-      </c>
-      <c r="I56" s="84" t="str">
-        <f>IF(OR(B56&lt;&gt;"",J56&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J56" s="84"/>
-      <c r="K56" s="94" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="B57" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C57" s="83" t="str">
-        <f>IF(OR(B57&lt;&gt;"",J58&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D57" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F57" s="84" t="str">
-        <f>IF(OR(B57&lt;&gt;"",J58&lt;&gt;""),CONCATENATE($C$7,"_",$A57,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I57="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_11_02_CO_IMG48_small</v>
-      </c>
-      <c r="G57" s="84" t="str">
-        <f>IF(F57&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H57" s="84" t="str">
-        <f>IF(AND(I57&lt;&gt;"",I57&lt;&gt;0),IF(OR(B57&lt;&gt;"",J58&lt;&gt;""),CONCATENATE($C$7,"_",$A57,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_11_02_CO_IMG48_zoom</v>
-      </c>
-      <c r="I57" s="84" t="str">
-        <f>IF(OR(B57&lt;&gt;"",J58&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J57" s="97" t="s">
-        <v>258</v>
-      </c>
-      <c r="K57" s="92" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="12" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B58" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" s="83" t="str">
-        <f t="shared" ref="C58:C61" si="18">IF(OR(B58&lt;&gt;"",J59&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D58" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="E58" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F58" s="84" t="str">
-        <f t="shared" ref="F58:F61" si="19">IF(OR(B58&lt;&gt;"",J59&lt;&gt;""),CONCATENATE($C$7,"_",$A58,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I58="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_11_02_CO_IMG49_small</v>
-      </c>
-      <c r="G58" s="84" t="str">
-        <f>IF(F58&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H58" s="84" t="str">
-        <f t="shared" ref="H58:H61" si="20">IF(AND(I58&lt;&gt;"",I58&lt;&gt;0),IF(OR(B58&lt;&gt;"",J59&lt;&gt;""),CONCATENATE($C$7,"_",$A58,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_11_02_CO_IMG49_zoom</v>
-      </c>
-      <c r="I58" s="84" t="str">
-        <f>IF(OR(B58&lt;&gt;"",J59&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J58" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="K58" s="92" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="12" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="81" t="s">
-        <v>209</v>
-      </c>
-      <c r="B59" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" s="83" t="str">
-        <f t="shared" si="18"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D59" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="E59" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" s="84" t="str">
-        <f t="shared" si="19"/>
-        <v>MA_11_02_CO_IMG50_small</v>
-      </c>
-      <c r="G59" s="84" t="str">
-        <f>IF(F59&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H59" s="84" t="str">
-        <f t="shared" si="20"/>
-        <v>MA_11_02_CO_IMG50_zoom</v>
-      </c>
-      <c r="I59" s="84" t="str">
-        <f>IF(OR(B59&lt;&gt;"",J60&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J59" s="84" t="s">
-        <v>259</v>
-      </c>
-      <c r="K59" s="94"/>
-    </row>
-    <row r="60" spans="1:11" s="12" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="81" t="s">
-        <v>210</v>
-      </c>
-      <c r="B60" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C60" s="83" t="str">
-        <f t="shared" si="18"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D60" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F60" s="84" t="str">
-        <f t="shared" si="19"/>
-        <v>MA_11_02_CO_IMG51_small</v>
-      </c>
-      <c r="G60" s="84" t="str">
-        <f>IF(F60&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H60" s="84" t="str">
-        <f t="shared" si="20"/>
-        <v>MA_11_02_CO_IMG51_zoom</v>
-      </c>
-      <c r="I60" s="84" t="str">
-        <f>IF(OR(B60&lt;&gt;"",J61&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J60" s="98" t="s">
-        <v>260</v>
-      </c>
-      <c r="K60" s="99" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="B61" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C61" s="70" t="str">
-        <f t="shared" si="18"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D61" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="E61" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="F61" s="71" t="str">
-        <f t="shared" si="19"/>
-        <v>MA_11_02_CO_IMG52_small</v>
-      </c>
-      <c r="G61" s="71" t="str">
-        <f>IF(F61&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H61" s="71" t="str">
-        <f t="shared" si="20"/>
-        <v>MA_11_02_CO_IMG52_zoom</v>
-      </c>
-      <c r="I61" s="71" t="str">
-        <f>IF(OR(B61&lt;&gt;"",J62&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J61" s="71"/>
-      <c r="K61" s="100" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="12" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F62" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG53_small</v>
-      </c>
-      <c r="G62" s="14" t="str">
-        <f>IF(F62&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H62" s="14" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG53_zoom</v>
-      </c>
-      <c r="I62" s="14" t="str">
-        <f>IF(OR(B62&lt;&gt;"",J62&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J62" s="14"/>
-      <c r="K62" s="75" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="B63" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="70" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D63" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="E63" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="F63" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG54_small</v>
-      </c>
-      <c r="G63" s="71" t="str">
-        <f>IF(F63&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H63" s="71" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG54_zoom</v>
-      </c>
-      <c r="I63" s="71" t="str">
-        <f>IF(OR(B63&lt;&gt;"",J63&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J63" s="71"/>
-      <c r="K63" s="95" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="12" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F64" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG55_small</v>
-      </c>
-      <c r="G64" s="14" t="str">
-        <f>IF(F64&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H64" s="14" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG55_zoom</v>
-      </c>
-      <c r="I64" s="14" t="str">
-        <f>IF(OR(B64&lt;&gt;"",J64&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J64" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K64"/>
-    </row>
-    <row r="65" spans="1:12" s="12" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="81" t="s">
-        <v>215</v>
-      </c>
-      <c r="B65" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="83" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D65" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="E65" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F65" s="84" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG56_small</v>
-      </c>
-      <c r="G65" s="84" t="str">
-        <f>IF(F65&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H65" s="84" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG56_zoom</v>
-      </c>
-      <c r="I65" s="84" t="str">
-        <f>IF(OR(B65&lt;&gt;"",J65&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J65" s="85"/>
-      <c r="K65" s="99" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="12" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="81" t="s">
-        <v>216</v>
-      </c>
-      <c r="B66" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="83" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D66" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F66" s="84" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG57_small</v>
-      </c>
-      <c r="G66" s="84" t="str">
-        <f>IF(F66&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H66" s="84" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG57_zoom</v>
-      </c>
-      <c r="I66" s="84" t="str">
-        <f>IF(OR(B66&lt;&gt;"",J66&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J66" s="101"/>
-      <c r="K66" s="99" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" s="12" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="81" t="s">
-        <v>217</v>
-      </c>
-      <c r="B67" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="83" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D67" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="E67" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F67" s="84" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG58_small</v>
-      </c>
-      <c r="G67" s="84" t="str">
-        <f>IF(F67&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H67" s="84" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG58_zoom</v>
-      </c>
-      <c r="I67" s="84" t="str">
-        <f>IF(OR(B67&lt;&gt;"",J67&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J67" s="84"/>
-      <c r="K67" s="99" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="12" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F68" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG59_small</v>
-      </c>
-      <c r="G68" s="14" t="str">
-        <f>IF(F68&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H68" s="14" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG59_zoom</v>
-      </c>
-      <c r="I68" s="14" t="str">
-        <f>IF(OR(B68&lt;&gt;"",J68&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J68" s="14"/>
-      <c r="K68" s="68" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" s="12" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="69" t="s">
-        <v>219</v>
-      </c>
-      <c r="B69" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C69" s="70" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D69" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="E69" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="F69" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG60_small</v>
-      </c>
-      <c r="G69" s="71" t="str">
-        <f>IF(F69&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H69" s="71" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG60_zoom</v>
-      </c>
-      <c r="I69" s="71" t="str">
-        <f>IF(OR(B69&lt;&gt;"",J69&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J69" s="96"/>
-      <c r="K69" s="72" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" s="12" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="102" t="s">
-        <v>220</v>
-      </c>
-      <c r="B70" s="103" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" s="103" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D70" s="104" t="s">
-        <v>145</v>
-      </c>
-      <c r="E70" s="104" t="s">
-        <v>146</v>
-      </c>
-      <c r="F70" s="104" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG61_small</v>
-      </c>
-      <c r="G70" s="104" t="str">
-        <f>IF(F70&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H70" s="104" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG61_zoom</v>
-      </c>
-      <c r="I70" s="104" t="str">
-        <f>IF(OR(B70&lt;&gt;"",J70&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J70" s="104"/>
-      <c r="K70" s="105" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A71" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="B71" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C71" s="83" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D71" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="E71" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F71" s="84" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG62_small</v>
-      </c>
-      <c r="G71" s="84" t="str">
-        <f>IF(F71&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H71" s="84" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG62_zoom</v>
-      </c>
-      <c r="I71" s="84" t="str">
-        <f>IF(OR(B71&lt;&gt;"",J71&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J71" s="84"/>
-      <c r="K71" s="94" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="12" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="69" t="s">
-        <v>222</v>
-      </c>
-      <c r="B72" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72" s="70" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D72" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="E72" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="F72" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG63_small</v>
-      </c>
-      <c r="G72" s="71" t="str">
-        <f>IF(F72&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H72" s="71" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG63_zoom</v>
-      </c>
-      <c r="I72" s="71" t="str">
-        <f>IF(OR(B72&lt;&gt;"",J72&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J72" s="71"/>
-      <c r="K72" s="95" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="81" t="s">
-        <v>223</v>
-      </c>
-      <c r="B73" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" s="83" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D73" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="E73" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F73" s="84" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG64_small</v>
-      </c>
-      <c r="G73" s="84" t="str">
-        <f>IF(F73&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H73" s="84" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG64_zoom</v>
-      </c>
-      <c r="I73" s="84" t="str">
-        <f>IF(OR(B73&lt;&gt;"",J73&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J73" s="94"/>
-      <c r="K73" s="99" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="69" t="s">
-        <v>224</v>
-      </c>
-      <c r="B74" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" s="70" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D74" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="E74" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="F74" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG65_small</v>
-      </c>
-      <c r="G74" s="71" t="str">
-        <f>IF(F74&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H74" s="71" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG65_zoom</v>
-      </c>
-      <c r="I74" s="71" t="str">
-        <f>IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J74" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="K74" s="95" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="171" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="B75" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="C75" s="83" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D75" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="E75" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F75" s="84" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG66_small</v>
-      </c>
-      <c r="G75" s="84" t="str">
-        <f>IF(F75&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H75" s="84" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG66_zoom</v>
-      </c>
-      <c r="I75" s="84" t="str">
-        <f>IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J75" s="94"/>
-      <c r="K75" s="106" t="s">
-        <v>267</v>
-      </c>
-      <c r="L75" s="107"/>
-    </row>
-    <row r="76" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C76" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F76" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG67_small</v>
-      </c>
-      <c r="G76" s="14" t="str">
-        <f>IF(F76&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H76" s="14" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG67_zoom</v>
-      </c>
-      <c r="I76" s="14" t="str">
-        <f>IF(OR(B76&lt;&gt;"",J76&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J76" s="73" t="s">
-        <v>269</v>
-      </c>
-      <c r="K76" s="74" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C77" s="22" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F77" s="14" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG68_small</v>
-      </c>
-      <c r="G77" s="14" t="str">
-        <f>IF(F77&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H77" s="14" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG68_zoom</v>
-      </c>
-      <c r="I77" s="14" t="str">
-        <f>IF(OR(B77&lt;&gt;"",J77&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J77" t="s">
-        <v>271</v>
-      </c>
-      <c r="K77" s="67" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="69" t="s">
-        <v>228</v>
-      </c>
-      <c r="B78" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C78" s="70" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D78" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="E78" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="F78" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG69_small</v>
-      </c>
-      <c r="G78" s="71" t="str">
-        <f>IF(F78&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H78" s="71" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG69_zoom</v>
-      </c>
-      <c r="I78" s="71" t="str">
-        <f>IF(OR(B78&lt;&gt;"",J78&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J78" s="72" t="s">
-        <v>273</v>
-      </c>
-      <c r="K78" s="96" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="69" t="s">
-        <v>229</v>
-      </c>
-      <c r="B79" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C79" s="70" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D79" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="E79" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="F79" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG70_small</v>
-      </c>
-      <c r="G79" s="71" t="str">
-        <f>IF(F79&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H79" s="71" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG70_zoom</v>
-      </c>
-      <c r="I79" s="71" t="str">
-        <f>IF(OR(B79&lt;&gt;"",J79&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J79" s="95" t="s">
-        <v>274</v>
-      </c>
-      <c r="K79" s="72" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="B80" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C80" s="70" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D80" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="E80" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="F80" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG71_small</v>
-      </c>
-      <c r="G80" s="71" t="str">
-        <f>IF(F80&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H80" s="71" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG71_zoom</v>
-      </c>
-      <c r="I80" s="71" t="str">
-        <f>IF(OR(B80&lt;&gt;"",J80&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J80" s="95" t="s">
-        <v>275</v>
-      </c>
-      <c r="K80" s="72" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="69" t="s">
-        <v>231</v>
-      </c>
-      <c r="B81" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C81" s="70" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D81" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="E81" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="F81" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG72_small</v>
-      </c>
-      <c r="G81" s="71" t="str">
-        <f>IF(F81&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H81" s="71" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG72_zoom</v>
-      </c>
-      <c r="I81" s="71" t="str">
-        <f>IF(OR(B81&lt;&gt;"",J81&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J81" s="95" t="s">
-        <v>276</v>
-      </c>
-      <c r="K81" s="72" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="69" t="s">
-        <v>232</v>
-      </c>
-      <c r="B82" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C82" s="70" t="str">
-        <f t="shared" si="15"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D82" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="E82" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="F82" s="71" t="str">
-        <f t="shared" si="16"/>
-        <v>MA_11_02_CO_IMG73_small</v>
-      </c>
-      <c r="G82" s="71" t="str">
-        <f>IF(F82&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H82" s="71" t="str">
-        <f t="shared" si="17"/>
-        <v>MA_11_02_CO_IMG73_zoom</v>
-      </c>
-      <c r="I82" s="71" t="str">
-        <f>IF(OR(B82&lt;&gt;"",J82&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J82" s="71" t="s">
-        <v>277</v>
-      </c>
-      <c r="K82" s="72" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="81" t="s">
-        <v>233</v>
-      </c>
-      <c r="B83" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="C83" s="83" t="str">
-        <f t="shared" ref="C83" si="21">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D83" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="E83" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F83" s="84" t="str">
-        <f t="shared" ref="F83" si="22">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE($C$7,"_",$A83,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I83="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_11_02_CO_IMG74_small</v>
-      </c>
-      <c r="G83" s="84" t="str">
-        <f>IF(F83&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H83" s="84" t="str">
-        <f t="shared" ref="H83" si="23">IF(AND(I83&lt;&gt;"",I83&lt;&gt;0),IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE($C$7,"_",$A83,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_11_02_CO_IMG74_zoom</v>
-      </c>
-      <c r="I83" s="84" t="str">
-        <f>IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J83" s="99" t="s">
-        <v>279</v>
-      </c>
-      <c r="K83" s="94" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J47" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="103.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="F2:G2"/>
@@ -9444,47 +5694,20 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E47">
       <formula1>"Vertical,Horizontal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D47">
       <formula1>"Ilustración,Fotografía"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B83" r:id="rId1"/>
+    <hyperlink ref="B47" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="3127" r:id="rId5">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>971550</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>3552825</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>2381250</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="3127" r:id="rId5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9514,25 +5737,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="126"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="33"/>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -9540,11 +5763,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="33"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="34"/>
       <c r="H3" s="24" t="s">
         <v>18</v>
@@ -9595,11 +5818,11 @@
       <c r="C5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="136" t="str">
+      <c r="D5" s="110" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>MA_11_01_CO</v>
       </c>
-      <c r="E5" s="137"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="34"/>
       <c r="H5" s="24" t="s">
         <v>22</v>
@@ -9644,12 +5867,12 @@
       <c r="C7" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="122" t="str">
+      <c r="D7" s="96" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_CO.xls</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="123"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
       <c r="H7" s="24" t="s">
         <v>24</v>
       </c>
@@ -9743,14 +5966,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="126"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="100"/>
       <c r="I13" s="24" t="s">
         <v>33</v>
       </c>
@@ -9783,12 +6006,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="103"/>
       <c r="J15" s="24">
         <v>12</v>
       </c>
@@ -9828,12 +6051,12 @@
       <c r="C17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="130" t="str">
+      <c r="D17" s="104" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>MA_11_01_REC10</v>
       </c>
-      <c r="E17" s="131"/>
-      <c r="F17" s="132"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="106"/>
       <c r="J17" s="24">
         <v>14</v>
       </c>
@@ -9849,12 +6072,12 @@
       <c r="C18" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="122" t="str">
+      <c r="D18" s="96" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_REC10.xls</v>
       </c>
-      <c r="E18" s="122"/>
-      <c r="F18" s="123"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="97"/>
       <c r="J18" s="24">
         <v>15</v>
       </c>
@@ -10246,41 +6469,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="138" t="s">
+      <c r="D1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="138" t="s">
+      <c r="E1" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="138" t="s">
+      <c r="F1" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="138" t="s">
+      <c r="G1" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="139" t="s">
+      <c r="H1" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="138"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="43" t="s">
         <v>65</v>
       </c>

--- a/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO.xlsx
@@ -3990,9 +3990,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4268,7 +4268,7 @@
         <v>147</v>
       </c>
       <c r="C12" s="22" t="str">
-        <f t="shared" ref="C12:C46" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C12:C32" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -4278,7 +4278,7 @@
         <v>146</v>
       </c>
       <c r="F12" s="14" t="str">
-        <f t="shared" ref="F12:F46" si="4">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I12="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F12:F32" si="4">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I12="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_CO_IMG03_small</v>
       </c>
       <c r="G12" s="14" t="str">
@@ -4286,7 +4286,7 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H12" s="14" t="str">
-        <f t="shared" ref="H12:H46" si="5">IF(AND(I12&lt;&gt;"",I12&lt;&gt;0),IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H12:H32" si="5">IF(AND(I12&lt;&gt;"",I12&lt;&gt;0),IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_CO_IMG03_zoom</v>
       </c>
       <c r="I12" s="14" t="str">
